--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F139D2-E493-5F48-919C-8D1671F02DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F938F-CD76-C846-8210-14F4E0829026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -626,9 +626,6 @@
     <t>#! DUMP_COLS x.actions</t>
   </si>
   <si>
-    <t xml:space="preserve">         Extracteur De Données D'Effectifs</t>
-  </si>
-  <si>
     <t>#` ${arrondissement}</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t xml:space="preserve">         Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Extracteur de données d'effectifs</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1553,7 +1553,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1868,7 +1868,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1942,10 +1942,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="46" t="e">
         <f>VLOOKUP(A2,'codage tribunal'!A:B,2,FALSE)</f>
@@ -1974,37 +1974,37 @@
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="K4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="C5" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="51" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
@@ -2035,7 +2035,7 @@
         <v>#N/A</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05D1ED-D4C7-1C41-A54A-DAB6911B620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E054AD9C-5FEE-444C-AC9A-C915ED0C461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -784,7 +784,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -868,29 +868,35 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -899,21 +905,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6FC886D6-2077-B34D-B1DF-739B068A66D1}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1849,7 +1841,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:K150">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK($C5)=FALSE,ISBLANK($D5)=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1890,31 +1882,33 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="36" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="36"/>
+    <col min="10" max="10" width="71.1640625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1930,71 +1924,71 @@
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" s="32" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
         <v>47</v>
@@ -2008,143 +2002,151 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" s="32" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" s="32" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="18" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B8:J8"/>
@@ -2153,12 +2155,6 @@
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E054AD9C-5FEE-444C-AC9A-C915ED0C461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA25C5-CCD6-A14E-8507-17C853FC29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -784,7 +784,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -868,36 +868,37 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1332,7 +1333,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1621,7 @@
       <c r="E4"/>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C5"/>
@@ -1653,7 +1654,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1704,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1736,7 +1737,7 @@
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
@@ -1759,13 +1760,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -1794,7 +1795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="19" t="s">
         <v>34</v>
@@ -1834,8 +1835,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1882,263 +1883,273 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="36" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="36"/>
-    <col min="10" max="10" width="71.1640625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="8.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="24" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="24"/>
+    <col min="10" max="10" width="71.1640625" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" s="32" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" s="32" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" s="32" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:10" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:10" s="32" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="18" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
@@ -2154,7 +2165,6 @@
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA25C5-CCD6-A14E-8507-17C853FC29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F89413-D477-E346-84BF-35A1BA14109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="2" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Fonctionnaires placés de substitution</t>
   </si>
   <si>
-    <t>Contractuels</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -570,6 +567,24 @@
   </si>
   <si>
     <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
+  </si>
+  <si>
+    <t>SIEGE</t>
+  </si>
+  <si>
+    <t>GREFFE</t>
+  </si>
+  <si>
+    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
+  </si>
+  <si>
+    <t>Contractuels et vacataires</t>
+  </si>
+  <si>
+    <t>TOTAL SIEGE</t>
+  </si>
+  <si>
+    <t>TOTAL GREFFE</t>
   </si>
 </sst>
 </file>
@@ -583,7 +598,7 @@
     <numFmt numFmtId="166" formatCode="General;General;\-"/>
     <numFmt numFmtId="167" formatCode="0.###;0.###;\-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +675,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -705,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -777,6 +800,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -784,7 +883,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -825,9 +924,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -892,13 +992,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -906,7 +1026,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6FC886D6-2077-B34D-B1DF-739B068A66D1}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1333,7 +1468,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1365,131 +1500,131 @@
       </c>
     </row>
     <row r="2" spans="1:118" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="24"/>
-      <c r="CI2" s="24"/>
-      <c r="CJ2" s="24"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="24"/>
-      <c r="CU2" s="24"/>
-      <c r="CV2" s="24"/>
-      <c r="CW2" s="24"/>
-      <c r="CX2" s="24"/>
-      <c r="CY2" s="24"/>
-      <c r="CZ2" s="24"/>
-      <c r="DA2" s="24"/>
-      <c r="DB2" s="24"/>
-      <c r="DC2" s="24"/>
-      <c r="DD2" s="24"/>
-      <c r="DE2" s="24"/>
-      <c r="DF2" s="24"/>
-      <c r="DG2" s="24"/>
-      <c r="DH2" s="24"/>
-      <c r="DI2" s="24"/>
-      <c r="DJ2" s="24"/>
-      <c r="DK2" s="24"/>
-      <c r="DL2" s="24"/>
-      <c r="DM2" s="24"/>
-      <c r="DN2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="23"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="23"/>
+      <c r="DC2" s="23"/>
+      <c r="DD2" s="23"/>
+      <c r="DE2" s="23"/>
+      <c r="DF2" s="23"/>
+      <c r="DG2" s="23"/>
+      <c r="DH2" s="23"/>
+      <c r="DI2" s="23"/>
+      <c r="DJ2" s="23"/>
+      <c r="DK2" s="23"/>
+      <c r="DL2" s="23"/>
+      <c r="DM2" s="23"/>
+      <c r="DN2" s="23"/>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1498,119 +1633,119 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="26"/>
-      <c r="BU3" s="26"/>
-      <c r="BV3" s="26"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
-      <c r="BZ3" s="26"/>
-      <c r="CA3" s="26"/>
-      <c r="CB3" s="26"/>
-      <c r="CC3" s="26"/>
-      <c r="CD3" s="26"/>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="26"/>
-      <c r="CG3" s="26"/>
-      <c r="CH3" s="26"/>
-      <c r="CI3" s="26"/>
-      <c r="CJ3" s="26"/>
-      <c r="CK3" s="26"/>
-      <c r="CL3" s="26"/>
-      <c r="CM3" s="26"/>
-      <c r="CN3" s="26"/>
-      <c r="CO3" s="26"/>
-      <c r="CP3" s="26"/>
-      <c r="CQ3" s="26"/>
-      <c r="CR3" s="26"/>
-      <c r="CS3" s="26"/>
-      <c r="CT3" s="26"/>
-      <c r="CU3" s="26"/>
-      <c r="CV3" s="26"/>
-      <c r="CW3" s="26"/>
-      <c r="CX3" s="26"/>
-      <c r="CY3" s="26"/>
-      <c r="CZ3" s="26"/>
-      <c r="DA3" s="26"/>
-      <c r="DB3" s="26"/>
-      <c r="DC3" s="26"/>
-      <c r="DD3" s="26"/>
-      <c r="DE3" s="26"/>
-      <c r="DF3" s="26"/>
-      <c r="DG3" s="26"/>
-      <c r="DH3" s="26"/>
-      <c r="DI3" s="26"/>
-      <c r="DJ3" s="26"/>
-      <c r="DK3" s="26"/>
-      <c r="DL3" s="26"/>
-      <c r="DM3" s="26"/>
-      <c r="DN3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
+      <c r="BE3" s="25"/>
+      <c r="BF3" s="25"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
+      <c r="BO3" s="25"/>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
+      <c r="BX3" s="25"/>
+      <c r="BY3" s="25"/>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="25"/>
+      <c r="CB3" s="25"/>
+      <c r="CC3" s="25"/>
+      <c r="CD3" s="25"/>
+      <c r="CE3" s="25"/>
+      <c r="CF3" s="25"/>
+      <c r="CG3" s="25"/>
+      <c r="CH3" s="25"/>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25"/>
+      <c r="CK3" s="25"/>
+      <c r="CL3" s="25"/>
+      <c r="CM3" s="25"/>
+      <c r="CN3" s="25"/>
+      <c r="CO3" s="25"/>
+      <c r="CP3" s="25"/>
+      <c r="CQ3" s="25"/>
+      <c r="CR3" s="25"/>
+      <c r="CS3" s="25"/>
+      <c r="CT3" s="25"/>
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="25"/>
+      <c r="CW3" s="25"/>
+      <c r="CX3" s="25"/>
+      <c r="CY3" s="25"/>
+      <c r="CZ3" s="25"/>
+      <c r="DA3" s="25"/>
+      <c r="DB3" s="25"/>
+      <c r="DC3" s="25"/>
+      <c r="DD3" s="25"/>
+      <c r="DE3" s="25"/>
+      <c r="DF3" s="25"/>
+      <c r="DG3" s="25"/>
+      <c r="DH3" s="25"/>
+      <c r="DI3" s="25"/>
+      <c r="DJ3" s="25"/>
+      <c r="DK3" s="25"/>
+      <c r="DL3" s="25"/>
+      <c r="DM3" s="25"/>
+      <c r="DN3" s="25"/>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1621,7 +1756,7 @@
       <c r="E4"/>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C5"/>
@@ -1665,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1680,7 +1815,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -1688,7 +1823,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1696,7 +1831,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1704,7 +1839,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1717,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1735,24 +1870,25 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>30</v>
+    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="e">
+      <c r="B2" s="16" t="e">
         <f>VLOOKUP(A2,'codage tribunal'!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1760,13 +1896,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -1779,70 +1932,126 @@
       <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="M4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="22" t="e">
+      <c r="D5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="21" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="20" t="e">
+      <c r="F5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="20" t="e">
+      <c r="G5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="20" t="e">
+      <c r="H5" s="19" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,
+IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+),'ETPT Format DDG'!$I:$I,"C",
+'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$G:$G,"Magistrat")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="46" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,
+IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+),
+'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$G:$G,"Magistrat")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="20" t="e">
+      <c r="K5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="20" t="e">
+      <c r="L5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="21" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="M5" s="20" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$2,'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L6" t="s">
+      <c r="N5" s="46" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,
+IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+),
+'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$G:$G,"Greffe")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="20" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,
+IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+),'ETPT Format DDG'!$I:$I,"C",
+'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$G:$G,"Autour du magistrat")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:K150">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <mergeCells count="2">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:O150">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(ISBLANK($C5)=FALSE,ISBLANK($D5)=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1882,130 +2091,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="24" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="24"/>
-    <col min="10" max="10" width="71.1640625" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="8.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="23" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="23"/>
+    <col min="10" max="10" width="71.1640625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -2031,7 +2240,7 @@
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -2044,7 +2253,7 @@
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -2056,98 +2265,99 @@
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="18" spans="1:10" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
@@ -2164,7 +2374,6 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F89413-D477-E346-84BF-35A1BA14109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24816E1E-27A1-9147-92A5-D82FD9079116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="2" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/Betagouv/a-just/front/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24816E1E-27A1-9147-92A5-D82FD9079116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C34238-0F47-A349-9585-09C806FD1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="14560" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22480" windowHeight="17620" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
@@ -592,11 +592,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="General;General;\-"/>
-    <numFmt numFmtId="167" formatCode="0.###;0.###;\-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="General;General;\-"/>
+    <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -880,8 +880,8 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -918,10 +918,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -933,19 +933,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,11 +951,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,6 +968,30 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -995,53 +1013,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{C877C5E8-FCBF-114F-9ECB-F75EF7C9C0EB}"/>
+    <cellStyle name="Milliers" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6FC886D6-2077-B34D-B1DF-739B068A66D1}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1169,7 +1154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1468,7 +1453,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,131 +1485,131 @@
       </c>
     </row>
     <row r="2" spans="1:118" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="23"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="23"/>
-      <c r="CB2" s="23"/>
-      <c r="CC2" s="23"/>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="23"/>
-      <c r="CF2" s="23"/>
-      <c r="CG2" s="23"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="23"/>
-      <c r="CJ2" s="23"/>
-      <c r="CK2" s="23"/>
-      <c r="CL2" s="23"/>
-      <c r="CM2" s="23"/>
-      <c r="CN2" s="23"/>
-      <c r="CO2" s="23"/>
-      <c r="CP2" s="23"/>
-      <c r="CQ2" s="23"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="23"/>
-      <c r="CT2" s="23"/>
-      <c r="CU2" s="23"/>
-      <c r="CV2" s="23"/>
-      <c r="CW2" s="23"/>
-      <c r="CX2" s="23"/>
-      <c r="CY2" s="23"/>
-      <c r="CZ2" s="23"/>
-      <c r="DA2" s="23"/>
-      <c r="DB2" s="23"/>
-      <c r="DC2" s="23"/>
-      <c r="DD2" s="23"/>
-      <c r="DE2" s="23"/>
-      <c r="DF2" s="23"/>
-      <c r="DG2" s="23"/>
-      <c r="DH2" s="23"/>
-      <c r="DI2" s="23"/>
-      <c r="DJ2" s="23"/>
-      <c r="DK2" s="23"/>
-      <c r="DL2" s="23"/>
-      <c r="DM2" s="23"/>
-      <c r="DN2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="21"/>
+      <c r="CW2" s="21"/>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="21"/>
+      <c r="CZ2" s="21"/>
+      <c r="DA2" s="21"/>
+      <c r="DB2" s="21"/>
+      <c r="DC2" s="21"/>
+      <c r="DD2" s="21"/>
+      <c r="DE2" s="21"/>
+      <c r="DF2" s="21"/>
+      <c r="DG2" s="21"/>
+      <c r="DH2" s="21"/>
+      <c r="DI2" s="21"/>
+      <c r="DJ2" s="21"/>
+      <c r="DK2" s="21"/>
+      <c r="DL2" s="21"/>
+      <c r="DM2" s="21"/>
+      <c r="DN2" s="21"/>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1633,119 +1618,119 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="25"/>
-      <c r="BO3" s="25"/>
-      <c r="BP3" s="25"/>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
-      <c r="CH3" s="25"/>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
-      <c r="CS3" s="25"/>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
-      <c r="CX3" s="25"/>
-      <c r="CY3" s="25"/>
-      <c r="CZ3" s="25"/>
-      <c r="DA3" s="25"/>
-      <c r="DB3" s="25"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
-      <c r="DF3" s="25"/>
-      <c r="DG3" s="25"/>
-      <c r="DH3" s="25"/>
-      <c r="DI3" s="25"/>
-      <c r="DJ3" s="25"/>
-      <c r="DK3" s="25"/>
-      <c r="DL3" s="25"/>
-      <c r="DM3" s="25"/>
-      <c r="DN3" s="25"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
+      <c r="CH3" s="23"/>
+      <c r="CI3" s="23"/>
+      <c r="CJ3" s="23"/>
+      <c r="CK3" s="23"/>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="23"/>
+      <c r="CT3" s="23"/>
+      <c r="CU3" s="23"/>
+      <c r="CV3" s="23"/>
+      <c r="CW3" s="23"/>
+      <c r="CX3" s="23"/>
+      <c r="CY3" s="23"/>
+      <c r="CZ3" s="23"/>
+      <c r="DA3" s="23"/>
+      <c r="DB3" s="23"/>
+      <c r="DC3" s="23"/>
+      <c r="DD3" s="23"/>
+      <c r="DE3" s="23"/>
+      <c r="DF3" s="23"/>
+      <c r="DG3" s="23"/>
+      <c r="DH3" s="23"/>
+      <c r="DI3" s="23"/>
+      <c r="DJ3" s="23"/>
+      <c r="DK3" s="23"/>
+      <c r="DL3" s="23"/>
+      <c r="DM3" s="23"/>
+      <c r="DN3" s="23"/>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1756,7 +1741,7 @@
       <c r="E4"/>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C5"/>
@@ -1815,7 +1800,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -1823,7 +1808,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1831,7 +1816,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1839,7 +1824,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1855,7 +1840,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,18 +1848,19 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="12" max="13" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -1885,7 +1871,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="16" t="e">
@@ -1898,28 +1884,28 @@
     </row>
     <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C3" s="9"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="39" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="30" t="s">
         <v>58</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -1932,10 +1918,10 @@
       <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="32" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -1947,40 +1933,40 @@
       <c r="L4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="33" t="s">
         <v>59</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21" t="e">
+      <c r="E5" s="19" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="19" t="e">
+      <c r="F5" s="17" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="19" t="e">
+      <c r="G5" s="17" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="19" t="e">
+      <c r="H5" s="17" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
@@ -1990,7 +1976,7 @@
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="46" t="e">
+      <c r="I5" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
@@ -2000,23 +1986,23 @@
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="19" t="e">
+      <c r="J5" s="17" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="19" t="e">
+      <c r="K5" s="17" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="19" t="e">
+      <c r="L5" s="17" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="20" t="e">
+      <c r="M5" s="18" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$2,'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="46" t="e">
+      <c r="N5" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
@@ -2026,7 +2012,7 @@
 'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="O5" s="20" t="e">
+      <c r="O5" s="18" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
@@ -2051,7 +2037,7 @@
     <mergeCell ref="J3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:O150">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK($C5)=FALSE,ISBLANK($D5)=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2097,276 +2083,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="23" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="23"/>
-    <col min="10" max="10" width="71.1640625" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="8.1640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="21" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="21"/>
+    <col min="10" max="10" width="71.1640625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="B16:J16"/>
@@ -2374,6 +2350,16 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C34238-0F47-A349-9585-09C806FD1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B14F26-027E-9F4C-A957-F1AF0E6DE8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22480" windowHeight="17620" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -983,6 +983,12 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,29 +1001,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1884,20 +1884,20 @@
     </row>
     <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C3" s="9"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="35" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="30" t="s">
         <v>58</v>
       </c>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="19" t="e">
@@ -2077,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -2108,224 +2108,224 @@
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
@@ -2343,6 +2343,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="B16:J16"/>
@@ -2350,16 +2356,10 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B14F26-027E-9F4C-A957-F1AF0E6DE8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5149D40B-076D-2842-AB9D-6E40C934E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22480" windowHeight="17620" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="1" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
     <sheet name="ETPT Format DDG" sheetId="9" r:id="rId2"/>
-    <sheet name="Agrégats DDG" sheetId="10" r:id="rId3"/>
-    <sheet name="codage tribunal" sheetId="12" state="hidden" r:id="rId4"/>
-    <sheet name="codage fonction" sheetId="13" state="hidden" r:id="rId5"/>
-    <sheet name="NOTICE et COMMENTAIRES" sheetId="4" r:id="rId6"/>
+    <sheet name="codage condition" sheetId="14" r:id="rId3"/>
+    <sheet name="Agrégats DDG" sheetId="10" r:id="rId4"/>
+    <sheet name="codage tribunal" sheetId="12" r:id="rId5"/>
+    <sheet name="codage fonction" sheetId="13" state="hidden" r:id="rId6"/>
+    <sheet name="NOTICE et COMMENTAIRES" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
+    <definedName name="J">'codage condition'!$B$2:$B$4</definedName>
+    <definedName name="JA">'codage condition'!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -998,19 +1001,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1773,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B89445B-6ECC-4440-B85C-E593AE209933}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1836,11 +1839,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF251994-7598-1648-8DDF-3EC3EBC896DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2045,7 +2065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF7A98-8726-2B45-9E0D-08F39416C73F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2059,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D177071-EB91-3A4C-8FA0-97E070BB3BA4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2073,11 +2093,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -2091,164 +2111,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
@@ -2270,79 +2290,80 @@
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -2359,7 +2380,6 @@
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B14F26-027E-9F4C-A957-F1AF0E6DE8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E1AF8-A48F-1F46-ABB5-81C69BA0C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22480" windowHeight="17620" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -301,6 +301,267 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Précisions nécessaires aux DDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tribunal d'affectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La colonne "Code fonction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est remplie automatiquement mais </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> car elle permet de distinguer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> les placés de substitution des placés additionnels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Par défaut, tous les placés ont été codés en "M-PLAC-ADD" (Magistrat placé additionnel) ou "F-PLAC-ADD" (Fonctionnaire placé additionnel). Si des Placés étaient des effectifs de substitution, les recoder "M-PLAC-SUB" pour les magistrats ou "F-PLAC-SUB" pour les fonctionnaires, à l'aide du menu déroulant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les éventuels </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ont été répartis entre les CET de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> moins d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plus d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans l'onglet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Agrégats DDG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
+    </r>
+  </si>
+  <si>
+    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
+  </si>
+  <si>
+    <t>SIEGE</t>
+  </si>
+  <si>
+    <t>GREFFE</t>
+  </si>
+  <si>
+    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
+  </si>
+  <si>
+    <t>Contractuels et vacataires</t>
+  </si>
+  <si>
+    <t>TOTAL SIEGE</t>
+  </si>
+  <si>
+    <t>TOTAL GREFFE</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Un </t>
     </r>
     <r>
@@ -324,267 +585,16 @@
       </rPr>
       <t>appelle une vérification. Soit l'agent était effectivement absent pendant toute la période (en CLM par ex.), soit il n'a pas été ventilé.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Précisions nécessaires aux DDG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tribunal d'affectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La colonne "Code fonction"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est remplie automatiquement mais </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> car elle permet de distinguer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> les placés de substitution des placés additionnels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Par défaut, tous les placés ont été codés en "M-PLAC-ADD" (Magistrat placé additionnel) ou "F-PLAC-ADD" (Fonctionnaire placé additionnel). Si des Placés étaient des effectifs de substitution, les recoder "M-PLAC-SUB" pour les magistrats ou "F-PLAC-SUB" pour les fonctionnaires, à l'aide du menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les éventuels </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ont été répartis entre les CET de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> moins d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> plus d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dans l'onglet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Agrégats DDG"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, il convient de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
-    </r>
-  </si>
-  <si>
-    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
-  </si>
-  <si>
-    <t>SIEGE</t>
-  </si>
-  <si>
-    <t>GREFFE</t>
-  </si>
-  <si>
-    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
-  </si>
-  <si>
-    <t>Contractuels et vacataires</t>
-  </si>
-  <si>
-    <t>TOTAL SIEGE</t>
-  </si>
-  <si>
-    <t>TOTAL GREFFE</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Il est nécessaire de ventiler durant les temps d'indisponibilité.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -883,7 +893,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -998,26 +1008,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1885,21 +1898,21 @@
     <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C3" s="9"/>
       <c r="E3" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="39"/>
       <c r="J3" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="39"/>
       <c r="O3" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -1919,10 +1932,10 @@
         <v>25</v>
       </c>
       <c r="H4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>60</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>26</v>
@@ -1934,13 +1947,13 @@
         <v>28</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -2077,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,171 +2104,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -2270,79 +2283,80 @@
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="C13" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="C14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="C15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -2359,7 +2373,6 @@
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5149D40B-076D-2842-AB9D-6E40C934E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918D7AC2-D774-DD4B-B142-54A1DADF6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="1" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
     <sheet name="ETPT Format DDG" sheetId="9" r:id="rId2"/>
-    <sheet name="codage condition" sheetId="14" r:id="rId3"/>
-    <sheet name="Agrégats DDG" sheetId="10" r:id="rId4"/>
-    <sheet name="codage tribunal" sheetId="12" r:id="rId5"/>
-    <sheet name="codage fonction" sheetId="13" state="hidden" r:id="rId6"/>
-    <sheet name="NOTICE et COMMENTAIRES" sheetId="4" r:id="rId7"/>
+    <sheet name="Agrégats DDG" sheetId="10" r:id="rId3"/>
+    <sheet name="codage tribunal" sheetId="12" state="hidden" r:id="rId4"/>
+    <sheet name="codage fonction" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="NOTICE et COMMENTAIRES" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
-    <definedName name="J">'codage condition'!$B$2:$B$4</definedName>
-    <definedName name="JA">'codage condition'!$A$2:$A$4</definedName>
+    <definedName name="J">#REF!</definedName>
+    <definedName name="JA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -155,12 +154,6 @@
     <t>Selectionner une juridiction</t>
   </si>
   <si>
-    <t xml:space="preserve">         Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Extracteur de données d'effectifs</t>
-  </si>
-  <si>
     <t xml:space="preserve">        EXPLICATIONS ET CONTROLES A EFFECTUER</t>
   </si>
   <si>
@@ -588,6 +581,15 @@
   </si>
   <si>
     <t>TOTAL GREFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Agrégats DDG</t>
   </si>
 </sst>
 </file>
@@ -601,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="General;General;\-"/>
     <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +688,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -886,7 +903,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1001,6 +1018,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,9 +1028,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1021,6 +1038,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1063,15 +1086,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46180</xdr:colOff>
+      <xdr:colOff>103906</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
+      <xdr:colOff>923635</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>476535</xdr:rowOff>
+      <xdr:rowOff>806439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46180" y="23090"/>
-          <a:ext cx="496454" cy="453445"/>
+          <a:off x="103906" y="57725"/>
+          <a:ext cx="819729" cy="748714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,22 +1135,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46180</xdr:colOff>
+      <xdr:colOff>103905</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
+      <xdr:colOff>923634</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>476535</xdr:rowOff>
+      <xdr:rowOff>806439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD8D5B3-C3E9-E94E-BD8C-2EF269EA8931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7A5D8C-BE33-ED45-A77A-8F455267161F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,8 +1166,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46180" y="23090"/>
-          <a:ext cx="496454" cy="453445"/>
+          <a:off x="103905" y="57725"/>
+          <a:ext cx="819729" cy="748714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98777</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114778</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1012648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1D57F9-87BD-BD45-83E9-42F2487B9728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98777" y="84665"/>
+          <a:ext cx="1016001" cy="927983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300184</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>817985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC1CFF2-AC52-DD4F-9E83-87135FE34159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103910" y="69271"/>
+          <a:ext cx="819729" cy="748714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,12 +1577,12 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
@@ -1471,9 +1592,9 @@
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1776,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B89445B-6ECC-4440-B85C-E593AE209933}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1786,9 +1907,9 @@
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1839,28 +1960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF251994-7598-1648-8DDF-3EC3EBC896DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1879,193 +1983,219 @@
     <col min="15" max="15" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="16" t="e">
-        <f>VLOOKUP(A2,'codage tribunal'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
-      <c r="C3" s="9"/>
-      <c r="E3" s="37" t="s">
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16" t="e">
+        <f>VLOOKUP(A3,'codage tribunal'!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="E4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="30" t="s">
+      <c r="I5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="35" t="s">
+    <row r="6" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="C6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="E6" s="19" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="F6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*ADDITIONNEL*")</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="G6" s="17" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*SUBSTITUTION*")</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="17" t="e">
+      <c r="H6" s="17" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),'ETPT Format DDG'!$I:$I,"C",
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="34" t="e">
+      <c r="I6" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="J6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="K6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*ADDITIONNEL*")</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="L6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*SUBSTITUTION*")</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="18" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$2,'ETPT Format DDG'!$G:$G,"Greffe")</f>
+      <c r="M6" s="18" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="34" t="e">
+      <c r="N6" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="O5" s="18" t="e">
+      <c r="O6" s="18" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),'ETPT Format DDG'!$I:$I,"C",
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Autour du magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:O150">
+  <conditionalFormatting sqref="C6:O151">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISBLANK($C5)=FALSE,ISBLANK($D5)=TRUE)</formula>
+      <formula>AND(ISBLANK($C6)=FALSE,ISBLANK($D6)=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF7A98-8726-2B45-9E0D-08F39416C73F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2079,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D177071-EB91-3A4C-8FA0-97E070BB3BA4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2093,12 +2223,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2110,43 +2240,43 @@
     <col min="11" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -2159,10 +2289,10 @@
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -2175,10 +2305,10 @@
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2193,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -2206,21 +2336,21 @@
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="B7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -2246,7 +2376,7 @@
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -2259,7 +2389,7 @@
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -2275,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -2291,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -2306,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
@@ -2321,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -2336,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -2348,21 +2478,22 @@
       <c r="J16" s="43"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="A18" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
@@ -2379,9 +2510,9 @@
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918D7AC2-D774-DD4B-B142-54A1DADF6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA203BC9-F64E-6A46-951B-47BBC64CF6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -297,6 +297,211 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Précisions nécessaires aux DDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tribunal d'affectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les éventuels </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ont été répartis entre les CET de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> moins d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plus d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans l'onglet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Agrégats DDG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
+    </r>
+  </si>
+  <si>
+    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
+  </si>
+  <si>
+    <t>SIEGE</t>
+  </si>
+  <si>
+    <t>GREFFE</t>
+  </si>
+  <si>
+    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
+  </si>
+  <si>
+    <t>Contractuels et vacataires</t>
+  </si>
+  <si>
+    <t>TOTAL SIEGE</t>
+  </si>
+  <si>
+    <t>TOTAL GREFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Agrégats DDG</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Un </t>
     </r>
     <r>
@@ -320,114 +525,64 @@
       </rPr>
       <t>appelle une vérification. Soit l'agent était effectivement absent pendant toute la période (en CLM par ex.), soit il n'a pas été ventilé.</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Il est nécessaire de ventiler durant les temps d'indisponibilité.</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Précisions nécessaires aux DDG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La colonne "Fonction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est remplie automatiquement mais </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tribunal d'affectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> car elle permet de distinguer</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La colonne "Code fonction"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est remplie automatiquement mais </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> car elle permet de distinguer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -443,153 +598,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Par défaut, tous les placés ont été codés en "M-PLAC-ADD" (Magistrat placé additionnel) ou "F-PLAC-ADD" (Fonctionnaire placé additionnel). Si des Placés étaient des effectifs de substitution, les recoder "M-PLAC-SUB" pour les magistrats ou "F-PLAC-SUB" pour les fonctionnaires, à l'aide du menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les éventuels </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ont été répartis entre les CET de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> moins d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> plus d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dans l'onglet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Agrégats DDG"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, il convient de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
-    </r>
-  </si>
-  <si>
-    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
-  </si>
-  <si>
-    <t>SIEGE</t>
-  </si>
-  <si>
-    <t>GREFFE</t>
-  </si>
-  <si>
-    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
-  </si>
-  <si>
-    <t>Contractuels et vacataires</t>
-  </si>
-  <si>
-    <t>TOTAL SIEGE</t>
-  </si>
-  <si>
-    <t>TOTAL GREFFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Extracteur de données d'effectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Agrégats DDG</t>
+      <t>. Par défaut, tous les placés sont "* PLACÉ ADDITIONNEL". Si des Placés étaient des effectifs de substitution, il faut les renseigner en "* PLACÉ SUBSTITUTION", à l'aide du menu déroulant.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -903,7 +913,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1019,6 +1029,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1027,23 +1046,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1594,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1909,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1985,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2032,21 +2048,21 @@
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
       <c r="E4" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="39"/>
       <c r="J4" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="39"/>
       <c r="O4" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
@@ -2066,10 +2082,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>26</v>
@@ -2081,13 +2097,13 @@
         <v>28</v>
       </c>
       <c r="M5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="O5" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
@@ -2228,7 +2244,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2241,258 +2257,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="26" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="B11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="C13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="C14" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="C15" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="A18" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
@@ -2508,8 +2526,6 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B14F26-027E-9F4C-A957-F1AF0E6DE8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA203BC9-F64E-6A46-951B-47BBC64CF6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22480" windowHeight="17620" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
+    <definedName name="J">#REF!</definedName>
+    <definedName name="JA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -152,12 +154,6 @@
     <t>Selectionner une juridiction</t>
   </si>
   <si>
-    <t xml:space="preserve">         Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Extracteur de données d'effectifs</t>
-  </si>
-  <si>
     <t xml:space="preserve">        EXPLICATIONS ET CONTROLES A EFFECTUER</t>
   </si>
   <si>
@@ -301,6 +297,211 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Précisions nécessaires aux DDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tribunal d'affectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les éventuels </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ont été répartis entre les CET de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> moins d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plus d'un mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans l'onglet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Agrégats DDG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, il convient de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
+    </r>
+  </si>
+  <si>
+    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
+  </si>
+  <si>
+    <t>SIEGE</t>
+  </si>
+  <si>
+    <t>GREFFE</t>
+  </si>
+  <si>
+    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
+  </si>
+  <si>
+    <t>Contractuels et vacataires</t>
+  </si>
+  <si>
+    <t>TOTAL SIEGE</t>
+  </si>
+  <si>
+    <t>TOTAL GREFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Agrégats DDG</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Un </t>
     </r>
     <r>
@@ -324,114 +525,64 @@
       </rPr>
       <t>appelle une vérification. Soit l'agent était effectivement absent pendant toute la période (en CLM par ex.), soit il n'a pas été ventilé.</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Il est nécessaire de ventiler durant les temps d'indisponibilité.</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Précisions nécessaires aux DDG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (dans l'onglet "ETPT Format DDG"):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La colonne "JURIDICTION" permet de préciser le </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La colonne "Fonction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est remplie automatiquement mais </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tribunal d'affectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (TJ / TPRX) -&gt; les données ont été prérenseignées à partir des éléments présents dans A-JUST. LEs magistrats sont, par défaut, affectés au TJ. Il convient de </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> car elle permet de distinguer</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contrôler ces renseignements et de réaffecter, au besoin, les agents dans l'un des TPRX proposés dans le menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La colonne "Code fonction"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est remplie automatiquement mais </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doit être contrôlée et, au besoin, corrigée pour les agents placés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> car elle permet de distinguer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -447,144 +598,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Par défaut, tous les placés ont été codés en "M-PLAC-ADD" (Magistrat placé additionnel) ou "F-PLAC-ADD" (Fonctionnaire placé additionnel). Si des Placés étaient des effectifs de substitution, les recoder "M-PLAC-SUB" pour les magistrats ou "F-PLAC-SUB" pour les fonctionnaires, à l'aide du menu déroulant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les éventuels </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ont été répartis entre les CET de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> moins d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DS), qui sont considérés, lors des DDG, comme de l'absentéisme et ceux de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> plus d'un mois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (colonne DR) qui déduisent de l'ETPT (action 99).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dans l'onglet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Agrégats DDG"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, il convient de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sélectionner le tribunal voulu dans le menu déroulant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(case en bleu) pour que s'affiche une synthèse montrant, pour le tribunal sélectionné (TJ ou TPRX), les ETPT affectés à chaque activité ou contentieux, ainsi que les indisponibilités déduisant de l'ETPT (action 99) et celles qui ont été réintégrées (absentéisme).</t>
-    </r>
-  </si>
-  <si>
-    <t>Pour toute question, n'hésitez pas à contacter l'équipe A-JUST : support-utilisateurs@a-just.fr</t>
-  </si>
-  <si>
-    <t>SIEGE</t>
-  </si>
-  <si>
-    <t>GREFFE</t>
-  </si>
-  <si>
-    <t>EQUIPE AUTOUR DU MAGISTRAT</t>
-  </si>
-  <si>
-    <t>Contractuels et vacataires</t>
-  </si>
-  <si>
-    <t>TOTAL SIEGE</t>
-  </si>
-  <si>
-    <t>TOTAL GREFFE</t>
+      <t>. Par défaut, tous les placés sont "* PLACÉ ADDITIONNEL". Si des Placés étaient des effectifs de substitution, il faut les renseigner en "* PLACÉ SUBSTITUTION", à l'aide du menu déroulant.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -598,7 +613,7 @@
     <numFmt numFmtId="167" formatCode="General;General;\-"/>
     <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +698,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -883,7 +913,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1001,23 +1031,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1060,15 +1102,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46180</xdr:colOff>
+      <xdr:colOff>103906</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
+      <xdr:colOff>923635</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>476535</xdr:rowOff>
+      <xdr:rowOff>806439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,8 +1133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46180" y="23090"/>
-          <a:ext cx="496454" cy="453445"/>
+          <a:off x="103906" y="57725"/>
+          <a:ext cx="819729" cy="748714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,22 +1151,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46180</xdr:colOff>
+      <xdr:colOff>103905</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
+      <xdr:colOff>923634</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>476535</xdr:rowOff>
+      <xdr:rowOff>806439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD8D5B3-C3E9-E94E-BD8C-2EF269EA8931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7A5D8C-BE33-ED45-A77A-8F455267161F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,8 +1182,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46180" y="23090"/>
-          <a:ext cx="496454" cy="453445"/>
+          <a:off x="103905" y="57725"/>
+          <a:ext cx="819729" cy="748714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98777</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114778</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1012648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1D57F9-87BD-BD45-83E9-42F2487B9728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98777" y="84665"/>
+          <a:ext cx="1016001" cy="927983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300184</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>817985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC1CFF2-AC52-DD4F-9E83-87135FE34159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103910" y="69271"/>
+          <a:ext cx="819729" cy="748714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,12 +1593,12 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
@@ -1468,9 +1608,9 @@
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1774,7 +1914,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1783,9 +1923,9 @@
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1837,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1859,189 +1999,215 @@
     <col min="15" max="15" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="16" t="e">
-        <f>VLOOKUP(A2,'codage tribunal'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
-      <c r="C3" s="9"/>
-      <c r="E3" s="37" t="s">
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16" t="e">
+        <f>VLOOKUP(A3,'codage tribunal'!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="E4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="35" t="s">
+    <row r="6" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="C6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="E6" s="19" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="F6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*ADDITIONNEL*")</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="G6" s="17" t="e">
+        <f>SUMIFS(
+INDEX('ETPT Format DDG'!$A:$DU,
+,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*SUBSTITUTION*")</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="17" t="e">
+      <c r="H6" s="17" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),'ETPT Format DDG'!$I:$I,"C",
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="34" t="e">
+      <c r="I6" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="J6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-TIT",'ETPT Format DDG'!$C:$C,$A$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="K6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*ADDITIONNEL*")</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="17" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-SUB",'ETPT Format DDG'!$C:$C,$A$2)</f>
+      <c r="L6" s="17" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"F-PLAC-ADD",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$H:$H,"*SUBSTITUTION*")</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="18" t="e">
-        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$2,'ETPT Format DDG'!$G:$G,"Greffe")</f>
+      <c r="M6" s="18" t="e">
+        <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"C",'ETPT Format DDG'!$C:$C,$A$3,'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="34" t="e">
+      <c r="N6" s="34" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Greffe")</f>
         <v>#N/A</v>
       </c>
-      <c r="O5" s="18" t="e">
+      <c r="O6" s="18" t="e">
         <f>SUMIFS(
 INDEX('ETPT Format DDG'!$A:$DU,
 ,
-IFERROR(MATCH(D5,'ETPT Format DDG'!$2:$2,0),MATCH(C5,'ETPT Format DDG'!$2:$2,0))
+IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))
 ),'ETPT Format DDG'!$I:$I,"C",
-'ETPT Format DDG'!$C:$C,$A$2,
+'ETPT Format DDG'!$C:$C,$A$3,
 'ETPT Format DDG'!$G:$G,"Autour du magistrat")</f>
         <v>#N/A</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:O150">
+  <conditionalFormatting sqref="C6:O151">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISBLANK($C5)=FALSE,ISBLANK($D5)=TRUE)</formula>
+      <formula>AND(ISBLANK($C6)=FALSE,ISBLANK($D6)=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2077,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2090,43 +2256,43 @@
     <col min="11" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -2139,10 +2305,10 @@
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -2155,10 +2321,10 @@
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -2173,7 +2339,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -2186,92 +2352,92 @@
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="B11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -2285,8 +2451,8 @@
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>52</v>
+      <c r="C14" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -2301,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -2316,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -2328,21 +2494,25 @@
       <c r="J16" s="40"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="A18" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -2356,12 +2526,9 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA203BC9-F64E-6A46-951B-47BBC64CF6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EC40A-8235-D541-872B-E56B25ACA821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="5" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ETPT A-JUST" sheetId="1" r:id="rId1"/>
@@ -492,12 +492,6 @@
     <t>TOTAL GREFFE</t>
   </si>
   <si>
-    <t xml:space="preserve">                Extracteur de données d'effectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                Agrégats DDG</t>
   </si>
   <si>
@@ -600,6 +594,12 @@
       </rPr>
       <t>. Par défaut, tous les placés sont "* PLACÉ ADDITIONNEL". Si des Placés étaient des effectifs de substitution, il faut les renseigner en "* PLACÉ SUBSTITUTION", à l'aide du menu déroulant.</t>
     </r>
+  </si>
+  <si>
+    <t>#`                Extracteur de données d'effectifs - Format DDG (avec réintégration de l'absentéisme) ${daydate}</t>
+  </si>
+  <si>
+    <t>#`                Extracteur de données d'effectifs ${daydate}</t>
   </si>
 </sst>
 </file>
@@ -1028,38 +1028,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1925,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2243,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C706A55-5422-5B42-B9B4-A00444FB459D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2257,261 +2257,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="26" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="B11" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="C14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="B12:J12"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
@@ -2526,6 +2523,9 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E73E9-22DA-CD4D-A450-626969BDFFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA858C80-C3E3-5745-AD6A-7B4D1C9BEFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -13129,7 +13129,9 @@
   </sheetPr>
   <dimension ref="A1:DN8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13451,7 +13453,7 @@
   </sheetPr>
   <dimension ref="A1:EF4"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showFormulas="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA858C80-C3E3-5745-AD6A-7B4D1C9BEFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9AE63-F50C-8349-B7B0-208DEB503AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="520">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -2966,6 +2966,9 @@
   <si>
     <t>RECAPITULATIF</t>
   </si>
+  <si>
+    <t>CPH détachés</t>
+  </si>
 </sst>
 </file>
 
@@ -2977,7 +2980,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="General;General;\-"/>
     <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -3632,7 +3635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3830,12 +3833,12 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3850,14 +3853,14 @@
     <xf numFmtId="49" fontId="23" fillId="9" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3866,49 +3869,49 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,20 +3953,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3978,13 +3981,13 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="26" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3999,35 +4002,35 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="26" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4038,61 +4041,61 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4148,15 +4151,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="29" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="29" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4175,7 +4178,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="34" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4186,13 +4189,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="34" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="34" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="18" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4219,7 +4222,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4231,26 +4234,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4272,6 +4275,30 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4280,27 +4307,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4320,9 +4326,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{C877C5E8-FCBF-114F-9ECB-F75EF7C9C0EB}"/>
@@ -5259,18 +5263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
       <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5279,17 +5283,17 @@
       <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
       <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5372,17 +5376,17 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
       <c r="K7" s="10" t="s">
         <v>0</v>
       </c>
@@ -5455,17 +5459,17 @@
       <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="206"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
       <c r="K12" s="10" t="s">
         <v>0</v>
       </c>
@@ -5549,29 +5553,30 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
       <c r="K18" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -5588,7 +5593,6 @@
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5618,16 +5622,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
       <c r="I1" s="114"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
@@ -5666,7 +5670,7 @@
       <c r="G2" s="157" t="s">
         <v>464</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>463</v>
       </c>
       <c r="I2" s="157" t="s">
@@ -5699,13 +5703,13 @@
       <c r="R2" s="157" t="s">
         <v>462</v>
       </c>
-      <c r="S2" s="209" t="s">
+      <c r="S2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="T2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="U2" s="209" t="s">
+      <c r="U2" s="210" t="s">
         <v>460</v>
       </c>
       <c r="V2" s="157" t="s">
@@ -5735,7 +5739,7 @@
       <c r="AD2" s="157" t="s">
         <v>459</v>
       </c>
-      <c r="AE2" s="209" t="s">
+      <c r="AE2" s="210" t="s">
         <v>508</v>
       </c>
       <c r="AF2" s="157" t="s">
@@ -5747,7 +5751,7 @@
       <c r="AH2" s="157" t="s">
         <v>507</v>
       </c>
-      <c r="AI2" s="209" t="s">
+      <c r="AI2" s="210" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5761,7 +5765,7 @@
       <c r="G3" s="157" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="157" t="s">
         <v>505</v>
       </c>
@@ -5792,11 +5796,11 @@
       <c r="R3" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="S3" s="209"/>
+      <c r="S3" s="210"/>
       <c r="T3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="210"/>
       <c r="V3" s="157" t="s">
         <v>496</v>
       </c>
@@ -5824,7 +5828,7 @@
       <c r="AD3" s="157" t="s">
         <v>488</v>
       </c>
-      <c r="AE3" s="209"/>
+      <c r="AE3" s="210"/>
       <c r="AF3" s="157" t="s">
         <v>487</v>
       </c>
@@ -5834,7 +5838,7 @@
       <c r="AH3" s="157" t="s">
         <v>417</v>
       </c>
-      <c r="AI3" s="209"/>
+      <c r="AI3" s="210"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="160"/>
@@ -5856,7 +5860,7 @@
       <c r="G4" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="157" t="s">
         <v>486</v>
       </c>
@@ -5887,11 +5891,11 @@
       <c r="R4" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="S4" s="209"/>
+      <c r="S4" s="210"/>
       <c r="T4" s="157" t="s">
         <v>385</v>
       </c>
-      <c r="U4" s="209"/>
+      <c r="U4" s="210"/>
       <c r="V4" s="157" t="s">
         <v>477</v>
       </c>
@@ -5919,7 +5923,7 @@
       <c r="AD4" s="157" t="s">
         <v>469</v>
       </c>
-      <c r="AE4" s="209"/>
+      <c r="AE4" s="210"/>
       <c r="AF4" s="157" t="s">
         <v>468</v>
       </c>
@@ -5929,7 +5933,7 @@
       <c r="AH4" s="157" t="s">
         <v>364</v>
       </c>
-      <c r="AI4" s="209"/>
+      <c r="AI4" s="210"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="163" t="s">
@@ -7038,13 +7042,13 @@
       <c r="G2" s="157" t="s">
         <v>462</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="I2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="210" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7058,11 +7062,11 @@
       <c r="G3" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="J3" s="209"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="179"/>
@@ -7084,11 +7088,11 @@
       <c r="G4" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="157" t="s">
         <v>385</v>
       </c>
-      <c r="J4" s="209"/>
+      <c r="J4" s="210"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="173" t="s">
@@ -7492,7 +7496,7 @@
       <c r="G2" s="157" t="s">
         <v>464</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>463</v>
       </c>
       <c r="I2" s="156" t="s">
@@ -7537,7 +7541,7 @@
       <c r="V2" s="156" t="s">
         <v>462</v>
       </c>
-      <c r="W2" s="209" t="s">
+      <c r="W2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="X2" s="157" t="s">
@@ -7552,7 +7556,7 @@
       <c r="AA2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="AB2" s="209" t="s">
+      <c r="AB2" s="210" t="s">
         <v>460</v>
       </c>
       <c r="AC2" s="154" t="s">
@@ -7582,7 +7586,7 @@
       <c r="AK2" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="AL2" s="209" t="s">
+      <c r="AL2" s="210" t="s">
         <v>458</v>
       </c>
       <c r="AM2" s="154" t="s">
@@ -7624,7 +7628,7 @@
       <c r="AY2" s="154" t="s">
         <v>457</v>
       </c>
-      <c r="AZ2" s="209" t="s">
+      <c r="AZ2" s="210" t="s">
         <v>456</v>
       </c>
       <c r="BA2" s="153" t="s">
@@ -7654,7 +7658,7 @@
       <c r="BI2" s="153" t="s">
         <v>455</v>
       </c>
-      <c r="BJ2" s="209" t="s">
+      <c r="BJ2" s="210" t="s">
         <v>454</v>
       </c>
       <c r="BK2"/>
@@ -7669,7 +7673,7 @@
       <c r="G3" s="157" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="156" t="s">
         <v>452</v>
       </c>
@@ -7710,7 +7714,7 @@
       <c r="V3" s="156" t="s">
         <v>440</v>
       </c>
-      <c r="W3" s="209"/>
+      <c r="W3" s="210"/>
       <c r="X3" s="152"/>
       <c r="Y3" s="157" t="s">
         <v>439</v>
@@ -7721,7 +7725,7 @@
       <c r="AA3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="AB3" s="209"/>
+      <c r="AB3" s="210"/>
       <c r="AC3" s="154" t="s">
         <v>436</v>
       </c>
@@ -7749,7 +7753,7 @@
       <c r="AK3" s="154" t="s">
         <v>430</v>
       </c>
-      <c r="AL3" s="209"/>
+      <c r="AL3" s="210"/>
       <c r="AM3" s="154" t="s">
         <v>429</v>
       </c>
@@ -7789,7 +7793,7 @@
       <c r="AY3" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="AZ3" s="209"/>
+      <c r="AZ3" s="210"/>
       <c r="BA3" s="153" t="s">
         <v>416</v>
       </c>
@@ -7817,7 +7821,7 @@
       <c r="BI3" s="153" t="s">
         <v>408</v>
       </c>
-      <c r="BJ3" s="209"/>
+      <c r="BJ3" s="210"/>
     </row>
     <row r="4" spans="1:63" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="159"/>
@@ -7839,7 +7843,7 @@
       <c r="G4" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="156" t="s">
         <v>402</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="V4" s="156" t="s">
         <v>389</v>
       </c>
-      <c r="W4" s="209"/>
+      <c r="W4" s="210"/>
       <c r="X4" s="155" t="s">
         <v>388</v>
       </c>
@@ -7895,7 +7899,7 @@
       <c r="AA4" s="155" t="s">
         <v>385</v>
       </c>
-      <c r="AB4" s="209"/>
+      <c r="AB4" s="210"/>
       <c r="AC4" s="154" t="s">
         <v>384</v>
       </c>
@@ -7923,7 +7927,7 @@
       <c r="AK4" s="154" t="s">
         <v>377</v>
       </c>
-      <c r="AL4" s="209"/>
+      <c r="AL4" s="210"/>
       <c r="AM4" s="154" t="s">
         <v>376</v>
       </c>
@@ -7963,7 +7967,7 @@
       <c r="AY4" s="154" t="s">
         <v>364</v>
       </c>
-      <c r="AZ4" s="209"/>
+      <c r="AZ4" s="210"/>
       <c r="BA4" s="153" t="s">
         <v>363</v>
       </c>
@@ -7991,7 +7995,7 @@
       <c r="BI4" s="153" t="s">
         <v>355</v>
       </c>
-      <c r="BJ4" s="209"/>
+      <c r="BJ4" s="210"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="114" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -10767,7 +10771,7 @@
       <c r="G2" s="157" t="s">
         <v>464</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>463</v>
       </c>
       <c r="I2" s="157" t="s">
@@ -10800,13 +10804,13 @@
       <c r="R2" s="157" t="s">
         <v>462</v>
       </c>
-      <c r="S2" s="209" t="s">
+      <c r="S2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="T2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="U2" s="209" t="s">
+      <c r="U2" s="210" t="s">
         <v>460</v>
       </c>
       <c r="V2" s="157" t="s">
@@ -10836,7 +10840,7 @@
       <c r="AD2" s="157" t="s">
         <v>459</v>
       </c>
-      <c r="AE2" s="209" t="s">
+      <c r="AE2" s="210" t="s">
         <v>508</v>
       </c>
       <c r="AF2" s="157" t="s">
@@ -10848,7 +10852,7 @@
       <c r="AH2" s="157" t="s">
         <v>507</v>
       </c>
-      <c r="AI2" s="209" t="s">
+      <c r="AI2" s="210" t="s">
         <v>506</v>
       </c>
     </row>
@@ -10862,7 +10866,7 @@
       <c r="G3" s="157" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="157" t="s">
         <v>505</v>
       </c>
@@ -10893,11 +10897,11 @@
       <c r="R3" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="S3" s="209"/>
+      <c r="S3" s="210"/>
       <c r="T3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="210"/>
       <c r="V3" s="157" t="s">
         <v>496</v>
       </c>
@@ -10925,7 +10929,7 @@
       <c r="AD3" s="157" t="s">
         <v>488</v>
       </c>
-      <c r="AE3" s="209"/>
+      <c r="AE3" s="210"/>
       <c r="AF3" s="157" t="s">
         <v>487</v>
       </c>
@@ -10935,7 +10939,7 @@
       <c r="AH3" s="157" t="s">
         <v>417</v>
       </c>
-      <c r="AI3" s="209"/>
+      <c r="AI3" s="210"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="160"/>
@@ -10957,7 +10961,7 @@
       <c r="G4" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="157" t="s">
         <v>486</v>
       </c>
@@ -10988,11 +10992,11 @@
       <c r="R4" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="S4" s="209"/>
+      <c r="S4" s="210"/>
       <c r="T4" s="157" t="s">
         <v>385</v>
       </c>
-      <c r="U4" s="209"/>
+      <c r="U4" s="210"/>
       <c r="V4" s="157" t="s">
         <v>477</v>
       </c>
@@ -11020,7 +11024,7 @@
       <c r="AD4" s="157" t="s">
         <v>469</v>
       </c>
-      <c r="AE4" s="209"/>
+      <c r="AE4" s="210"/>
       <c r="AF4" s="157" t="s">
         <v>468</v>
       </c>
@@ -11030,7 +11034,7 @@
       <c r="AH4" s="157" t="s">
         <v>364</v>
       </c>
-      <c r="AI4" s="209"/>
+      <c r="AI4" s="210"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="163" t="s">
@@ -12737,13 +12741,13 @@
       <c r="G2" s="157" t="s">
         <v>462</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="I2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="210" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12757,11 +12761,11 @@
       <c r="G3" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="J3" s="209"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="179"/>
@@ -12783,11 +12787,11 @@
       <c r="G4" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="157" t="s">
         <v>385</v>
       </c>
-      <c r="J4" s="209"/>
+      <c r="J4" s="210"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="173" t="s">
@@ -13488,14 +13492,14 @@
       <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="EA1" s="212" t="s">
+      <c r="EA1" s="204" t="s">
         <v>518</v>
       </c>
-      <c r="EB1" s="212"/>
-      <c r="EC1" s="212"/>
-      <c r="ED1" s="212"/>
-      <c r="EE1" s="212"/>
-      <c r="EF1" s="212"/>
+      <c r="EB1" s="204"/>
+      <c r="EC1" s="204"/>
+      <c r="ED1" s="204"/>
+      <c r="EE1" s="204"/>
+      <c r="EF1" s="204"/>
     </row>
     <row r="2" spans="1:136" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -13622,20 +13626,20 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="197" t="s">
+      <c r="E4" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="197" t="s">
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="199"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="32" t="s">
         <v>55</v>
       </c>
@@ -13804,9 +13808,7 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13818,7 +13820,9 @@
     <col min="6" max="6" width="11" style="37"/>
     <col min="7" max="7" width="12" style="37" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="37"/>
+    <col min="9" max="9" width="12.1640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -13834,7 +13838,9 @@
         <v>161</v>
       </c>
       <c r="H1"/>
-      <c r="I1"/>
+      <c r="I1" s="213" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B2"/>
@@ -15253,16 +15259,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="66" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="109"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="209" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
       <c r="AC1" s="108"/>
       <c r="AD1" s="108"/>
       <c r="AE1" s="108"/>
@@ -15283,7 +15289,7 @@
       <c r="G2" s="104" t="s">
         <v>464</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="208" t="s">
         <v>463</v>
       </c>
       <c r="I2" s="103" t="s">
@@ -15328,7 +15334,7 @@
       <c r="V2" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="W2" s="207" t="s">
+      <c r="W2" s="208" t="s">
         <v>461</v>
       </c>
       <c r="X2" s="104" t="s">
@@ -15343,7 +15349,7 @@
       <c r="AA2" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="AB2" s="207" t="s">
+      <c r="AB2" s="208" t="s">
         <v>460</v>
       </c>
       <c r="AC2" s="100" t="s">
@@ -15373,7 +15379,7 @@
       <c r="AK2" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="AL2" s="207" t="s">
+      <c r="AL2" s="208" t="s">
         <v>458</v>
       </c>
       <c r="AM2" s="100" t="s">
@@ -15415,7 +15421,7 @@
       <c r="AY2" s="100" t="s">
         <v>457</v>
       </c>
-      <c r="AZ2" s="207" t="s">
+      <c r="AZ2" s="208" t="s">
         <v>456</v>
       </c>
       <c r="BA2" s="99" t="s">
@@ -15445,7 +15451,7 @@
       <c r="BI2" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="BJ2" s="207" t="s">
+      <c r="BJ2" s="208" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15459,7 +15465,7 @@
       <c r="G3" s="104" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="207"/>
+      <c r="H3" s="208"/>
       <c r="I3" s="103" t="s">
         <v>452</v>
       </c>
@@ -15500,7 +15506,7 @@
       <c r="V3" s="103" t="s">
         <v>440</v>
       </c>
-      <c r="W3" s="207"/>
+      <c r="W3" s="208"/>
       <c r="X3" s="98"/>
       <c r="Y3" s="104" t="s">
         <v>439</v>
@@ -15511,7 +15517,7 @@
       <c r="AA3" s="104" t="s">
         <v>437</v>
       </c>
-      <c r="AB3" s="207"/>
+      <c r="AB3" s="208"/>
       <c r="AC3" s="100" t="s">
         <v>436</v>
       </c>
@@ -15539,7 +15545,7 @@
       <c r="AK3" s="100" t="s">
         <v>430</v>
       </c>
-      <c r="AL3" s="207"/>
+      <c r="AL3" s="208"/>
       <c r="AM3" s="100" t="s">
         <v>429</v>
       </c>
@@ -15579,7 +15585,7 @@
       <c r="AY3" s="100" t="s">
         <v>417</v>
       </c>
-      <c r="AZ3" s="207"/>
+      <c r="AZ3" s="208"/>
       <c r="BA3" s="99" t="s">
         <v>416</v>
       </c>
@@ -15607,7 +15613,7 @@
       <c r="BI3" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="BJ3" s="207"/>
+      <c r="BJ3" s="208"/>
     </row>
     <row r="4" spans="1:62" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="106"/>
@@ -15629,7 +15635,7 @@
       <c r="G4" s="104" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="207"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="103" t="s">
         <v>402</v>
       </c>
@@ -15672,7 +15678,7 @@
       <c r="V4" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="W4" s="207"/>
+      <c r="W4" s="208"/>
       <c r="X4" s="101" t="s">
         <v>388</v>
       </c>
@@ -15685,7 +15691,7 @@
       <c r="AA4" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="AB4" s="207"/>
+      <c r="AB4" s="208"/>
       <c r="AC4" s="100" t="s">
         <v>384</v>
       </c>
@@ -15713,7 +15719,7 @@
       <c r="AK4" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="AL4" s="207"/>
+      <c r="AL4" s="208"/>
       <c r="AM4" s="100" t="s">
         <v>376</v>
       </c>
@@ -15753,7 +15759,7 @@
       <c r="AY4" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="AZ4" s="207"/>
+      <c r="AZ4" s="208"/>
       <c r="BA4" s="99" t="s">
         <v>363</v>
       </c>
@@ -15781,7 +15787,7 @@
       <c r="BI4" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="BJ4" s="207"/>
+      <c r="BJ4" s="208"/>
     </row>
     <row r="5" spans="1:62" s="66" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
@@ -16759,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="66" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="74" t="s">
         <v>259</v>
       </c>
@@ -17480,16 +17486,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="114" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="211" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
     </row>
     <row r="2" spans="1:62" s="114" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="160"/>
@@ -17501,7 +17507,7 @@
       <c r="G2" s="157" t="s">
         <v>464</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>463</v>
       </c>
       <c r="I2" s="156" t="s">
@@ -17546,7 +17552,7 @@
       <c r="V2" s="156" t="s">
         <v>462</v>
       </c>
-      <c r="W2" s="209" t="s">
+      <c r="W2" s="210" t="s">
         <v>461</v>
       </c>
       <c r="X2" s="157" t="s">
@@ -17561,7 +17567,7 @@
       <c r="AA2" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="AB2" s="209" t="s">
+      <c r="AB2" s="210" t="s">
         <v>460</v>
       </c>
       <c r="AC2" s="154" t="s">
@@ -17591,7 +17597,7 @@
       <c r="AK2" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="AL2" s="209" t="s">
+      <c r="AL2" s="210" t="s">
         <v>458</v>
       </c>
       <c r="AM2" s="154" t="s">
@@ -17633,7 +17639,7 @@
       <c r="AY2" s="154" t="s">
         <v>457</v>
       </c>
-      <c r="AZ2" s="209" t="s">
+      <c r="AZ2" s="210" t="s">
         <v>456</v>
       </c>
       <c r="BA2" s="153" t="s">
@@ -17663,7 +17669,7 @@
       <c r="BI2" s="153" t="s">
         <v>455</v>
       </c>
-      <c r="BJ2" s="209" t="s">
+      <c r="BJ2" s="210" t="s">
         <v>454</v>
       </c>
     </row>
@@ -17677,7 +17683,7 @@
       <c r="G3" s="157" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="156" t="s">
         <v>452</v>
       </c>
@@ -17718,7 +17724,7 @@
       <c r="V3" s="156" t="s">
         <v>440</v>
       </c>
-      <c r="W3" s="209"/>
+      <c r="W3" s="210"/>
       <c r="X3" s="152"/>
       <c r="Y3" s="157" t="s">
         <v>439</v>
@@ -17729,7 +17735,7 @@
       <c r="AA3" s="157" t="s">
         <v>437</v>
       </c>
-      <c r="AB3" s="209"/>
+      <c r="AB3" s="210"/>
       <c r="AC3" s="154" t="s">
         <v>436</v>
       </c>
@@ -17757,7 +17763,7 @@
       <c r="AK3" s="154" t="s">
         <v>430</v>
       </c>
-      <c r="AL3" s="209"/>
+      <c r="AL3" s="210"/>
       <c r="AM3" s="154" t="s">
         <v>429</v>
       </c>
@@ -17797,7 +17803,7 @@
       <c r="AY3" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="AZ3" s="209"/>
+      <c r="AZ3" s="210"/>
       <c r="BA3" s="153" t="s">
         <v>416</v>
       </c>
@@ -17825,7 +17831,7 @@
       <c r="BI3" s="153" t="s">
         <v>408</v>
       </c>
-      <c r="BJ3" s="209"/>
+      <c r="BJ3" s="210"/>
     </row>
     <row r="4" spans="1:62" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="159"/>
@@ -17847,7 +17853,7 @@
       <c r="G4" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="156" t="s">
         <v>402</v>
       </c>
@@ -17890,7 +17896,7 @@
       <c r="V4" s="156" t="s">
         <v>389</v>
       </c>
-      <c r="W4" s="209"/>
+      <c r="W4" s="210"/>
       <c r="X4" s="155" t="s">
         <v>388</v>
       </c>
@@ -17903,7 +17909,7 @@
       <c r="AA4" s="155" t="s">
         <v>385</v>
       </c>
-      <c r="AB4" s="209"/>
+      <c r="AB4" s="210"/>
       <c r="AC4" s="154" t="s">
         <v>384</v>
       </c>
@@ -17931,7 +17937,7 @@
       <c r="AK4" s="154" t="s">
         <v>377</v>
       </c>
-      <c r="AL4" s="209"/>
+      <c r="AL4" s="210"/>
       <c r="AM4" s="154" t="s">
         <v>376</v>
       </c>
@@ -17971,7 +17977,7 @@
       <c r="AY4" s="154" t="s">
         <v>364</v>
       </c>
-      <c r="AZ4" s="209"/>
+      <c r="AZ4" s="210"/>
       <c r="BA4" s="153" t="s">
         <v>363</v>
       </c>
@@ -17999,7 +18005,7 @@
       <c r="BI4" s="153" t="s">
         <v>355</v>
       </c>
-      <c r="BJ4" s="209"/>
+      <c r="BJ4" s="210"/>
     </row>
     <row r="5" spans="1:62" s="114" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="124" t="s">

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327840D-70B6-7B48-B14F-7A0BA89B1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1867FA-6BD2-604C-AC39-EE3945E7A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -3210,7 +3210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -3553,19 +3553,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF333F4F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333F4F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF333F4F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thick">
         <color rgb="FFFF0000"/>
@@ -3685,6 +3672,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF333F4F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF333F4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF333F4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF333F4F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF333F4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3695,7 +3733,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4367,19 +4405,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="4" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="4" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4393,13 +4422,58 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4408,11 +4482,35 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4444,14 +4542,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4461,60 +4559,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4654,9 +4698,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>13121</xdr:colOff>
+      <xdr:colOff>227016</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>81478</xdr:rowOff>
+      <xdr:rowOff>14635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="960661" cy="902640"/>
     <xdr:pic>
@@ -4680,7 +4724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838621" y="81478"/>
+          <a:off x="320595" y="14635"/>
           <a:ext cx="960661" cy="902640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5290,7 +5334,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5310,11 +5354,11 @@
       <c r="B1" s="197" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="225" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
       <c r="F1" s="198"/>
       <c r="H1" s="28" t="s">
         <v>0</v>
@@ -5323,11 +5367,11 @@
     <row r="2" spans="1:8" s="202" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="226" t="s">
         <v>496</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
       <c r="F2" s="201"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
@@ -5351,156 +5395,163 @@
       <c r="D4" s="207" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="220" t="s">
+      <c r="E4" s="232" t="s">
         <v>500</v>
       </c>
-      <c r="F4" s="221"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="221"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="214" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="241" t="s">
+      <c r="C5" s="215" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="241" t="s">
+      <c r="D5" s="215" t="s">
         <v>503</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="234" t="s">
         <v>518</v>
       </c>
-      <c r="F5" s="243"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="220"/>
       <c r="H5" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="216" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="217" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="217" t="s">
         <v>506</v>
       </c>
-      <c r="E6" s="246" t="s">
+      <c r="E6" s="236" t="s">
         <v>519</v>
       </c>
-      <c r="F6" s="247"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="220"/>
       <c r="H6" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
-      <c r="B7" s="244" t="s">
+      <c r="B7" s="216" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="245" t="s">
+      <c r="C7" s="217" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="217" t="s">
         <v>509</v>
       </c>
-      <c r="E7" s="246" t="s">
+      <c r="E7" s="236" t="s">
         <v>518</v>
       </c>
-      <c r="F7" s="247"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="220"/>
       <c r="H7" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="218" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="249" t="s">
+      <c r="C8" s="227" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="227" t="s">
         <v>512</v>
       </c>
-      <c r="E8" s="250" t="s">
+      <c r="E8" s="238" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="251"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="220"/>
       <c r="H8" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="218" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="253"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="220"/>
       <c r="H9" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="219" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="220"/>
       <c r="H10" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="203"/>
-      <c r="B11" s="209"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
       <c r="H11" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="219" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="231" t="s">
         <v>515</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="211"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="223"/>
       <c r="H12" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="212"/>
+      <c r="A13" s="209"/>
       <c r="F13" s="204"/>
       <c r="H13" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="218"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
       <c r="H14" s="28" t="s">
         <v>0</v>
       </c>
@@ -5561,16 +5612,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="252" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -5609,7 +5660,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -5642,13 +5693,13 @@
       <c r="R2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="230" t="s">
+      <c r="S2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="230" t="s">
+      <c r="U2" s="250" t="s">
         <v>434</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -5678,7 +5729,7 @@
       <c r="AD2" s="155" t="s">
         <v>433</v>
       </c>
-      <c r="AE2" s="230" t="s">
+      <c r="AE2" s="250" t="s">
         <v>482</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -5690,7 +5741,7 @@
       <c r="AH2" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="AI2" s="230" t="s">
+      <c r="AI2" s="250" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5704,7 +5755,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="155" t="s">
         <v>479</v>
       </c>
@@ -5735,11 +5786,11 @@
       <c r="R3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="230"/>
+      <c r="S3" s="250"/>
       <c r="T3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="U3" s="230"/>
+      <c r="U3" s="250"/>
       <c r="V3" s="155" t="s">
         <v>470</v>
       </c>
@@ -5767,7 +5818,7 @@
       <c r="AD3" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="AE3" s="230"/>
+      <c r="AE3" s="250"/>
       <c r="AF3" s="155" t="s">
         <v>461</v>
       </c>
@@ -5777,7 +5828,7 @@
       <c r="AH3" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="AI3" s="230"/>
+      <c r="AI3" s="250"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -5799,7 +5850,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="155" t="s">
         <v>460</v>
       </c>
@@ -5830,11 +5881,11 @@
       <c r="R4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="S4" s="230"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="U4" s="230"/>
+      <c r="U4" s="250"/>
       <c r="V4" s="155" t="s">
         <v>451</v>
       </c>
@@ -5862,7 +5913,7 @@
       <c r="AD4" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="AE4" s="230"/>
+      <c r="AE4" s="250"/>
       <c r="AF4" s="155" t="s">
         <v>442</v>
       </c>
@@ -5872,7 +5923,7 @@
       <c r="AH4" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="AI4" s="230"/>
+      <c r="AI4" s="250"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -6981,13 +7032,13 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="230" t="s">
+      <c r="J2" s="250" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7001,11 +7052,11 @@
       <c r="G3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="250"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -7027,11 +7078,11 @@
       <c r="G4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="J4" s="230"/>
+      <c r="J4" s="250"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -7435,7 +7486,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -7480,7 +7531,7 @@
       <c r="V2" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="230" t="s">
+      <c r="W2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -7495,7 +7546,7 @@
       <c r="AA2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="230" t="s">
+      <c r="AB2" s="250" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -7525,7 +7576,7 @@
       <c r="AK2" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="230" t="s">
+      <c r="AL2" s="250" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -7567,7 +7618,7 @@
       <c r="AY2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="230" t="s">
+      <c r="AZ2" s="250" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -7597,7 +7648,7 @@
       <c r="BI2" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="230" t="s">
+      <c r="BJ2" s="250" t="s">
         <v>428</v>
       </c>
       <c r="BK2"/>
@@ -7612,7 +7663,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="154" t="s">
         <v>426</v>
       </c>
@@ -7653,7 +7704,7 @@
       <c r="V3" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="230"/>
+      <c r="W3" s="250"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>413</v>
@@ -7664,7 +7715,7 @@
       <c r="AA3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="230"/>
+      <c r="AB3" s="250"/>
       <c r="AC3" s="152" t="s">
         <v>410</v>
       </c>
@@ -7692,7 +7743,7 @@
       <c r="AK3" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="230"/>
+      <c r="AL3" s="250"/>
       <c r="AM3" s="152" t="s">
         <v>403</v>
       </c>
@@ -7732,7 +7783,7 @@
       <c r="AY3" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="230"/>
+      <c r="AZ3" s="250"/>
       <c r="BA3" s="151" t="s">
         <v>390</v>
       </c>
@@ -7760,7 +7811,7 @@
       <c r="BI3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="230"/>
+      <c r="BJ3" s="250"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
@@ -7782,7 +7833,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="154" t="s">
         <v>376</v>
       </c>
@@ -7825,7 +7876,7 @@
       <c r="V4" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="230"/>
+      <c r="W4" s="250"/>
       <c r="X4" s="153" t="s">
         <v>362</v>
       </c>
@@ -7838,7 +7889,7 @@
       <c r="AA4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="230"/>
+      <c r="AB4" s="250"/>
       <c r="AC4" s="152" t="s">
         <v>358</v>
       </c>
@@ -7866,7 +7917,7 @@
       <c r="AK4" s="152" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="230"/>
+      <c r="AL4" s="250"/>
       <c r="AM4" s="152" t="s">
         <v>350</v>
       </c>
@@ -7906,7 +7957,7 @@
       <c r="AY4" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="230"/>
+      <c r="AZ4" s="250"/>
       <c r="BA4" s="151" t="s">
         <v>337</v>
       </c>
@@ -7934,7 +7985,7 @@
       <c r="BI4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="230"/>
+      <c r="BJ4" s="250"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7943,7 +7994,7 @@
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="215"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="132" t="s">
         <v>328</v>
       </c>
@@ -8155,7 +8206,7 @@
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
-      <c r="D6" s="216" t="str">
+      <c r="D6" s="213" t="str">
         <f t="shared" ref="D6:D15" si="6">IF(ISBLANK($D$5),"",$D$5)</f>
         <v/>
       </c>
@@ -8369,7 +8420,7 @@
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
-      <c r="D7" s="216" t="str">
+      <c r="D7" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -8583,7 +8634,7 @@
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
-      <c r="D8" s="216" t="str">
+      <c r="D8" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -8797,7 +8848,7 @@
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
-      <c r="D9" s="216" t="str">
+      <c r="D9" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9011,7 +9062,7 @@
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
-      <c r="D10" s="216" t="str">
+      <c r="D10" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9225,7 +9276,7 @@
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
-      <c r="D11" s="216" t="str">
+      <c r="D11" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9439,7 +9490,7 @@
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
-      <c r="D12" s="216" t="str">
+      <c r="D12" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9653,7 +9704,7 @@
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
-      <c r="D13" s="216" t="str">
+      <c r="D13" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9867,7 +9918,7 @@
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
-      <c r="D14" s="216" t="str">
+      <c r="D14" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10081,7 +10132,7 @@
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
-      <c r="D15" s="216" t="str">
+      <c r="D15" s="213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10592,17 +10643,17 @@
       <c r="AZ18" s="111"/>
     </row>
     <row r="19" spans="1:62" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="233" t="s">
+      <c r="E19" s="253" t="s">
         <v>440</v>
       </c>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="235"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="255"/>
     </row>
     <row r="20" spans="1:62" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
@@ -10723,7 +10774,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -10756,13 +10807,13 @@
       <c r="R2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="230" t="s">
+      <c r="S2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="230" t="s">
+      <c r="U2" s="250" t="s">
         <v>434</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -10792,7 +10843,7 @@
       <c r="AD2" s="155" t="s">
         <v>433</v>
       </c>
-      <c r="AE2" s="230" t="s">
+      <c r="AE2" s="250" t="s">
         <v>482</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -10804,7 +10855,7 @@
       <c r="AH2" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="AI2" s="230" t="s">
+      <c r="AI2" s="250" t="s">
         <v>480</v>
       </c>
     </row>
@@ -10818,7 +10869,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="155" t="s">
         <v>479</v>
       </c>
@@ -10849,11 +10900,11 @@
       <c r="R3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="230"/>
+      <c r="S3" s="250"/>
       <c r="T3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="U3" s="230"/>
+      <c r="U3" s="250"/>
       <c r="V3" s="155" t="s">
         <v>470</v>
       </c>
@@ -10881,7 +10932,7 @@
       <c r="AD3" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="AE3" s="230"/>
+      <c r="AE3" s="250"/>
       <c r="AF3" s="155" t="s">
         <v>461</v>
       </c>
@@ -10891,7 +10942,7 @@
       <c r="AH3" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="AI3" s="230"/>
+      <c r="AI3" s="250"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -10913,7 +10964,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="155" t="s">
         <v>460</v>
       </c>
@@ -10944,11 +10995,11 @@
       <c r="R4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="S4" s="230"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="U4" s="230"/>
+      <c r="U4" s="250"/>
       <c r="V4" s="155" t="s">
         <v>451</v>
       </c>
@@ -10976,7 +11027,7 @@
       <c r="AD4" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="AE4" s="230"/>
+      <c r="AE4" s="250"/>
       <c r="AF4" s="155" t="s">
         <v>442</v>
       </c>
@@ -10986,7 +11037,7 @@
       <c r="AH4" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="AI4" s="230"/>
+      <c r="AI4" s="250"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -12578,32 +12629,32 @@
       <c r="S17" s="111"/>
     </row>
     <row r="18" spans="5:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="E18" s="236" t="s">
+      <c r="E18" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="237"/>
-      <c r="I18" s="237"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="237"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="257"/>
+      <c r="L18" s="257"/>
+      <c r="M18" s="257"/>
     </row>
     <row r="19" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="5:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="233" t="s">
+      <c r="E20" s="253" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="213"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="210"/>
     </row>
     <row r="21" spans="5:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="5:19" x14ac:dyDescent="0.2">
@@ -12722,13 +12773,13 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="230" t="s">
+      <c r="J2" s="250" t="s">
         <v>434</v>
       </c>
     </row>
@@ -12742,11 +12793,11 @@
       <c r="G3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="250"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -12768,11 +12819,11 @@
       <c r="G4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="J4" s="230"/>
+      <c r="J4" s="250"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -13095,23 +13146,23 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="E16" s="238" t="s">
+      <c r="E16" s="258" t="s">
         <v>516</v>
       </c>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
     </row>
     <row r="17" spans="4:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="110"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13132,7 +13183,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13456,7 +13507,7 @@
   <dimension ref="A1:EF4"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13490,14 +13541,14 @@
       <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="EA1" s="224" t="s">
+      <c r="EA1" s="244" t="s">
         <v>492</v>
       </c>
-      <c r="EB1" s="224"/>
-      <c r="EC1" s="224"/>
-      <c r="ED1" s="224"/>
-      <c r="EE1" s="224"/>
-      <c r="EF1" s="224"/>
+      <c r="EB1" s="244"/>
+      <c r="EC1" s="244"/>
+      <c r="ED1" s="244"/>
+      <c r="EE1" s="244"/>
+      <c r="EF1" s="244"/>
     </row>
     <row r="2" spans="1:136" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -13579,7 +13630,7 @@
     <row r="1" spans="1:16" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="211" t="s">
         <v>507</v>
       </c>
       <c r="D1" s="7"/>
@@ -13624,20 +13675,20 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="225" t="s">
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="226"/>
-      <c r="N4" s="227"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="246"/>
+      <c r="N4" s="247"/>
       <c r="O4" s="30" t="s">
         <v>29</v>
       </c>
@@ -15257,16 +15308,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
-      <c r="B1" s="229" t="s">
+      <c r="B1" s="249" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
       <c r="AC1" s="106"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
@@ -15287,7 +15338,7 @@
       <c r="G2" s="102" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="228" t="s">
+      <c r="H2" s="248" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="101" t="s">
@@ -15332,7 +15383,7 @@
       <c r="V2" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="228" t="s">
+      <c r="W2" s="248" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="102" t="s">
@@ -15347,7 +15398,7 @@
       <c r="AA2" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="228" t="s">
+      <c r="AB2" s="248" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="98" t="s">
@@ -15377,7 +15428,7 @@
       <c r="AK2" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="228" t="s">
+      <c r="AL2" s="248" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="98" t="s">
@@ -15419,7 +15470,7 @@
       <c r="AY2" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="228" t="s">
+      <c r="AZ2" s="248" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="97" t="s">
@@ -15449,7 +15500,7 @@
       <c r="BI2" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="228" t="s">
+      <c r="BJ2" s="248" t="s">
         <v>428</v>
       </c>
     </row>
@@ -15463,7 +15514,7 @@
       <c r="G3" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="228"/>
+      <c r="H3" s="248"/>
       <c r="I3" s="101" t="s">
         <v>426</v>
       </c>
@@ -15504,7 +15555,7 @@
       <c r="V3" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="228"/>
+      <c r="W3" s="248"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
         <v>413</v>
@@ -15515,7 +15566,7 @@
       <c r="AA3" s="102" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="228"/>
+      <c r="AB3" s="248"/>
       <c r="AC3" s="98" t="s">
         <v>410</v>
       </c>
@@ -15543,7 +15594,7 @@
       <c r="AK3" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="228"/>
+      <c r="AL3" s="248"/>
       <c r="AM3" s="98" t="s">
         <v>403</v>
       </c>
@@ -15583,7 +15634,7 @@
       <c r="AY3" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="228"/>
+      <c r="AZ3" s="248"/>
       <c r="BA3" s="97" t="s">
         <v>390</v>
       </c>
@@ -15611,7 +15662,7 @@
       <c r="BI3" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="228"/>
+      <c r="BJ3" s="248"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
@@ -15633,7 +15684,7 @@
       <c r="G4" s="102" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="228"/>
+      <c r="H4" s="248"/>
       <c r="I4" s="101" t="s">
         <v>376</v>
       </c>
@@ -15676,7 +15727,7 @@
       <c r="V4" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="228"/>
+      <c r="W4" s="248"/>
       <c r="X4" s="99" t="s">
         <v>362</v>
       </c>
@@ -15689,7 +15740,7 @@
       <c r="AA4" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="228"/>
+      <c r="AB4" s="248"/>
       <c r="AC4" s="98" t="s">
         <v>358</v>
       </c>
@@ -15717,7 +15768,7 @@
       <c r="AK4" s="98" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="228"/>
+      <c r="AL4" s="248"/>
       <c r="AM4" s="98" t="s">
         <v>350</v>
       </c>
@@ -15757,7 +15808,7 @@
       <c r="AY4" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="228"/>
+      <c r="AZ4" s="248"/>
       <c r="BA4" s="97" t="s">
         <v>337</v>
       </c>
@@ -15785,7 +15836,7 @@
       <c r="BI4" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="228"/>
+      <c r="BJ4" s="248"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
@@ -16763,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
         <v>233</v>
       </c>
@@ -17484,16 +17535,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="251" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
     </row>
     <row r="2" spans="1:62" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="158"/>
@@ -17505,7 +17556,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="250" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -17550,7 +17601,7 @@
       <c r="V2" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="230" t="s">
+      <c r="W2" s="250" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -17565,7 +17616,7 @@
       <c r="AA2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="230" t="s">
+      <c r="AB2" s="250" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -17595,7 +17646,7 @@
       <c r="AK2" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="230" t="s">
+      <c r="AL2" s="250" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -17637,7 +17688,7 @@
       <c r="AY2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="230" t="s">
+      <c r="AZ2" s="250" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -17667,7 +17718,7 @@
       <c r="BI2" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="230" t="s">
+      <c r="BJ2" s="250" t="s">
         <v>428</v>
       </c>
     </row>
@@ -17681,7 +17732,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="154" t="s">
         <v>426</v>
       </c>
@@ -17722,7 +17773,7 @@
       <c r="V3" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="230"/>
+      <c r="W3" s="250"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>413</v>
@@ -17733,7 +17784,7 @@
       <c r="AA3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="230"/>
+      <c r="AB3" s="250"/>
       <c r="AC3" s="152" t="s">
         <v>410</v>
       </c>
@@ -17761,7 +17812,7 @@
       <c r="AK3" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="230"/>
+      <c r="AL3" s="250"/>
       <c r="AM3" s="152" t="s">
         <v>403</v>
       </c>
@@ -17801,7 +17852,7 @@
       <c r="AY3" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="230"/>
+      <c r="AZ3" s="250"/>
       <c r="BA3" s="151" t="s">
         <v>390</v>
       </c>
@@ -17829,7 +17880,7 @@
       <c r="BI3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="230"/>
+      <c r="BJ3" s="250"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
@@ -17851,7 +17902,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="230"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="154" t="s">
         <v>376</v>
       </c>
@@ -17894,7 +17945,7 @@
       <c r="V4" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="230"/>
+      <c r="W4" s="250"/>
       <c r="X4" s="153" t="s">
         <v>362</v>
       </c>
@@ -17907,7 +17958,7 @@
       <c r="AA4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="230"/>
+      <c r="AB4" s="250"/>
       <c r="AC4" s="152" t="s">
         <v>358</v>
       </c>
@@ -17935,7 +17986,7 @@
       <c r="AK4" s="152" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="230"/>
+      <c r="AL4" s="250"/>
       <c r="AM4" s="152" t="s">
         <v>350</v>
       </c>
@@ -17975,7 +18026,7 @@
       <c r="AY4" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="230"/>
+      <c r="AZ4" s="250"/>
       <c r="BA4" s="151" t="s">
         <v>337</v>
       </c>
@@ -18003,7 +18054,7 @@
       <c r="BI4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="230"/>
+      <c r="BJ4" s="250"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1867FA-6BD2-604C-AC39-EE3945E7A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1AFE1-6CA2-E94C-AACA-7E3E27C0DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -2688,16 +2688,76 @@
     </r>
   </si>
   <si>
-    <t>→ Sélectionner la juridiction souhaitée à partir du menu déroulant qui se trouve dans la cellule D5 identifiée en orange.</t>
+    <t>#! HYPERLINK firstLink.label firstLink.url</t>
+  </si>
+  <si>
+    <t>#! HYPERLINK secondLink.label secondLink.url</t>
+  </si>
+  <si>
+    <t>#! HYPERLINK thirdLink.label thirdLink.url</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">→ Sélectionner la juridiction souhaitée à partir du menu déroulant qui se trouve dans la cellule D5 identifiée en </t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF2D46E0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ Sélectionner la juridiction souhaitée à partir du menu déroulant qui se trouve dans la cellule D5 identifiée en</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="12"/>
+        <color rgb="FF860000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orange.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF2D46E0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ Sélectionner la juridiction souhaitée à partir du menu déroulant qui se trouve dans la cellule D5 identifiée en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF860000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="5"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
@@ -2706,7 +2766,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color rgb="FF860000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -2714,15 +2774,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>#! HYPERLINK firstLink.label firstLink.url</t>
-  </si>
-  <si>
-    <t>#! HYPERLINK secondLink.label secondLink.url</t>
-  </si>
-  <si>
-    <t>#! HYPERLINK thirdLink.label thirdLink.url</t>
   </si>
 </sst>
 </file>
@@ -2737,9 +2788,16 @@
     <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3009,14 +3067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <color theme="0"/>
@@ -3037,20 +3087,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF860000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="5"/>
-      <name val="Calibri (Corps)"/>
     </font>
     <font>
       <b/>
@@ -3075,8 +3111,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF860000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2D46E0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri (Corps)"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3209,8 +3290,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE64B85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D46E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B0B97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F02D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B252"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3576,15 +3693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -3724,16 +3832,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3741,7 +3848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3750,61 +3857,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3817,287 +3924,520 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="18" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -4105,269 +4445,36 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="13" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="20" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="10" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="18" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="20" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4393,66 +4500,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="4" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4464,106 +4556,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{C877C5E8-FCBF-114F-9ECB-F75EF7C9C0EB}"/>
-    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
     <cellStyle name="Milliers" xfId="3" builtinId="3"/>
     <cellStyle name="Milliers 2" xfId="5" xr:uid="{C98A9282-6AC5-784B-80AA-54BB74A59302}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4588,6 +4706,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF01A94F"/>
+      <color rgb="FFF7EF2D"/>
+      <color rgb="FFFE0000"/>
+      <color rgb="FF0B0B97"/>
+      <color rgb="FF2C45E0"/>
+      <color rgb="FFCE4275"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5334,7 +5462,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5354,11 +5482,11 @@
       <c r="B1" s="197" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="225" t="s">
+      <c r="C1" s="220" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
       <c r="F1" s="198"/>
       <c r="H1" s="28" t="s">
         <v>0</v>
@@ -5367,11 +5495,11 @@
     <row r="2" spans="1:8" s="202" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
-      <c r="C2" s="226" t="s">
+      <c r="C2" s="221" t="s">
         <v>496</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="201"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
@@ -5395,143 +5523,143 @@
       <c r="D4" s="207" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="227" t="s">
         <v>500</v>
       </c>
-      <c r="F4" s="233"/>
-      <c r="G4" s="221"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="216"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="248" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="213" t="s">
         <v>503</v>
       </c>
-      <c r="E5" s="234" t="s">
-        <v>518</v>
-      </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="220"/>
+      <c r="E5" s="229" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="230"/>
+      <c r="G5" s="215"/>
       <c r="H5" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="249" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="214" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="217" t="s">
+      <c r="D6" s="214" t="s">
         <v>506</v>
       </c>
-      <c r="E6" s="236" t="s">
-        <v>519</v>
-      </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="220"/>
+      <c r="E6" s="231" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="232"/>
+      <c r="G6" s="215"/>
       <c r="H6" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="250" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="217" t="s">
+      <c r="C7" s="214" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="214" t="s">
         <v>509</v>
       </c>
-      <c r="E7" s="236" t="s">
-        <v>518</v>
-      </c>
-      <c r="F7" s="237"/>
-      <c r="G7" s="220"/>
+      <c r="E7" s="231" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="232"/>
+      <c r="G7" s="215"/>
       <c r="H7" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="251" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="227" t="s">
+      <c r="C8" s="222" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="227" t="s">
+      <c r="D8" s="222" t="s">
         <v>512</v>
       </c>
-      <c r="E8" s="238" t="s">
-        <v>520</v>
-      </c>
-      <c r="F8" s="239"/>
-      <c r="G8" s="220"/>
+      <c r="E8" s="233" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" s="234"/>
+      <c r="G8" s="215"/>
       <c r="H8" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="252" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="220"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="215"/>
       <c r="H9" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="253" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="220"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="215"/>
       <c r="H10" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="203"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
       <c r="H11" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="231" t="s">
+      <c r="B12" s="217"/>
+      <c r="C12" s="226" t="s">
         <v>515</v>
       </c>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="223"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="218"/>
       <c r="H12" s="28" t="s">
         <v>0</v>
       </c>
@@ -5544,14 +5672,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="229" t="s">
+      <c r="A14" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="230"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="225"/>
       <c r="H14" s="28" t="s">
         <v>0</v>
       </c>
@@ -5575,14 +5703,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B5" location="'ETPT A-JUST'!A1" display="ETPT A-JUST" xr:uid="{A4B55920-38FE-8C44-A223-5786C8919747}"/>
-    <hyperlink ref="B6" location="'ETPT Format DDG'!A1" display="ETPT Format DDG" xr:uid="{79FC5922-FC41-BA4A-995C-9841D25952FF}"/>
-    <hyperlink ref="B7" location="'Agrégats DDG'!A1" display="Agrégats DDG" xr:uid="{81D3F220-88AB-F743-B1AC-13451DEA3C28}"/>
-    <hyperlink ref="B8" location="ETPT_TJ_DDG!A1" display="ETPT_TJ_DDG" xr:uid="{43523AD2-5123-C849-8EFA-27E13C4C136A}"/>
-    <hyperlink ref="B9" location="ETPT_TPRX_DDG!A1" display="ETPT_TPRX-DDG" xr:uid="{97476A23-C1B3-284C-B5B5-53A729579959}"/>
-    <hyperlink ref="B10" location="ETPT_CPH_DDG!A1" display="ETPT_CPH_DDG" xr:uid="{1F598F93-AFA2-E243-9BD5-6F6F6C8A32A5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
@@ -5612,16 +5732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="247" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -5660,7 +5780,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -5693,13 +5813,13 @@
       <c r="R2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="250" t="s">
+      <c r="S2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="250" t="s">
+      <c r="U2" s="245" t="s">
         <v>434</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -5729,7 +5849,7 @@
       <c r="AD2" s="155" t="s">
         <v>433</v>
       </c>
-      <c r="AE2" s="250" t="s">
+      <c r="AE2" s="245" t="s">
         <v>482</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -5741,7 +5861,7 @@
       <c r="AH2" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="AI2" s="250" t="s">
+      <c r="AI2" s="245" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5755,7 +5875,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="155" t="s">
         <v>479</v>
       </c>
@@ -5786,11 +5906,11 @@
       <c r="R3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="250"/>
+      <c r="S3" s="245"/>
       <c r="T3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="U3" s="250"/>
+      <c r="U3" s="245"/>
       <c r="V3" s="155" t="s">
         <v>470</v>
       </c>
@@ -5818,7 +5938,7 @@
       <c r="AD3" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="AE3" s="250"/>
+      <c r="AE3" s="245"/>
       <c r="AF3" s="155" t="s">
         <v>461</v>
       </c>
@@ -5828,7 +5948,7 @@
       <c r="AH3" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="AI3" s="250"/>
+      <c r="AI3" s="245"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -5850,7 +5970,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="155" t="s">
         <v>460</v>
       </c>
@@ -5881,11 +6001,11 @@
       <c r="R4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="S4" s="250"/>
+      <c r="S4" s="245"/>
       <c r="T4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="U4" s="250"/>
+      <c r="U4" s="245"/>
       <c r="V4" s="155" t="s">
         <v>451</v>
       </c>
@@ -5913,7 +6033,7 @@
       <c r="AD4" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="AE4" s="250"/>
+      <c r="AE4" s="245"/>
       <c r="AF4" s="155" t="s">
         <v>442</v>
       </c>
@@ -5923,7 +6043,7 @@
       <c r="AH4" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="AI4" s="250"/>
+      <c r="AI4" s="245"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -7032,13 +7152,13 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="250" t="s">
+      <c r="J2" s="245" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7052,11 +7172,11 @@
       <c r="G3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="J3" s="250"/>
+      <c r="J3" s="245"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -7078,11 +7198,11 @@
       <c r="G4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="J4" s="250"/>
+      <c r="J4" s="245"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -7381,9 +7501,9 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2925AE-B1C3-2143-BED8-865F5DD872E0}">
   <sheetPr codeName="Feuil9">
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFE0000"/>
   </sheetPr>
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -7486,7 +7606,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -7531,7 +7651,7 @@
       <c r="V2" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="250" t="s">
+      <c r="W2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -7546,7 +7666,7 @@
       <c r="AA2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="250" t="s">
+      <c r="AB2" s="245" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -7576,7 +7696,7 @@
       <c r="AK2" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="250" t="s">
+      <c r="AL2" s="245" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -7618,7 +7738,7 @@
       <c r="AY2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="250" t="s">
+      <c r="AZ2" s="245" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -7648,7 +7768,7 @@
       <c r="BI2" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="250" t="s">
+      <c r="BJ2" s="245" t="s">
         <v>428</v>
       </c>
       <c r="BK2"/>
@@ -7663,7 +7783,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="154" t="s">
         <v>426</v>
       </c>
@@ -7704,7 +7824,7 @@
       <c r="V3" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="250"/>
+      <c r="W3" s="245"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>413</v>
@@ -7715,7 +7835,7 @@
       <c r="AA3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="250"/>
+      <c r="AB3" s="245"/>
       <c r="AC3" s="152" t="s">
         <v>410</v>
       </c>
@@ -7743,7 +7863,7 @@
       <c r="AK3" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="250"/>
+      <c r="AL3" s="245"/>
       <c r="AM3" s="152" t="s">
         <v>403</v>
       </c>
@@ -7783,7 +7903,7 @@
       <c r="AY3" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="250"/>
+      <c r="AZ3" s="245"/>
       <c r="BA3" s="151" t="s">
         <v>390</v>
       </c>
@@ -7811,7 +7931,7 @@
       <c r="BI3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="250"/>
+      <c r="BJ3" s="245"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
@@ -7833,7 +7953,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="154" t="s">
         <v>376</v>
       </c>
@@ -7876,7 +7996,7 @@
       <c r="V4" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="250"/>
+      <c r="W4" s="245"/>
       <c r="X4" s="153" t="s">
         <v>362</v>
       </c>
@@ -7889,7 +8009,7 @@
       <c r="AA4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="250"/>
+      <c r="AB4" s="245"/>
       <c r="AC4" s="152" t="s">
         <v>358</v>
       </c>
@@ -7917,7 +8037,7 @@
       <c r="AK4" s="152" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="250"/>
+      <c r="AL4" s="245"/>
       <c r="AM4" s="152" t="s">
         <v>350</v>
       </c>
@@ -7957,7 +8077,7 @@
       <c r="AY4" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="250"/>
+      <c r="AZ4" s="245"/>
       <c r="BA4" s="151" t="s">
         <v>337</v>
       </c>
@@ -7985,7 +8105,7 @@
       <c r="BI4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="250"/>
+      <c r="BJ4" s="245"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7994,7 +8114,7 @@
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="212"/>
+      <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
         <v>328</v>
       </c>
@@ -8206,7 +8326,7 @@
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
-      <c r="D6" s="213" t="str">
+      <c r="D6" s="212" t="str">
         <f t="shared" ref="D6:D15" si="6">IF(ISBLANK($D$5),"",$D$5)</f>
         <v/>
       </c>
@@ -8420,7 +8540,7 @@
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
-      <c r="D7" s="213" t="str">
+      <c r="D7" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -8634,7 +8754,7 @@
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
-      <c r="D8" s="213" t="str">
+      <c r="D8" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -8848,7 +8968,7 @@
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
-      <c r="D9" s="213" t="str">
+      <c r="D9" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9062,7 +9182,7 @@
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
-      <c r="D10" s="213" t="str">
+      <c r="D10" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9276,7 +9396,7 @@
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
-      <c r="D11" s="213" t="str">
+      <c r="D11" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9490,7 +9610,7 @@
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
-      <c r="D12" s="213" t="str">
+      <c r="D12" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9704,7 +9824,7 @@
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
-      <c r="D13" s="213" t="str">
+      <c r="D13" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9918,7 +10038,7 @@
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
-      <c r="D14" s="213" t="str">
+      <c r="D14" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10132,7 +10252,7 @@
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
-      <c r="D15" s="213" t="str">
+      <c r="D15" s="212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10574,97 +10694,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:62" s="112" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="116"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-    </row>
-    <row r="18" spans="1:62" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W18" s="111"/>
-      <c r="AZ18" s="111"/>
-    </row>
-    <row r="19" spans="1:62" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="253" t="s">
+    <row r="17" spans="4:52" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="111"/>
+      <c r="AZ17" s="111"/>
+    </row>
+    <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="258" t="s">
         <v>440</v>
       </c>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="254"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="255"/>
-    </row>
-    <row r="20" spans="1:62" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="AH22" s="109"/>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="E23" s="110"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="261"/>
+    </row>
+    <row r="19" spans="4:52" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="4:52" x14ac:dyDescent="0.2">
+      <c r="AH20" s="109"/>
+    </row>
+    <row r="21" spans="4:52" x14ac:dyDescent="0.2">
+      <c r="E21" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E19:M19"/>
+  <mergeCells count="6">
     <mergeCell ref="BJ2:BJ4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="W2:W4"/>
@@ -10680,9 +10732,9 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B695F461-4586-D34F-8E14-1071CB20CB72}">
   <sheetPr codeName="Feuil15">
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFF7EF2D"/>
   </sheetPr>
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -10774,7 +10826,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -10807,13 +10859,13 @@
       <c r="R2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="250" t="s">
+      <c r="S2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="250" t="s">
+      <c r="U2" s="245" t="s">
         <v>434</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -10843,7 +10895,7 @@
       <c r="AD2" s="155" t="s">
         <v>433</v>
       </c>
-      <c r="AE2" s="250" t="s">
+      <c r="AE2" s="245" t="s">
         <v>482</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -10855,7 +10907,7 @@
       <c r="AH2" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="AI2" s="250" t="s">
+      <c r="AI2" s="245" t="s">
         <v>480</v>
       </c>
     </row>
@@ -10869,7 +10921,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="155" t="s">
         <v>479</v>
       </c>
@@ -10900,11 +10952,11 @@
       <c r="R3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="250"/>
+      <c r="S3" s="245"/>
       <c r="T3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="U3" s="250"/>
+      <c r="U3" s="245"/>
       <c r="V3" s="155" t="s">
         <v>470</v>
       </c>
@@ -10932,7 +10984,7 @@
       <c r="AD3" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="AE3" s="250"/>
+      <c r="AE3" s="245"/>
       <c r="AF3" s="155" t="s">
         <v>461</v>
       </c>
@@ -10942,7 +10994,7 @@
       <c r="AH3" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="AI3" s="250"/>
+      <c r="AI3" s="245"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -10964,7 +11016,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="155" t="s">
         <v>460</v>
       </c>
@@ -10995,11 +11047,11 @@
       <c r="R4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="S4" s="250"/>
+      <c r="S4" s="245"/>
       <c r="T4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="U4" s="250"/>
+      <c r="U4" s="245"/>
       <c r="V4" s="155" t="s">
         <v>451</v>
       </c>
@@ -11027,7 +11079,7 @@
       <c r="AD4" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="AE4" s="250"/>
+      <c r="AE4" s="245"/>
       <c r="AF4" s="155" t="s">
         <v>442</v>
       </c>
@@ -11037,7 +11089,7 @@
       <c r="AH4" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="AI4" s="250"/>
+      <c r="AI4" s="245"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -12625,45 +12677,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S17" s="111"/>
     </row>
-    <row r="18" spans="5:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="E18" s="256" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="257"/>
-    </row>
-    <row r="19" spans="5:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="253" t="s">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D18" s="255" t="s">
+        <v>520</v>
+      </c>
+      <c r="E18" s="256"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="4:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="257"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="256"/>
+    </row>
+    <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="258" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="254"/>
-      <c r="K20" s="254"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="254"/>
-      <c r="N20" s="210"/>
-    </row>
-    <row r="21" spans="5:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="F23" s="110"/>
-    </row>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="260"/>
+      <c r="I20" s="260"/>
+      <c r="J20" s="261"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="4:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E20:M20"/>
+  <mergeCells count="5">
     <mergeCell ref="AI2:AI4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="S2:S4"/>
@@ -12678,7 +12731,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C2B6A9-5FC7-3A43-BF37-0B81E3F33F51}">
   <sheetPr codeName="Feuil16">
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF01A94F"/>
   </sheetPr>
   <dimension ref="A1:BJ17"/>
   <sheetViews>
@@ -12773,13 +12826,13 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="250" t="s">
+      <c r="J2" s="245" t="s">
         <v>434</v>
       </c>
     </row>
@@ -12793,11 +12846,11 @@
       <c r="G3" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="J3" s="250"/>
+      <c r="J3" s="245"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -12819,11 +12872,11 @@
       <c r="G4" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="J4" s="250"/>
+      <c r="J4" s="245"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -13146,29 +13199,29 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="E16" s="258" t="s">
-        <v>516</v>
-      </c>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="259"/>
+      <c r="D16" s="255" t="s">
+        <v>519</v>
+      </c>
+      <c r="E16" s="256"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="4:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="110"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="E16:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13178,12 +13231,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3674A8A-13E9-4EDB-B294-D1FF8F18362C}">
   <sheetPr codeName="Feuil4">
-    <tabColor theme="0"/>
+    <tabColor rgb="FFCE4275"/>
   </sheetPr>
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13502,7 +13555,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B89445B-6ECC-4440-B85C-E593AE209933}">
   <sheetPr codeName="Feuil13">
-    <tabColor theme="0"/>
+    <tabColor rgb="FF2C45E0"/>
   </sheetPr>
   <dimension ref="A1:EF4"/>
   <sheetViews>
@@ -13541,14 +13594,14 @@
       <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="EA1" s="244" t="s">
+      <c r="EA1" s="239" t="s">
         <v>492</v>
       </c>
-      <c r="EB1" s="244"/>
-      <c r="EC1" s="244"/>
-      <c r="ED1" s="244"/>
-      <c r="EE1" s="244"/>
-      <c r="EF1" s="244"/>
+      <c r="EB1" s="239"/>
+      <c r="EC1" s="239"/>
+      <c r="ED1" s="239"/>
+      <c r="EE1" s="239"/>
+      <c r="EF1" s="239"/>
     </row>
     <row r="2" spans="1:136" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -13604,7 +13657,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E893F90-1EC7-764C-B747-7920FCEC73CB}">
   <sheetPr codeName="Feuil18">
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+    <tabColor rgb="FF0B0B97"/>
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -13630,7 +13683,7 @@
     <row r="1" spans="1:16" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="210" t="s">
         <v>507</v>
       </c>
       <c r="D1" s="7"/>
@@ -13675,20 +13728,20 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="245" t="s">
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="247"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="242"/>
       <c r="O4" s="30" t="s">
         <v>29</v>
       </c>
@@ -15308,16 +15361,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="244" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
       <c r="AC1" s="106"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
@@ -15338,7 +15391,7 @@
       <c r="G2" s="102" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="248" t="s">
+      <c r="H2" s="243" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="101" t="s">
@@ -15383,7 +15436,7 @@
       <c r="V2" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="248" t="s">
+      <c r="W2" s="243" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="102" t="s">
@@ -15398,7 +15451,7 @@
       <c r="AA2" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="248" t="s">
+      <c r="AB2" s="243" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="98" t="s">
@@ -15428,7 +15481,7 @@
       <c r="AK2" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="248" t="s">
+      <c r="AL2" s="243" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="98" t="s">
@@ -15470,7 +15523,7 @@
       <c r="AY2" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="248" t="s">
+      <c r="AZ2" s="243" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="97" t="s">
@@ -15500,7 +15553,7 @@
       <c r="BI2" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="248" t="s">
+      <c r="BJ2" s="243" t="s">
         <v>428</v>
       </c>
     </row>
@@ -15514,7 +15567,7 @@
       <c r="G3" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="248"/>
+      <c r="H3" s="243"/>
       <c r="I3" s="101" t="s">
         <v>426</v>
       </c>
@@ -15555,7 +15608,7 @@
       <c r="V3" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="248"/>
+      <c r="W3" s="243"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
         <v>413</v>
@@ -15566,7 +15619,7 @@
       <c r="AA3" s="102" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="248"/>
+      <c r="AB3" s="243"/>
       <c r="AC3" s="98" t="s">
         <v>410</v>
       </c>
@@ -15594,7 +15647,7 @@
       <c r="AK3" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="248"/>
+      <c r="AL3" s="243"/>
       <c r="AM3" s="98" t="s">
         <v>403</v>
       </c>
@@ -15634,7 +15687,7 @@
       <c r="AY3" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="248"/>
+      <c r="AZ3" s="243"/>
       <c r="BA3" s="97" t="s">
         <v>390</v>
       </c>
@@ -15662,7 +15715,7 @@
       <c r="BI3" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="248"/>
+      <c r="BJ3" s="243"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
@@ -15684,7 +15737,7 @@
       <c r="G4" s="102" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="248"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="101" t="s">
         <v>376</v>
       </c>
@@ -15727,7 +15780,7 @@
       <c r="V4" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="248"/>
+      <c r="W4" s="243"/>
       <c r="X4" s="99" t="s">
         <v>362</v>
       </c>
@@ -15740,7 +15793,7 @@
       <c r="AA4" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="248"/>
+      <c r="AB4" s="243"/>
       <c r="AC4" s="98" t="s">
         <v>358</v>
       </c>
@@ -15768,7 +15821,7 @@
       <c r="AK4" s="98" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="248"/>
+      <c r="AL4" s="243"/>
       <c r="AM4" s="98" t="s">
         <v>350</v>
       </c>
@@ -15808,7 +15861,7 @@
       <c r="AY4" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="248"/>
+      <c r="AZ4" s="243"/>
       <c r="BA4" s="97" t="s">
         <v>337</v>
       </c>
@@ -15836,7 +15889,7 @@
       <c r="BI4" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="248"/>
+      <c r="BJ4" s="243"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
@@ -17535,16 +17588,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="246" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="1:62" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="158"/>
@@ -17556,7 +17609,7 @@
       <c r="G2" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -17601,7 +17654,7 @@
       <c r="V2" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="W2" s="250" t="s">
+      <c r="W2" s="245" t="s">
         <v>435</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -17616,7 +17669,7 @@
       <c r="AA2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="250" t="s">
+      <c r="AB2" s="245" t="s">
         <v>434</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -17646,7 +17699,7 @@
       <c r="AK2" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="AL2" s="250" t="s">
+      <c r="AL2" s="245" t="s">
         <v>432</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -17688,7 +17741,7 @@
       <c r="AY2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" s="250" t="s">
+      <c r="AZ2" s="245" t="s">
         <v>430</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -17718,7 +17771,7 @@
       <c r="BI2" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="BJ2" s="250" t="s">
+      <c r="BJ2" s="245" t="s">
         <v>428</v>
       </c>
     </row>
@@ -17732,7 +17785,7 @@
       <c r="G3" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="H3" s="250"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="154" t="s">
         <v>426</v>
       </c>
@@ -17773,7 +17826,7 @@
       <c r="V3" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="W3" s="250"/>
+      <c r="W3" s="245"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>413</v>
@@ -17784,7 +17837,7 @@
       <c r="AA3" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="AB3" s="250"/>
+      <c r="AB3" s="245"/>
       <c r="AC3" s="152" t="s">
         <v>410</v>
       </c>
@@ -17812,7 +17865,7 @@
       <c r="AK3" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="AL3" s="250"/>
+      <c r="AL3" s="245"/>
       <c r="AM3" s="152" t="s">
         <v>403</v>
       </c>
@@ -17852,7 +17905,7 @@
       <c r="AY3" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="AZ3" s="250"/>
+      <c r="AZ3" s="245"/>
       <c r="BA3" s="151" t="s">
         <v>390</v>
       </c>
@@ -17880,7 +17933,7 @@
       <c r="BI3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="BJ3" s="250"/>
+      <c r="BJ3" s="245"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
@@ -17902,7 +17955,7 @@
       <c r="G4" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="250"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="154" t="s">
         <v>376</v>
       </c>
@@ -17945,7 +17998,7 @@
       <c r="V4" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="250"/>
+      <c r="W4" s="245"/>
       <c r="X4" s="153" t="s">
         <v>362</v>
       </c>
@@ -17958,7 +18011,7 @@
       <c r="AA4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="250"/>
+      <c r="AB4" s="245"/>
       <c r="AC4" s="152" t="s">
         <v>358</v>
       </c>
@@ -17986,7 +18039,7 @@
       <c r="AK4" s="152" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="250"/>
+      <c r="AL4" s="245"/>
       <c r="AM4" s="152" t="s">
         <v>350</v>
       </c>
@@ -18026,7 +18079,7 @@
       <c r="AY4" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="250"/>
+      <c r="AZ4" s="245"/>
       <c r="BA4" s="151" t="s">
         <v>337</v>
       </c>
@@ -18054,7 +18107,7 @@
       <c r="BI4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" s="250"/>
+      <c r="BJ4" s="245"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1AFE1-6CA2-E94C-AACA-7E3E27C0DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291D7F-E60F-9247-B097-E13377546AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="520">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>#! DUMP_COLS days1</t>
-  </si>
-  <si>
-    <t>#! DUMP_COLS subtitles1</t>
   </si>
   <si>
     <t>#! FOR_EACH x stats1</t>
@@ -3840,7 +3837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4547,6 +4544,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4633,51 +4672,6 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4870,15 +4864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>80818</xdr:colOff>
+      <xdr:colOff>92364</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:rowOff>48382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1041499</xdr:colOff>
+      <xdr:colOff>1027546</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>912092</xdr:rowOff>
+      <xdr:rowOff>923637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4901,8 +4895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="80818" y="34637"/>
-          <a:ext cx="960681" cy="877455"/>
+          <a:off x="92364" y="48382"/>
+          <a:ext cx="935182" cy="875255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4919,22 +4913,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40404</xdr:colOff>
+      <xdr:colOff>92360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>520744</xdr:colOff>
+      <xdr:colOff>1027043</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>912090</xdr:rowOff>
+      <xdr:rowOff>935179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5">
+        <xdr:cNvPr id="11" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CAA262-EE87-1645-B3B3-39A2AC20B813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972ABFF3-CF12-FB44-AC70-9373B08ED323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,8 +4944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="80808" y="34635"/>
-          <a:ext cx="960680" cy="877455"/>
+          <a:off x="184721" y="46180"/>
+          <a:ext cx="1869366" cy="888999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4968,15 +4962,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324555</xdr:colOff>
+      <xdr:colOff>239888</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1285236</xdr:colOff>
+      <xdr:colOff>1326444</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>948010</xdr:rowOff>
+      <xdr:rowOff>976232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4999,8 +4993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324555" y="70555"/>
-          <a:ext cx="960681" cy="877455"/>
+          <a:off x="239888" y="28222"/>
+          <a:ext cx="1086556" cy="948010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5480,13 +5474,13 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="233" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="220" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
       <c r="F1" s="198"/>
       <c r="H1" s="28" t="s">
         <v>0</v>
@@ -5495,11 +5489,11 @@
     <row r="2" spans="1:8" s="202" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
-      <c r="C2" s="221" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="C2" s="234" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
       <c r="F2" s="201"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
@@ -5515,18 +5509,18 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="207" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="D4" s="207" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="E4" s="240" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="227" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4" s="228"/>
+      <c r="F4" s="241"/>
       <c r="G4" s="216"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
@@ -5534,19 +5528,19 @@
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="220" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="213" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="D5" s="213" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="213" t="s">
-        <v>503</v>
-      </c>
-      <c r="E5" s="229" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" s="230"/>
+      <c r="E5" s="242" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="243"/>
       <c r="G5" s="215"/>
       <c r="H5" s="28" t="s">
         <v>0</v>
@@ -5554,19 +5548,19 @@
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="221" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="214" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="D6" s="214" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="214" t="s">
-        <v>506</v>
-      </c>
-      <c r="E6" s="231" t="s">
-        <v>517</v>
-      </c>
-      <c r="F6" s="232"/>
+      <c r="E6" s="244" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" s="245"/>
       <c r="G6" s="215"/>
       <c r="H6" s="28" t="s">
         <v>0</v>
@@ -5574,19 +5568,19 @@
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
-      <c r="B7" s="250" t="s">
+      <c r="B7" s="222" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="214" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="D7" s="214" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="214" t="s">
-        <v>509</v>
-      </c>
-      <c r="E7" s="231" t="s">
-        <v>516</v>
-      </c>
-      <c r="F7" s="232"/>
+      <c r="E7" s="244" t="s">
+        <v>515</v>
+      </c>
+      <c r="F7" s="245"/>
       <c r="G7" s="215"/>
       <c r="H7" s="28" t="s">
         <v>0</v>
@@ -5594,19 +5588,19 @@
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
-      <c r="B8" s="251" t="s">
+      <c r="B8" s="223" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="235" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="222" t="s">
+      <c r="D8" s="235" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="222" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="233" t="s">
-        <v>518</v>
-      </c>
-      <c r="F8" s="234"/>
+      <c r="E8" s="246" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="247"/>
       <c r="G8" s="215"/>
       <c r="H8" s="28" t="s">
         <v>0</v>
@@ -5614,13 +5608,13 @@
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
-      <c r="B9" s="252" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="236"/>
+      <c r="B9" s="224" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
       <c r="G9" s="215"/>
       <c r="H9" s="28" t="s">
         <v>0</v>
@@ -5628,13 +5622,13 @@
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
-      <c r="B10" s="253" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="238"/>
+      <c r="B10" s="225" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="251"/>
       <c r="G10" s="215"/>
       <c r="H10" s="28" t="s">
         <v>0</v>
@@ -5654,11 +5648,11 @@
     <row r="12" spans="1:8" s="28" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
-      <c r="C12" s="226" t="s">
-        <v>515</v>
-      </c>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
+      <c r="C12" s="239" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
       <c r="F12" s="218"/>
       <c r="H12" s="28" t="s">
         <v>0</v>
@@ -5672,14 +5666,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="224" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="225"/>
+      <c r="A14" s="237" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="238"/>
       <c r="H14" s="28" t="s">
         <v>0</v>
       </c>
@@ -5732,16 +5726,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="247" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
+      <c r="A1" s="260" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -5778,91 +5772,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>436</v>
+      </c>
       <c r="I2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="S2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="S2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="T2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="U2" s="258" t="s">
+        <v>433</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE2" s="245" t="s">
-        <v>482</v>
+        <v>432</v>
+      </c>
+      <c r="AE2" s="258" t="s">
+        <v>481</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI2" s="245" t="s">
         <v>480</v>
+      </c>
+      <c r="AI2" s="258" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5873,181 +5867,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>426</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>414</v>
-      </c>
-      <c r="S3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="U3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE3" s="245"/>
+        <v>461</v>
+      </c>
+      <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="AI3" s="245"/>
+        <v>390</v>
+      </c>
+      <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>376</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>363</v>
-      </c>
-      <c r="S4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>359</v>
-      </c>
-      <c r="U4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE4" s="245"/>
+        <v>442</v>
+      </c>
+      <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI4" s="245"/>
+        <v>337</v>
+      </c>
+      <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6056,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6163,7 +6157,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6172,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6224,7 +6218,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6233,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6285,7 +6279,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6294,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6367,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6440,7 +6434,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6449,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6513,7 +6507,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6522,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6586,7 +6580,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6595,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6662,7 +6656,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6671,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6732,7 +6726,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6741,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6845,7 +6839,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6854,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6963,7 +6957,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -7093,7 +7087,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -7133,7 +7127,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7150,16 +7144,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="I2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="J2" s="258" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7170,43 +7164,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>414</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="J3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7215,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7239,7 +7233,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7248,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7266,7 +7260,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7275,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7293,7 +7287,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7302,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7320,7 +7314,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7329,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7347,7 +7341,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7356,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7374,7 +7368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7383,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7401,7 +7395,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7410,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7431,7 +7425,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7440,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7466,7 +7460,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7530,12 +7524,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7604,172 +7598,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>436</v>
+      </c>
       <c r="I2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>436</v>
-      </c>
-      <c r="W2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="W2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="X2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="AB2" s="258" t="s">
+        <v>433</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL2" s="245" t="s">
         <v>432</v>
       </c>
+      <c r="AL2" s="258" t="s">
+        <v>431</v>
+      </c>
       <c r="AM2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ2" s="245" t="s">
         <v>430</v>
       </c>
+      <c r="AZ2" s="258" t="s">
+        <v>429</v>
+      </c>
       <c r="BA2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="BJ2" s="245" t="s">
         <v>428</v>
+      </c>
+      <c r="BJ2" s="258" t="s">
+        <v>427</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7781,345 +7775,345 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>426</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>414</v>
-      </c>
-      <c r="W3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI3" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL3" s="245"/>
+        <v>403</v>
+      </c>
+      <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>391</v>
-      </c>
-      <c r="AZ3" s="245"/>
+        <v>390</v>
+      </c>
+      <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>382</v>
-      </c>
-      <c r="BJ3" s="245"/>
+        <v>381</v>
+      </c>
+      <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>376</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>363</v>
-      </c>
-      <c r="W4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI4" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>351</v>
-      </c>
-      <c r="AL4" s="245"/>
+        <v>350</v>
+      </c>
+      <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>338</v>
-      </c>
-      <c r="AZ4" s="245"/>
+        <v>337</v>
+      </c>
+      <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ4" s="245"/>
+        <v>328</v>
+      </c>
+      <c r="BJ4" s="258"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8322,7 +8316,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8331,10 +8325,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8536,7 +8530,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8545,10 +8539,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8750,7 +8744,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8759,10 +8753,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8964,7 +8958,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8973,10 +8967,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9178,7 +9172,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9187,10 +9181,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9392,7 +9386,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9401,10 +9395,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9606,7 +9600,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9615,10 +9609,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9820,7 +9814,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9829,10 +9823,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -10034,7 +10028,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -10043,10 +10037,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10248,7 +10242,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10257,10 +10251,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10467,7 +10461,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10699,14 +10693,14 @@
       <c r="AZ17" s="111"/>
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="258" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="261"/>
+      <c r="D18" s="229" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="231"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="232"/>
     </row>
     <row r="19" spans="4:52" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="4:52" x14ac:dyDescent="0.2">
@@ -10750,12 +10744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10824,91 +10818,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>436</v>
+      </c>
       <c r="I2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="S2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="S2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="T2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="U2" s="258" t="s">
+        <v>433</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE2" s="245" t="s">
-        <v>482</v>
+        <v>432</v>
+      </c>
+      <c r="AE2" s="258" t="s">
+        <v>481</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI2" s="245" t="s">
         <v>480</v>
+      </c>
+      <c r="AI2" s="258" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10919,190 +10913,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>426</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>414</v>
-      </c>
-      <c r="S3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="U3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE3" s="245"/>
+        <v>461</v>
+      </c>
+      <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="AI3" s="245"/>
+        <v>390</v>
+      </c>
+      <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>376</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>363</v>
-      </c>
-      <c r="S4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>359</v>
-      </c>
-      <c r="U4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE4" s="245"/>
+        <v>442</v>
+      </c>
+      <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI4" s="245"/>
+        <v>337</v>
+      </c>
+      <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11223,7 +11217,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11232,10 +11226,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11356,7 +11350,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11365,10 +11359,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11489,7 +11483,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11498,10 +11492,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11622,7 +11616,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11631,10 +11625,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11755,7 +11749,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11764,10 +11758,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11888,7 +11882,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11897,10 +11891,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -12021,7 +12015,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12030,10 +12024,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -12154,7 +12148,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12163,10 +12157,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12287,7 +12281,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12296,10 +12290,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12420,7 +12414,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12429,10 +12423,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12558,7 +12552,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12681,10 +12675,10 @@
       <c r="S17" s="111"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D18" s="255" t="s">
-        <v>520</v>
-      </c>
-      <c r="E18" s="256"/>
+      <c r="D18" s="226" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="227"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -12693,25 +12687,25 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="4:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="257"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="256"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="258" t="s">
-        <v>440</v>
-      </c>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="260"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="261"/>
+      <c r="D20" s="229" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="230"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="4:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -12750,12 +12744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12824,16 +12818,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="I2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="J2" s="258" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12844,52 +12838,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>414</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="J3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12910,7 +12904,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12919,10 +12913,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12943,7 +12937,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12952,10 +12946,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12976,7 +12970,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12985,10 +12979,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -13009,7 +13003,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13018,10 +13012,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -13042,7 +13036,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13051,10 +13045,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -13075,7 +13069,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13084,10 +13078,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -13108,7 +13102,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13117,10 +13111,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -13141,7 +13135,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13150,10 +13144,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13179,7 +13173,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13199,10 +13193,10 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="D16" s="255" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" s="256"/>
+      <c r="D16" s="226" t="s">
+        <v>518</v>
+      </c>
+      <c r="E16" s="227"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -13210,7 +13204,7 @@
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="4:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="254"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -13236,7 +13230,7 @@
   <dimension ref="A1:DN8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13253,7 +13247,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13557,16 +13551,16 @@
   <sheetPr codeName="Feuil13">
     <tabColor rgb="FF2C45E0"/>
   </sheetPr>
-  <dimension ref="A1:EF4"/>
+  <dimension ref="A1:EG4"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="126" max="126" width="13.5" customWidth="1"/>
     <col min="127" max="127" width="15.83203125" customWidth="1"/>
     <col min="128" max="128" width="36.1640625" customWidth="1"/>
@@ -13579,9 +13573,9 @@
     <col min="144" max="144" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13589,55 +13583,55 @@
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA1" s="239" t="s">
-        <v>492</v>
-      </c>
-      <c r="EB1" s="239"/>
-      <c r="EC1" s="239"/>
-      <c r="ED1" s="239"/>
-      <c r="EE1" s="239"/>
-      <c r="EF1" s="239"/>
-    </row>
-    <row r="2" spans="1:136" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="EA1" s="252" t="s">
+        <v>491</v>
+      </c>
+      <c r="EB1" s="252"/>
+      <c r="EC1" s="252"/>
+      <c r="ED1" s="252"/>
+      <c r="EE1" s="252"/>
+      <c r="EF1" s="252"/>
+      <c r="EG1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:137" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA2" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="EB2" s="194" t="s">
+        <v>35</v>
+      </c>
+      <c r="EC2" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="EE2" s="194" t="s">
+        <v>42</v>
+      </c>
+      <c r="EF2" s="194" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="EA2" s="194" t="s">
-        <v>35</v>
-      </c>
-      <c r="EB2" s="194" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" s="194" t="s">
-        <v>37</v>
-      </c>
-      <c r="ED2" s="194" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE2" s="194" t="s">
-        <v>43</v>
-      </c>
-      <c r="EF2" s="194" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:137" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
@@ -13684,7 +13678,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13705,10 +13699,10 @@
     </row>
     <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -13716,7 +13710,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16" t="e">
         <f>VLOOKUP(A3,'codage tribunal'!A:B,2,FALSE)</f>
@@ -13728,22 +13722,22 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="253" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="240" t="s">
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="30" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
@@ -13754,49 +13748,49 @@
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="O5" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="21" t="e">
         <f>SUMIFS(INDEX('ETPT Format DDG'!$A:$DU,,IFERROR(MATCH(D6,'ETPT Format DDG'!$2:$2,0),MATCH(C6,'ETPT Format DDG'!$2:$2,0))),'ETPT Format DDG'!$I:$I,"M-TIT",'ETPT Format DDG'!$C:$C,$A$3)</f>
@@ -13867,7 +13861,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -13929,19 +13923,19 @@
   <sheetData>
     <row r="1" spans="1:9" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1"/>
       <c r="D1" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1"/>
       <c r="G1" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -14006,1310 +14000,1310 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="59" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="48" t="s">
+      <c r="F24" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="41" t="s">
+      <c r="F26" s="41" t="s">
         <v>78</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="41" t="s">
         <v>78</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>172</v>
-      </c>
       <c r="C28" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="41" t="s">
+      <c r="F30" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="41" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="41" t="s">
+      <c r="F36" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="48" t="s">
+      <c r="F41" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E42" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="48" t="s">
         <v>107</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="48" t="s">
+      <c r="F46" s="41" t="s">
         <v>110</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>157</v>
-      </c>
       <c r="C52" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="41" t="s">
         <v>124</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>127</v>
-      </c>
       <c r="G59" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="48" t="s">
-        <v>129</v>
-      </c>
       <c r="G60" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="48" t="s">
-        <v>131</v>
-      </c>
       <c r="G61" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="48" t="s">
         <v>133</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>143</v>
-      </c>
       <c r="D64" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -15361,16 +15355,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
-      <c r="B1" s="244" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
+      <c r="B1" s="257" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
       <c r="AC1" s="106"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
@@ -15389,172 +15383,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="243" t="s">
         <v>437</v>
       </c>
+      <c r="H2" s="256" t="s">
+        <v>436</v>
+      </c>
       <c r="I2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>436</v>
-      </c>
-      <c r="W2" s="243" t="s">
         <v>435</v>
       </c>
+      <c r="W2" s="256" t="s">
+        <v>434</v>
+      </c>
       <c r="X2" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" s="243" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="AB2" s="256" t="s">
+        <v>433</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL2" s="243" t="s">
         <v>432</v>
       </c>
+      <c r="AL2" s="256" t="s">
+        <v>431</v>
+      </c>
       <c r="AM2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ2" s="243" t="s">
         <v>430</v>
       </c>
+      <c r="AZ2" s="256" t="s">
+        <v>429</v>
+      </c>
       <c r="BA2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="BJ2" s="243" t="s">
         <v>428</v>
+      </c>
+      <c r="BJ2" s="256" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15565,360 +15559,360 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="243"/>
+        <v>426</v>
+      </c>
+      <c r="H3" s="256"/>
       <c r="I3" s="101" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="W3" s="243"/>
+        <v>413</v>
+      </c>
+      <c r="W3" s="256"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB3" s="243"/>
+        <v>410</v>
+      </c>
+      <c r="AB3" s="256"/>
       <c r="AC3" s="98" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI3" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL3" s="243"/>
+        <v>403</v>
+      </c>
+      <c r="AL3" s="256"/>
       <c r="AM3" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>391</v>
-      </c>
-      <c r="AZ3" s="243"/>
+        <v>390</v>
+      </c>
+      <c r="AZ3" s="256"/>
       <c r="BA3" s="97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="BJ3" s="243"/>
+        <v>381</v>
+      </c>
+      <c r="BJ3" s="256"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="243"/>
+        <v>376</v>
+      </c>
+      <c r="H4" s="256"/>
       <c r="I4" s="101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>363</v>
-      </c>
-      <c r="W4" s="243"/>
+        <v>362</v>
+      </c>
+      <c r="W4" s="256"/>
       <c r="X4" s="99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB4" s="243"/>
+        <v>358</v>
+      </c>
+      <c r="AB4" s="256"/>
       <c r="AC4" s="98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI4" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>351</v>
-      </c>
-      <c r="AL4" s="243"/>
+        <v>350</v>
+      </c>
+      <c r="AL4" s="256"/>
       <c r="AM4" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="AZ4" s="243"/>
+        <v>337</v>
+      </c>
+      <c r="AZ4" s="256"/>
       <c r="BA4" s="97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ4" s="243"/>
+        <v>328</v>
+      </c>
+      <c r="BJ4" s="256"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="93"/>
@@ -15927,51 +15921,51 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="T5" s="74" t="s">
-        <v>209</v>
-      </c>
       <c r="U5" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
         <v>0</v>
       </c>
       <c r="X5" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA5" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G5:AA5)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -15979,10 +15973,10 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
@@ -15995,25 +15989,25 @@
       <c r="AQ5" s="92"/>
       <c r="AR5" s="92"/>
       <c r="AS5" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AU5" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW5" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX5" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AY5" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16035,25 +16029,25 @@
     </row>
     <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16061,49 +16055,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16112,47 +16106,47 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN6" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AO6" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP6" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AQ6" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AR6" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -16160,10 +16154,10 @@
       <c r="AV6" s="92"/>
       <c r="AW6" s="92"/>
       <c r="AX6" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY6" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16185,22 +16179,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16235,22 +16229,22 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
@@ -16269,7 +16263,7 @@
       <c r="AW7" s="75"/>
       <c r="AX7" s="75"/>
       <c r="AY7" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16291,25 +16285,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16329,23 +16323,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16397,25 +16391,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16435,23 +16429,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16459,22 +16453,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16493,7 +16487,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16515,25 +16509,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16553,23 +16547,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16577,22 +16571,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16611,7 +16605,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16633,25 +16627,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16671,23 +16665,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16695,22 +16689,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16729,7 +16723,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16751,25 +16745,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16789,23 +16783,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16813,22 +16807,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16847,7 +16841,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16869,25 +16863,25 @@
     </row>
     <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16907,23 +16901,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -16975,71 +16969,71 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>234</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P14" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q14" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="R14" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="S14" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="T14" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="74" t="s">
         <v>224</v>
-      </c>
-      <c r="Q14" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="R14" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="S14" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="T14" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="U14" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="74" t="s">
-        <v>225</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -17054,72 +17048,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF14" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI14" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ14" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR14" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS14" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT14" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AU14" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV14" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW14" s="74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17141,71 +17135,71 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P15" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q15" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="R15" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="S15" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="T15" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="74" t="s">
         <v>224</v>
-      </c>
-      <c r="Q15" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="R15" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="S15" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="T15" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="U15" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="74" t="s">
-        <v>225</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17220,72 +17214,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE15" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF15" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI15" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP15" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ15" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR15" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS15" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT15" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AU15" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV15" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW15" s="74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17312,7 +17306,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17588,16 +17582,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="246" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
+      <c r="B1" s="259" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
     </row>
     <row r="2" spans="1:62" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="158"/>
@@ -17607,172 +17601,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="245" t="s">
         <v>437</v>
       </c>
+      <c r="H2" s="258" t="s">
+        <v>436</v>
+      </c>
       <c r="I2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>436</v>
-      </c>
-      <c r="W2" s="245" t="s">
         <v>435</v>
       </c>
+      <c r="W2" s="258" t="s">
+        <v>434</v>
+      </c>
       <c r="X2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" s="245" t="s">
-        <v>434</v>
+        <v>151</v>
+      </c>
+      <c r="AB2" s="258" t="s">
+        <v>433</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL2" s="245" t="s">
         <v>432</v>
       </c>
+      <c r="AL2" s="258" t="s">
+        <v>431</v>
+      </c>
       <c r="AM2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ2" s="245" t="s">
         <v>430</v>
       </c>
+      <c r="AZ2" s="258" t="s">
+        <v>429</v>
+      </c>
       <c r="BA2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="BJ2" s="245" t="s">
         <v>428</v>
+      </c>
+      <c r="BJ2" s="258" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17783,335 +17777,335 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="245"/>
+        <v>426</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>414</v>
-      </c>
-      <c r="W3" s="245"/>
+        <v>413</v>
+      </c>
+      <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB3" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI3" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL3" s="245"/>
+        <v>403</v>
+      </c>
+      <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>391</v>
-      </c>
-      <c r="AZ3" s="245"/>
+        <v>390</v>
+      </c>
+      <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>382</v>
-      </c>
-      <c r="BJ3" s="245"/>
+        <v>381</v>
+      </c>
+      <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="245"/>
+        <v>376</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>363</v>
-      </c>
-      <c r="W4" s="245"/>
+        <v>362</v>
+      </c>
+      <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB4" s="245"/>
+        <v>358</v>
+      </c>
+      <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI4" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>351</v>
-      </c>
-      <c r="AL4" s="245"/>
+        <v>350</v>
+      </c>
+      <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>338</v>
-      </c>
-      <c r="AZ4" s="245"/>
+        <v>337</v>
+      </c>
+      <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ4" s="245"/>
+        <v>328</v>
+      </c>
+      <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -18120,10 +18114,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18304,7 +18298,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18313,10 +18307,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18516,7 +18510,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18525,10 +18519,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18634,7 +18628,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18643,10 +18637,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18743,7 +18737,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18752,10 +18746,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18922,7 +18916,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18931,10 +18925,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19058,7 +19052,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -19067,10 +19061,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19194,7 +19188,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19203,10 +19197,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19336,7 +19330,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19345,10 +19339,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19445,7 +19439,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19454,10 +19448,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19667,7 +19661,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19676,10 +19670,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19894,7 +19888,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20197,7 +20191,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291D7F-E60F-9247-B097-E13377546AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F5CDD-D549-6647-BCEA-0EBCBF0F4466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>PPI</t>
-  </si>
-  <si>
-    <t>CONT A JP Autour du magistrat</t>
   </si>
   <si>
     <t>CONT A JP Autour du Juge</t>
@@ -2771,6 +2768,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>JA JP</t>
   </si>
 </sst>
 </file>
@@ -5474,10 +5474,10 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="233" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" s="233" t="s">
-        <v>494</v>
       </c>
       <c r="D1" s="233"/>
       <c r="E1" s="233"/>
@@ -5490,7 +5490,7 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="234" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" s="234"/>
       <c r="E2" s="234"/>
@@ -5509,16 +5509,16 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="207" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="D4" s="207" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="E4" s="240" t="s">
         <v>498</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>499</v>
       </c>
       <c r="F4" s="241"/>
       <c r="G4" s="216"/>
@@ -5529,16 +5529,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="213" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="D5" s="213" t="s">
         <v>501</v>
       </c>
-      <c r="D5" s="213" t="s">
-        <v>502</v>
-      </c>
       <c r="E5" s="242" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F5" s="243"/>
       <c r="G5" s="215"/>
@@ -5549,16 +5549,16 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="214" t="s">
         <v>503</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="D6" s="214" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="214" t="s">
-        <v>505</v>
-      </c>
       <c r="E6" s="244" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F6" s="245"/>
       <c r="G6" s="215"/>
@@ -5569,16 +5569,16 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="214" t="s">
         <v>506</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="D7" s="214" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="214" t="s">
-        <v>508</v>
-      </c>
       <c r="E7" s="244" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F7" s="245"/>
       <c r="G7" s="215"/>
@@ -5589,16 +5589,16 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="235" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="D8" s="235" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="235" t="s">
-        <v>511</v>
-      </c>
       <c r="E8" s="246" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F8" s="247"/>
       <c r="G8" s="215"/>
@@ -5609,7 +5609,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" s="235"/>
       <c r="D9" s="235"/>
@@ -5623,7 +5623,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" s="236"/>
       <c r="D10" s="236"/>
@@ -5649,7 +5649,7 @@
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
       <c r="C12" s="239" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="239"/>
       <c r="E12" s="239"/>
@@ -5727,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="260" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B1" s="260"/>
       <c r="C1" s="260"/>
@@ -5772,91 +5772,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5867,181 +5867,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6050,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6218,7 +6218,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6227,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6279,7 +6279,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6288,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6361,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6434,7 +6434,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6443,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6656,7 +6656,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6735,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6848,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6957,7 +6957,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7127,7 +7127,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7144,16 +7144,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7164,43 +7164,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7260,7 +7260,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7296,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7314,7 +7314,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7341,7 +7341,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7350,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7368,7 +7368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7395,7 +7395,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7460,7 +7460,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7524,12 +7524,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7598,172 +7598,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7775,78 +7775,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7855,265 +7855,265 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="258"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8325,10 +8325,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8539,10 +8539,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8753,10 +8753,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8967,10 +8967,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9181,10 +9181,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9395,10 +9395,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9609,10 +9609,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9823,10 +9823,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -10037,10 +10037,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10251,10 +10251,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10461,7 +10461,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10744,12 +10744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10818,91 +10818,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10913,190 +10913,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11226,10 +11226,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11350,7 +11350,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11359,10 +11359,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11492,10 +11492,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11625,10 +11625,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11758,10 +11758,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11891,10 +11891,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12024,10 +12024,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12157,10 +12157,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12290,10 +12290,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12423,10 +12423,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12552,7 +12552,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12744,12 +12744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12818,16 +12818,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12838,52 +12838,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12913,10 +12913,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12946,10 +12946,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12979,10 +12979,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13012,10 +13012,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13045,10 +13045,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13078,10 +13078,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13111,10 +13111,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13173,7 +13173,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13247,7 +13247,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13575,7 +13575,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13586,7 +13586,7 @@
         <v>6</v>
       </c>
       <c r="EA1" s="252" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="EB1" s="252"/>
       <c r="EC1" s="252"/>
@@ -13678,7 +13678,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13927,15 +13927,15 @@
       </c>
       <c r="B1"/>
       <c r="D1" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1"/>
       <c r="G1" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -13983,7 +13983,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14000,19 +14000,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="59" t="s">
         <v>34</v>
@@ -14020,16 +14020,16 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>46</v>
@@ -14040,16 +14040,16 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>46</v>
@@ -14060,16 +14060,16 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>46</v>
@@ -14080,16 +14080,16 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>46</v>
@@ -14100,16 +14100,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>46</v>
@@ -14120,16 +14120,16 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>46</v>
@@ -14140,16 +14140,16 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>46</v>
@@ -14160,16 +14160,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>46</v>
@@ -14180,16 +14180,16 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>46</v>
@@ -14200,16 +14200,16 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>46</v>
@@ -14220,16 +14220,16 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>46</v>
@@ -14240,16 +14240,16 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>46</v>
@@ -14260,16 +14260,16 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>46</v>
@@ -14280,16 +14280,16 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>46</v>
@@ -14300,16 +14300,16 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>46</v>
@@ -14320,16 +14320,16 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>46</v>
@@ -14340,16 +14340,16 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>46</v>
@@ -14360,16 +14360,16 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>46</v>
@@ -14380,16 +14380,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>46</v>
@@ -14400,16 +14400,16 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>46</v>
@@ -14420,16 +14420,16 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>69</v>
@@ -14440,16 +14440,16 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>69</v>
@@ -14460,16 +14460,16 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>73</v>
@@ -14480,16 +14480,16 @@
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>73</v>
@@ -14500,16 +14500,16 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>77</v>
@@ -14520,16 +14520,16 @@
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>77</v>
@@ -14540,16 +14540,16 @@
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>171</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>77</v>
@@ -14560,16 +14560,16 @@
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>77</v>
@@ -14580,7 +14580,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>83</v>
@@ -14589,7 +14589,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>84</v>
@@ -14600,16 +14600,16 @@
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>84</v>
@@ -14620,16 +14620,16 @@
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>84</v>
@@ -14640,7 +14640,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
@@ -14649,7 +14649,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>84</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>89</v>
@@ -14669,7 +14669,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>84</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>90</v>
@@ -14689,7 +14689,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>84</v>
@@ -14700,7 +14700,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>92</v>
@@ -14709,7 +14709,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>93</v>
@@ -14720,16 +14720,16 @@
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>93</v>
@@ -14740,7 +14740,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>96</v>
@@ -14749,7 +14749,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>93</v>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>97</v>
@@ -14769,7 +14769,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>93</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>98</v>
@@ -14789,7 +14789,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>93</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>100</v>
@@ -14809,7 +14809,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>101</v>
@@ -14820,16 +14820,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>101</v>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>104</v>
@@ -14849,7 +14849,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>101</v>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>105</v>
@@ -14869,7 +14869,7 @@
         <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>101</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>106</v>
@@ -14889,7 +14889,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>101</v>
@@ -14900,16 +14900,16 @@
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>109</v>
@@ -14920,16 +14920,16 @@
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>109</v>
@@ -14940,16 +14940,16 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>109</v>
@@ -14960,16 +14960,16 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>109</v>
@@ -14980,16 +14980,16 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>109</v>
@@ -15000,16 +15000,16 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>109</v>
@@ -15020,16 +15020,16 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>156</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>109</v>
@@ -15040,16 +15040,16 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>109</v>
@@ -15060,16 +15060,16 @@
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>109</v>
@@ -15080,16 +15080,16 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="54" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>109</v>
@@ -15100,36 +15100,36 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="41" t="s">
         <v>109</v>
@@ -15140,33 +15140,33 @@
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>109</v>
@@ -15175,21 +15175,21 @@
         <v>126</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>109</v>
@@ -15198,21 +15198,21 @@
         <v>128</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="48" t="s">
         <v>109</v>
@@ -15221,89 +15221,89 @@
         <v>130</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>142</v>
-      </c>
       <c r="D64" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="44" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -15356,7 +15356,7 @@
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
       <c r="B1" s="257" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" s="257"/>
       <c r="D1" s="257"/>
@@ -15383,172 +15383,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="256" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="256" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="256" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="256" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15559,78 +15559,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="256"/>
       <c r="I3" s="101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="256"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="256"/>
       <c r="AC3" s="98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15639,273 +15639,273 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="256"/>
       <c r="AM3" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="256"/>
       <c r="BA3" s="97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="256"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="256"/>
       <c r="I4" s="101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="256"/>
       <c r="X4" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="256"/>
       <c r="AC4" s="98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="256"/>
       <c r="AM4" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="256"/>
       <c r="BA4" s="97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="256"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
@@ -15921,25 +15921,25 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T5" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -15962,10 +15962,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -15973,10 +15973,10 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
@@ -15989,25 +15989,25 @@
       <c r="AQ5" s="92"/>
       <c r="AR5" s="92"/>
       <c r="AS5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AU5" s="74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW5" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AX5" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AY5" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16029,25 +16029,25 @@
     </row>
     <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16055,49 +16055,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16106,47 +16106,47 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN6" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AO6" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP6" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AQ6" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AR6" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -16154,10 +16154,10 @@
       <c r="AV6" s="92"/>
       <c r="AW6" s="92"/>
       <c r="AX6" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AY6" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16179,22 +16179,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16229,22 +16229,22 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
@@ -16263,7 +16263,7 @@
       <c r="AW7" s="75"/>
       <c r="AX7" s="75"/>
       <c r="AY7" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16285,25 +16285,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16323,23 +16323,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16391,25 +16391,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16429,23 +16429,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16453,22 +16453,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16487,7 +16487,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16509,25 +16509,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16547,23 +16547,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16571,22 +16571,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16605,7 +16605,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16627,25 +16627,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16665,23 +16665,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16689,22 +16689,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16723,7 +16723,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16745,25 +16745,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16783,23 +16783,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16807,22 +16807,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16841,7 +16841,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16863,25 +16863,25 @@
     </row>
     <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16901,23 +16901,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -16969,25 +16969,25 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>233</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
@@ -16997,43 +16997,43 @@
         <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S14" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T14" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T14" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U14" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V14" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -17048,72 +17048,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE14" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI14" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP14" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ14" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR14" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS14" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AT14" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU14" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV14" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17135,25 +17135,25 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
@@ -17163,43 +17163,43 @@
         <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S15" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T15" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T15" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17214,72 +17214,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD15" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE15" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI15" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO15" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP15" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ15" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR15" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS15" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AT15" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU15" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV15" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW15" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17306,7 +17306,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17583,7 +17583,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="259" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="259"/>
@@ -17601,172 +17601,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17777,78 +17777,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17857,255 +17857,255 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -18114,10 +18114,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18307,10 +18307,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18510,7 +18510,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18519,10 +18519,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18628,7 +18628,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18746,10 +18746,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18916,7 +18916,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18925,10 +18925,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -19061,10 +19061,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19188,7 +19188,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19197,10 +19197,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19330,7 +19330,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19339,10 +19339,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19448,10 +19448,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19661,7 +19661,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19670,10 +19670,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19888,7 +19888,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20191,7 +20191,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291D7F-E60F-9247-B097-E13377546AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EFCC9-952B-9C47-8418-74278CEBA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>PPI</t>
-  </si>
-  <si>
-    <t>CONT A JP Autour du magistrat</t>
   </si>
   <si>
     <t>CONT A JP Autour du Juge</t>
@@ -2771,6 +2768,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>JA JP</t>
   </si>
 </sst>
 </file>
@@ -5474,10 +5474,10 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="233" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" s="233" t="s">
-        <v>494</v>
       </c>
       <c r="D1" s="233"/>
       <c r="E1" s="233"/>
@@ -5490,7 +5490,7 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="234" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" s="234"/>
       <c r="E2" s="234"/>
@@ -5509,16 +5509,16 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="207" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="D4" s="207" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="E4" s="240" t="s">
         <v>498</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>499</v>
       </c>
       <c r="F4" s="241"/>
       <c r="G4" s="216"/>
@@ -5529,16 +5529,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="213" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="D5" s="213" t="s">
         <v>501</v>
       </c>
-      <c r="D5" s="213" t="s">
-        <v>502</v>
-      </c>
       <c r="E5" s="242" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F5" s="243"/>
       <c r="G5" s="215"/>
@@ -5549,16 +5549,16 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="214" t="s">
         <v>503</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="D6" s="214" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="214" t="s">
-        <v>505</v>
-      </c>
       <c r="E6" s="244" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F6" s="245"/>
       <c r="G6" s="215"/>
@@ -5569,16 +5569,16 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="214" t="s">
         <v>506</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="D7" s="214" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="214" t="s">
-        <v>508</v>
-      </c>
       <c r="E7" s="244" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F7" s="245"/>
       <c r="G7" s="215"/>
@@ -5589,16 +5589,16 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="235" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="D8" s="235" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="235" t="s">
-        <v>511</v>
-      </c>
       <c r="E8" s="246" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F8" s="247"/>
       <c r="G8" s="215"/>
@@ -5609,7 +5609,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" s="235"/>
       <c r="D9" s="235"/>
@@ -5623,7 +5623,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" s="236"/>
       <c r="D10" s="236"/>
@@ -5649,7 +5649,7 @@
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
       <c r="C12" s="239" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="239"/>
       <c r="E12" s="239"/>
@@ -5727,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="260" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B1" s="260"/>
       <c r="C1" s="260"/>
@@ -5772,91 +5772,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5867,181 +5867,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6050,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6218,7 +6218,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6227,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6279,7 +6279,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6288,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6361,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6434,7 +6434,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6443,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6656,7 +6656,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6735,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6848,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6957,7 +6957,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7127,7 +7127,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7144,16 +7144,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7164,43 +7164,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7260,7 +7260,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7296,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7314,7 +7314,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7341,7 +7341,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7350,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7368,7 +7368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7395,7 +7395,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7460,7 +7460,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7524,12 +7524,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7598,172 +7598,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7775,78 +7775,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7855,265 +7855,265 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="258"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8325,10 +8325,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8539,10 +8539,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8753,10 +8753,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8967,10 +8967,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9181,10 +9181,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9395,10 +9395,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9609,10 +9609,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9823,10 +9823,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -10037,10 +10037,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10251,10 +10251,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10461,7 +10461,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10744,12 +10744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10818,91 +10818,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10913,190 +10913,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11226,10 +11226,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11350,7 +11350,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11359,10 +11359,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11492,10 +11492,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11625,10 +11625,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11758,10 +11758,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11891,10 +11891,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12024,10 +12024,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12157,10 +12157,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12290,10 +12290,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12423,10 +12423,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12552,7 +12552,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12744,12 +12744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12818,16 +12818,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12838,52 +12838,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12913,10 +12913,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12946,10 +12946,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12979,10 +12979,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13012,10 +13012,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13045,10 +13045,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13078,10 +13078,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13111,10 +13111,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13173,7 +13173,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13247,7 +13247,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13575,7 +13575,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13586,7 +13586,7 @@
         <v>6</v>
       </c>
       <c r="EA1" s="252" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="EB1" s="252"/>
       <c r="EC1" s="252"/>
@@ -13678,7 +13678,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13927,15 +13927,15 @@
       </c>
       <c r="B1"/>
       <c r="D1" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1"/>
       <c r="G1" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -13983,7 +13983,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14000,19 +14000,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="59" t="s">
         <v>34</v>
@@ -14020,16 +14020,16 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>46</v>
@@ -14040,16 +14040,16 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>46</v>
@@ -14060,16 +14060,16 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>46</v>
@@ -14080,16 +14080,16 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>46</v>
@@ -14100,16 +14100,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>46</v>
@@ -14120,16 +14120,16 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>46</v>
@@ -14140,16 +14140,16 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>46</v>
@@ -14160,16 +14160,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>46</v>
@@ -14180,16 +14180,16 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>46</v>
@@ -14200,16 +14200,16 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>46</v>
@@ -14220,16 +14220,16 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>46</v>
@@ -14240,16 +14240,16 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>46</v>
@@ -14260,16 +14260,16 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>46</v>
@@ -14280,16 +14280,16 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>46</v>
@@ -14300,16 +14300,16 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>46</v>
@@ -14320,16 +14320,16 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>46</v>
@@ -14340,16 +14340,16 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>46</v>
@@ -14360,16 +14360,16 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>46</v>
@@ -14380,16 +14380,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>46</v>
@@ -14400,16 +14400,16 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>46</v>
@@ -14420,16 +14420,16 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>69</v>
@@ -14440,16 +14440,16 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>69</v>
@@ -14460,16 +14460,16 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>73</v>
@@ -14480,16 +14480,16 @@
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>73</v>
@@ -14500,16 +14500,16 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>77</v>
@@ -14520,16 +14520,16 @@
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>77</v>
@@ -14540,16 +14540,16 @@
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>171</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>77</v>
@@ -14560,16 +14560,16 @@
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>77</v>
@@ -14580,7 +14580,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>83</v>
@@ -14589,7 +14589,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>84</v>
@@ -14600,16 +14600,16 @@
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>84</v>
@@ -14620,16 +14620,16 @@
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>84</v>
@@ -14640,7 +14640,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
@@ -14649,7 +14649,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>84</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>89</v>
@@ -14669,7 +14669,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>84</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>90</v>
@@ -14689,7 +14689,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>84</v>
@@ -14700,7 +14700,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>92</v>
@@ -14709,7 +14709,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>93</v>
@@ -14720,16 +14720,16 @@
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>93</v>
@@ -14740,7 +14740,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>96</v>
@@ -14749,7 +14749,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>93</v>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>97</v>
@@ -14769,7 +14769,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>93</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>98</v>
@@ -14789,7 +14789,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>93</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>100</v>
@@ -14809,7 +14809,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>101</v>
@@ -14820,16 +14820,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>101</v>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>104</v>
@@ -14849,7 +14849,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>101</v>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>105</v>
@@ -14869,7 +14869,7 @@
         <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>101</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>106</v>
@@ -14889,7 +14889,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>101</v>
@@ -14900,16 +14900,16 @@
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>109</v>
@@ -14920,16 +14920,16 @@
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>109</v>
@@ -14940,16 +14940,16 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>109</v>
@@ -14960,16 +14960,16 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>109</v>
@@ -14980,16 +14980,16 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>109</v>
@@ -15000,16 +15000,16 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>109</v>
@@ -15020,16 +15020,16 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>156</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>109</v>
@@ -15040,16 +15040,16 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>109</v>
@@ -15060,16 +15060,16 @@
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>109</v>
@@ -15080,16 +15080,16 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="54" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>109</v>
@@ -15100,36 +15100,36 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="41" t="s">
         <v>109</v>
@@ -15140,33 +15140,33 @@
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>109</v>
@@ -15175,21 +15175,21 @@
         <v>126</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>109</v>
@@ -15198,21 +15198,21 @@
         <v>128</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="48" t="s">
         <v>109</v>
@@ -15221,89 +15221,89 @@
         <v>130</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>142</v>
-      </c>
       <c r="D64" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="44" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -15356,7 +15356,7 @@
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
       <c r="B1" s="257" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" s="257"/>
       <c r="D1" s="257"/>
@@ -15383,172 +15383,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="256" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="256" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="256" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="256" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15559,78 +15559,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="256"/>
       <c r="I3" s="101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="256"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="256"/>
       <c r="AC3" s="98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15639,273 +15639,273 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="256"/>
       <c r="AM3" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="256"/>
       <c r="BA3" s="97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="256"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="256"/>
       <c r="I4" s="101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="256"/>
       <c r="X4" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="256"/>
       <c r="AC4" s="98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="256"/>
       <c r="AM4" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="256"/>
       <c r="BA4" s="97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="256"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
@@ -15921,25 +15921,25 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T5" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -15962,10 +15962,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -15973,10 +15973,10 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
@@ -15989,25 +15989,25 @@
       <c r="AQ5" s="92"/>
       <c r="AR5" s="92"/>
       <c r="AS5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AU5" s="74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW5" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AX5" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AY5" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16029,25 +16029,25 @@
     </row>
     <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16055,49 +16055,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16106,47 +16106,47 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN6" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AO6" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP6" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AQ6" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AR6" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -16154,10 +16154,10 @@
       <c r="AV6" s="92"/>
       <c r="AW6" s="92"/>
       <c r="AX6" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AY6" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16179,22 +16179,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16229,22 +16229,22 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
@@ -16263,7 +16263,7 @@
       <c r="AW7" s="75"/>
       <c r="AX7" s="75"/>
       <c r="AY7" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16285,25 +16285,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16323,23 +16323,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16391,25 +16391,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16429,23 +16429,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16453,22 +16453,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16487,7 +16487,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16509,25 +16509,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16547,23 +16547,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16571,22 +16571,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16605,7 +16605,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16627,25 +16627,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16665,23 +16665,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16689,22 +16689,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16723,7 +16723,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16745,25 +16745,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16783,23 +16783,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16807,22 +16807,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16841,7 +16841,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16863,25 +16863,25 @@
     </row>
     <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16901,23 +16901,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -16969,25 +16969,25 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>233</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
@@ -16997,43 +16997,43 @@
         <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S14" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T14" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T14" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U14" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V14" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -17048,72 +17048,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE14" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI14" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP14" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ14" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR14" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS14" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AT14" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU14" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV14" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17135,25 +17135,25 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
@@ -17163,43 +17163,43 @@
         <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S15" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="T15" s="74" t="s">
         <v>207</v>
-      </c>
-      <c r="T15" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="U15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17214,72 +17214,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD15" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE15" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI15" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO15" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP15" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ15" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR15" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS15" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AT15" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU15" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV15" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW15" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17306,7 +17306,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17583,7 +17583,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="259" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="259"/>
@@ -17601,172 +17601,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17777,78 +17777,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17857,255 +17857,255 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -18114,10 +18114,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18307,10 +18307,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18510,7 +18510,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18519,10 +18519,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18628,7 +18628,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18746,10 +18746,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18916,7 +18916,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18925,10 +18925,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -19061,10 +19061,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19188,7 +19188,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19197,10 +19197,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19330,7 +19330,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19339,10 +19339,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19448,10 +19448,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19661,7 +19661,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19670,10 +19670,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19888,7 +19888,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20191,7 +20191,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F5CDD-D549-6647-BCEA-0EBCBF0F4466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C175DC4F-D524-694E-A1E8-046EB5A40464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="522">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -2771,6 +2771,12 @@
   </si>
   <si>
     <t>JA JP</t>
+  </si>
+  <si>
+    <t>JURISTE ASSISTANT Vif</t>
+  </si>
+  <si>
+    <t>JA VIF</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3843,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4672,6 +4678,12 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13980,10 +13992,10 @@
   <sheetPr codeName="Feuil14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="B47" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15225,34 +15237,35 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="261" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="48" t="s">
+      <c r="B62" s="262" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" s="262" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" s="262" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="F62" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>519</v>
+        <v>131</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>137</v>
@@ -15260,54 +15273,74 @@
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="G63" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="48" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47" t="s">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B65" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C65" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D65" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E65" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="43"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="42" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EFCC9-952B-9C47-8418-74278CEBA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CEEAA-2D6B-7D4C-8FEC-C5ACAC0255E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="521">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -2771,6 +2771,9 @@
   </si>
   <si>
     <t>JA JP</t>
+  </si>
+  <si>
+    <t>JA VIF</t>
   </si>
 </sst>
 </file>
@@ -13980,9 +13983,9 @@
   <sheetPr codeName="Feuil14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B48" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -15252,7 +15255,7 @@
         <v>143</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>137</v>
@@ -15263,51 +15266,72 @@
       <c r="F63" s="48" t="s">
         <v>132</v>
       </c>
+      <c r="G63" s="42"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C65" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D65" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E65" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="43"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="42" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CEEAA-2D6B-7D4C-8FEC-C5ACAC0255E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7161F2AA-EFD1-F948-B7A2-01F41596DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCUEIL" sheetId="33" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="520">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -410,16 +410,7 @@
     <t>VACATAIRES</t>
   </si>
   <si>
-    <t>CONT A JP</t>
-  </si>
-  <si>
     <t>CONT A JP Greffe</t>
-  </si>
-  <si>
-    <t>CONT B JP</t>
-  </si>
-  <si>
-    <t>CONT C JP</t>
   </si>
   <si>
     <t>AS</t>
@@ -2774,6 +2765,12 @@
   </si>
   <si>
     <t>JA VIF</t>
+  </si>
+  <si>
+    <t>CONT B JP Greffe</t>
+  </si>
+  <si>
+    <t>CONT C JP Greffe</t>
   </si>
 </sst>
 </file>
@@ -5157,9 +5154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5197,7 +5194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5303,7 +5300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5445,7 +5442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5477,10 +5474,10 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C1" s="233" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D1" s="233"/>
       <c r="E1" s="233"/>
@@ -5493,7 +5490,7 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="234" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D2" s="234"/>
       <c r="E2" s="234"/>
@@ -5512,16 +5509,16 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="207" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="240" t="s">
         <v>495</v>
-      </c>
-      <c r="C4" s="207" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="207" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>498</v>
       </c>
       <c r="F4" s="241"/>
       <c r="G4" s="216"/>
@@ -5532,16 +5529,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C5" s="213" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D5" s="213" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E5" s="242" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F5" s="243"/>
       <c r="G5" s="215"/>
@@ -5552,16 +5549,16 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C6" s="214" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D6" s="214" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F6" s="245"/>
       <c r="G6" s="215"/>
@@ -5572,16 +5569,16 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C7" s="214" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F7" s="245"/>
       <c r="G7" s="215"/>
@@ -5592,16 +5589,16 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D8" s="235" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E8" s="246" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F8" s="247"/>
       <c r="G8" s="215"/>
@@ -5612,7 +5609,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C9" s="235"/>
       <c r="D9" s="235"/>
@@ -5626,7 +5623,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C10" s="236"/>
       <c r="D10" s="236"/>
@@ -5652,7 +5649,7 @@
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
       <c r="C12" s="239" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D12" s="239"/>
       <c r="E12" s="239"/>
@@ -5730,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="260" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1" s="260"/>
       <c r="C1" s="260"/>
@@ -5775,91 +5772,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5870,181 +5867,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6053,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6160,7 +6157,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6169,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6221,7 +6218,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6230,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6282,7 +6279,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6291,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6364,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6437,7 +6434,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6446,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6519,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6583,7 +6580,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6592,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6659,7 +6656,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6668,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6729,7 +6726,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6738,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6842,7 +6839,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6851,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6960,7 +6957,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -7090,7 +7087,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7127,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7147,16 +7144,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7167,43 +7164,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7212,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7245,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7263,7 +7260,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7272,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7290,7 +7287,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7299,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7317,7 +7314,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7326,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7344,7 +7341,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7353,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7371,7 +7368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7380,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7398,7 +7395,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7407,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7428,7 +7425,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7437,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7463,7 +7460,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7527,12 +7524,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7601,172 +7598,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7778,78 +7775,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7858,265 +7855,265 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="BJ4" s="258"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8328,10 +8325,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8533,7 +8530,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8542,10 +8539,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8747,7 +8744,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8756,10 +8753,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8961,7 +8958,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8970,10 +8967,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9175,7 +9172,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9184,10 +9181,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9389,7 +9386,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9398,10 +9395,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9603,7 +9600,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9612,10 +9609,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9817,7 +9814,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9826,10 +9823,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -10040,10 +10037,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10245,7 +10242,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10254,10 +10251,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10464,7 +10461,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10697,7 +10694,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10747,12 +10744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10821,91 +10818,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10916,190 +10913,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11220,7 +11217,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11229,10 +11226,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11353,7 +11350,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11362,10 +11359,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11486,7 +11483,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11495,10 +11492,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11619,7 +11616,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11628,10 +11625,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11752,7 +11749,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11761,10 +11758,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11885,7 +11882,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11894,10 +11891,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -12018,7 +12015,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12027,10 +12024,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -12151,7 +12148,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12160,10 +12157,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12284,7 +12281,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12293,10 +12290,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12417,7 +12414,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12426,10 +12423,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12555,7 +12552,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12679,7 +12676,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12701,7 +12698,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12747,12 +12744,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12821,16 +12818,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12841,52 +12838,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12907,7 +12904,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12916,10 +12913,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12940,7 +12937,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12949,10 +12946,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12973,7 +12970,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12982,10 +12979,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -13006,7 +13003,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13015,10 +13012,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -13039,7 +13036,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13048,10 +13045,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -13072,7 +13069,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13081,10 +13078,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -13105,7 +13102,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13114,10 +13111,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -13138,7 +13135,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13147,10 +13144,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13176,7 +13173,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13197,7 +13194,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13250,7 +13247,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13578,7 +13575,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13589,7 +13586,7 @@
         <v>6</v>
       </c>
       <c r="EA1" s="252" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="EB1" s="252"/>
       <c r="EC1" s="252"/>
@@ -13681,7 +13678,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13930,15 +13927,15 @@
       </c>
       <c r="B1"/>
       <c r="D1" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E1"/>
       <c r="G1" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -13985,8 +13982,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="B45" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14003,19 +14000,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F1" s="59" t="s">
         <v>34</v>
@@ -14023,16 +14020,16 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>46</v>
@@ -14043,16 +14040,16 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>46</v>
@@ -14063,16 +14060,16 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>46</v>
@@ -14083,16 +14080,16 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>46</v>
@@ -14103,16 +14100,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>46</v>
@@ -14123,16 +14120,16 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>46</v>
@@ -14143,16 +14140,16 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>46</v>
@@ -14163,16 +14160,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>46</v>
@@ -14183,16 +14180,16 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>46</v>
@@ -14203,16 +14200,16 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>46</v>
@@ -14223,16 +14220,16 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>46</v>
@@ -14243,16 +14240,16 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>46</v>
@@ -14263,16 +14260,16 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>46</v>
@@ -14283,16 +14280,16 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>46</v>
@@ -14303,16 +14300,16 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>46</v>
@@ -14323,16 +14320,16 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>46</v>
@@ -14343,16 +14340,16 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>46</v>
@@ -14363,16 +14360,16 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>46</v>
@@ -14383,16 +14380,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>46</v>
@@ -14403,16 +14400,16 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>46</v>
@@ -14423,16 +14420,16 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>69</v>
@@ -14443,16 +14440,16 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>69</v>
@@ -14463,16 +14460,16 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>73</v>
@@ -14483,16 +14480,16 @@
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>73</v>
@@ -14503,16 +14500,16 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>172</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>77</v>
@@ -14523,16 +14520,16 @@
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>77</v>
@@ -14543,16 +14540,16 @@
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>77</v>
@@ -14563,16 +14560,16 @@
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>77</v>
@@ -14583,7 +14580,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>83</v>
@@ -14592,7 +14589,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>84</v>
@@ -14603,16 +14600,16 @@
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>84</v>
@@ -14623,16 +14620,16 @@
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>84</v>
@@ -14643,7 +14640,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
@@ -14652,7 +14649,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>84</v>
@@ -14663,7 +14660,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>89</v>
@@ -14672,7 +14669,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>84</v>
@@ -14683,7 +14680,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>90</v>
@@ -14692,7 +14689,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>84</v>
@@ -14703,7 +14700,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>92</v>
@@ -14712,7 +14709,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>93</v>
@@ -14723,16 +14720,16 @@
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>93</v>
@@ -14743,7 +14740,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>96</v>
@@ -14752,7 +14749,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>93</v>
@@ -14763,7 +14760,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>97</v>
@@ -14772,7 +14769,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>93</v>
@@ -14783,7 +14780,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>98</v>
@@ -14792,7 +14789,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>93</v>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>100</v>
@@ -14812,7 +14809,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>101</v>
@@ -14823,16 +14820,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>101</v>
@@ -14843,7 +14840,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>104</v>
@@ -14852,7 +14849,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>101</v>
@@ -14863,7 +14860,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>105</v>
@@ -14872,7 +14869,7 @@
         <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>101</v>
@@ -14883,7 +14880,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>106</v>
@@ -14892,7 +14889,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>101</v>
@@ -14903,16 +14900,16 @@
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>109</v>
@@ -14923,16 +14920,16 @@
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>109</v>
@@ -14943,16 +14940,16 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>109</v>
@@ -14963,16 +14960,16 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>109</v>
@@ -14983,16 +14980,16 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="48" t="s">
         <v>154</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>157</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>109</v>
@@ -15003,16 +15000,16 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>109</v>
@@ -15023,16 +15020,16 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>109</v>
@@ -15043,36 +15040,36 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>120</v>
+        <v>518</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>109</v>
@@ -15083,16 +15080,16 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>121</v>
+        <v>519</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>109</v>
@@ -15103,231 +15100,231 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E57" s="41" t="s">
         <v>109</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="48" t="s">
-        <v>143</v>
-      </c>
       <c r="C63" s="48" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G63" s="42"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="48" t="s">
-        <v>143</v>
-      </c>
       <c r="C64" s="48" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E65" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="46"/>
       <c r="G65" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E66" s="44" t="s">
         <v>109</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -15380,7 +15377,7 @@
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
       <c r="B1" s="257" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C1" s="257"/>
       <c r="D1" s="257"/>
@@ -15407,172 +15404,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H2" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="W2" s="256" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="256" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="256" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AZ2" s="256" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BJ2" s="256" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15583,78 +15580,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="256"/>
       <c r="I3" s="101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W3" s="256"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB3" s="256"/>
       <c r="AC3" s="98" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15663,273 +15660,273 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL3" s="256"/>
       <c r="AM3" s="98" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AZ3" s="256"/>
       <c r="BA3" s="97" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BJ3" s="256"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="256"/>
       <c r="I4" s="101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W4" s="256"/>
       <c r="X4" s="99" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB4" s="256"/>
       <c r="AC4" s="98" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AL4" s="256"/>
       <c r="AM4" s="98" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AZ4" s="256"/>
       <c r="BA4" s="97" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="BJ4" s="256"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
@@ -15945,25 +15942,25 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="Q5" s="74" t="s">
-        <v>225</v>
-      </c>
       <c r="R5" s="74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S5" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T5" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -15986,10 +15983,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -15997,10 +15994,10 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
@@ -16013,25 +16010,25 @@
       <c r="AQ5" s="92"/>
       <c r="AR5" s="92"/>
       <c r="AS5" s="74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AU5" s="74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW5" s="74" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AX5" s="74" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AY5" s="74" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16053,25 +16050,25 @@
     </row>
     <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16079,49 +16076,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16130,47 +16127,47 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AN6" s="74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AO6" s="74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AP6" s="74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AQ6" s="74" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AR6" s="74" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -16178,10 +16175,10 @@
       <c r="AV6" s="92"/>
       <c r="AW6" s="92"/>
       <c r="AX6" s="74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AY6" s="74" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16203,22 +16200,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16253,22 +16250,22 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
@@ -16287,7 +16284,7 @@
       <c r="AW7" s="75"/>
       <c r="AX7" s="75"/>
       <c r="AY7" s="74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16309,25 +16306,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16347,23 +16344,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16415,25 +16412,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16453,23 +16450,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16477,22 +16474,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16511,7 +16508,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16533,25 +16530,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16571,23 +16568,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16595,22 +16592,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16629,7 +16626,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16651,25 +16648,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16689,23 +16686,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16713,22 +16710,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16747,7 +16744,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16769,25 +16766,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16807,23 +16804,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16831,22 +16828,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16865,7 +16862,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16885,27 +16882,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="74" t="s">
         <v>231</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>234</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16925,23 +16922,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -16993,25 +16990,25 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="F14" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>232</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
@@ -17021,43 +17018,43 @@
         <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K14" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="O14" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="M14" s="74" t="s">
+      <c r="P14" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="N14" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="O14" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="P14" s="74" t="s">
+      <c r="Q14" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="Q14" s="74" t="s">
-        <v>225</v>
-      </c>
       <c r="R14" s="74" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T14" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U14" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V14" s="74" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -17072,72 +17069,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AD14" s="74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AE14" s="74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF14" s="74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AH14" s="74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AI14" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN14" s="74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AO14" s="74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AP14" s="74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ14" s="74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AR14" s="74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AS14" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AT14" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AU14" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AV14" s="74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AW14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17159,25 +17156,25 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
@@ -17187,43 +17184,43 @@
         <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K15" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="L15" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="74" t="s">
+      <c r="P15" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="N15" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="P15" s="74" t="s">
+      <c r="Q15" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" s="74" t="s">
-        <v>225</v>
-      </c>
       <c r="R15" s="74" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S15" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T15" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17238,72 +17235,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AD15" s="74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AE15" s="74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF15" s="74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG15" s="74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AH15" s="74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AI15" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN15" s="74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AO15" s="74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AP15" s="74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ15" s="74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AR15" s="74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AS15" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AT15" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AU15" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AV15" s="74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AW15" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17330,7 +17327,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17607,7 +17604,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="259" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="259"/>
@@ -17625,172 +17622,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17801,78 +17798,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17881,255 +17878,255 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -18138,10 +18135,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18322,7 +18319,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18331,10 +18328,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18534,7 +18531,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18543,10 +18540,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18652,7 +18649,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18661,10 +18658,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18761,7 +18758,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18770,10 +18767,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18940,7 +18937,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18949,10 +18946,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19076,7 +19073,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -19085,10 +19082,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19212,7 +19209,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19221,10 +19218,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19354,7 +19351,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19363,10 +19360,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19463,7 +19460,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19472,10 +19469,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19685,7 +19682,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19694,10 +19691,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19912,7 +19909,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20215,7 +20212,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7161F2AA-EFD1-F948-B7A2-01F41596DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31930DC9-534D-2849-8A1A-BC0A9312649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="521">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -2771,6 +2771,9 @@
   </si>
   <si>
     <t>CONT C JP Greffe</t>
+  </si>
+  <si>
+    <t>CONT A JP Autour du magistrat</t>
   </si>
 </sst>
 </file>
@@ -13980,10 +13983,10 @@
   <sheetPr codeName="Feuil14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15286,49 +15289,69 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C66" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D66" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E66" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="43"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="42" t="s">
         <v>133</v>
       </c>
     </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -16882,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
         <v>228</v>
       </c>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C175DC4F-D524-694E-A1E8-046EB5A40464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF230F-D554-BF4B-801A-5BCCA5A7E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ETPT A-JUST'!$A$2:$DN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ETPT Format DDG'!$A$2:$DT$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Table_Fonctions!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="523">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -2777,6 +2777,9 @@
   </si>
   <si>
     <t>JA VIF</t>
+  </si>
+  <si>
+    <t>CONT A JP Autour du magistrat</t>
   </si>
 </sst>
 </file>
@@ -4592,6 +4595,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4678,12 +4687,6 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5166,9 +5169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5206,7 +5209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5312,7 +5315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5454,7 +5457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5488,11 +5491,11 @@
       <c r="B1" s="197" t="s">
         <v>492</v>
       </c>
-      <c r="C1" s="233" t="s">
+      <c r="C1" s="235" t="s">
         <v>493</v>
       </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
       <c r="F1" s="198"/>
       <c r="H1" s="28" t="s">
         <v>0</v>
@@ -5501,11 +5504,11 @@
     <row r="2" spans="1:8" s="202" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="236" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="201"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
@@ -5529,10 +5532,10 @@
       <c r="D4" s="207" t="s">
         <v>497</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="242" t="s">
         <v>498</v>
       </c>
-      <c r="F4" s="241"/>
+      <c r="F4" s="243"/>
       <c r="G4" s="216"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
@@ -5549,10 +5552,10 @@
       <c r="D5" s="213" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="243"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="215"/>
       <c r="H5" s="28" t="s">
         <v>0</v>
@@ -5569,10 +5572,10 @@
       <c r="D6" s="214" t="s">
         <v>504</v>
       </c>
-      <c r="E6" s="244" t="s">
+      <c r="E6" s="246" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="245"/>
+      <c r="F6" s="247"/>
       <c r="G6" s="215"/>
       <c r="H6" s="28" t="s">
         <v>0</v>
@@ -5589,10 +5592,10 @@
       <c r="D7" s="214" t="s">
         <v>507</v>
       </c>
-      <c r="E7" s="244" t="s">
+      <c r="E7" s="246" t="s">
         <v>514</v>
       </c>
-      <c r="F7" s="245"/>
+      <c r="F7" s="247"/>
       <c r="G7" s="215"/>
       <c r="H7" s="28" t="s">
         <v>0</v>
@@ -5603,16 +5606,16 @@
       <c r="B8" s="223" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="C8" s="237" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="235" t="s">
+      <c r="D8" s="237" t="s">
         <v>510</v>
       </c>
-      <c r="E8" s="246" t="s">
+      <c r="E8" s="248" t="s">
         <v>516</v>
       </c>
-      <c r="F8" s="247"/>
+      <c r="F8" s="249"/>
       <c r="G8" s="215"/>
       <c r="H8" s="28" t="s">
         <v>0</v>
@@ -5623,10 +5626,10 @@
       <c r="B9" s="224" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="249"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
       <c r="G9" s="215"/>
       <c r="H9" s="28" t="s">
         <v>0</v>
@@ -5637,10 +5640,10 @@
       <c r="B10" s="225" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="251"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
       <c r="G10" s="215"/>
       <c r="H10" s="28" t="s">
         <v>0</v>
@@ -5660,11 +5663,11 @@
     <row r="12" spans="1:8" s="28" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
-      <c r="C12" s="239" t="s">
+      <c r="C12" s="241" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
       <c r="F12" s="218"/>
       <c r="H12" s="28" t="s">
         <v>0</v>
@@ -5678,14 +5681,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="237" t="s">
+      <c r="A14" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="240"/>
       <c r="H14" s="28" t="s">
         <v>0</v>
       </c>
@@ -5738,16 +5741,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="262" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -5786,7 +5789,7 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -5819,13 +5822,13 @@
       <c r="R2" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="258" t="s">
+      <c r="S2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="258" t="s">
+      <c r="U2" s="260" t="s">
         <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -5855,7 +5858,7 @@
       <c r="AD2" s="155" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" s="258" t="s">
+      <c r="AE2" s="260" t="s">
         <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -5867,7 +5870,7 @@
       <c r="AH2" s="155" t="s">
         <v>479</v>
       </c>
-      <c r="AI2" s="258" t="s">
+      <c r="AI2" s="260" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5881,7 +5884,7 @@
       <c r="G3" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
         <v>477</v>
       </c>
@@ -5912,11 +5915,11 @@
       <c r="R3" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="S3" s="258"/>
+      <c r="S3" s="260"/>
       <c r="T3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="U3" s="258"/>
+      <c r="U3" s="260"/>
       <c r="V3" s="155" t="s">
         <v>468</v>
       </c>
@@ -5944,7 +5947,7 @@
       <c r="AD3" s="155" t="s">
         <v>460</v>
       </c>
-      <c r="AE3" s="258"/>
+      <c r="AE3" s="260"/>
       <c r="AF3" s="155" t="s">
         <v>459</v>
       </c>
@@ -5954,7 +5957,7 @@
       <c r="AH3" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="AI3" s="258"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -5976,7 +5979,7 @@
       <c r="G4" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
         <v>458</v>
       </c>
@@ -6007,11 +6010,11 @@
       <c r="R4" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="S4" s="258"/>
+      <c r="S4" s="260"/>
       <c r="T4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="U4" s="258"/>
+      <c r="U4" s="260"/>
       <c r="V4" s="155" t="s">
         <v>449</v>
       </c>
@@ -6039,7 +6042,7 @@
       <c r="AD4" s="155" t="s">
         <v>441</v>
       </c>
-      <c r="AE4" s="258"/>
+      <c r="AE4" s="260"/>
       <c r="AF4" s="155" t="s">
         <v>440</v>
       </c>
@@ -6049,7 +6052,7 @@
       <c r="AH4" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="AI4" s="258"/>
+      <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -7158,13 +7161,13 @@
       <c r="G2" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="258" t="s">
+      <c r="J2" s="260" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7178,11 +7181,11 @@
       <c r="G3" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="258"/>
+      <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -7204,11 +7207,11 @@
       <c r="G4" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="J4" s="258"/>
+      <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -7612,7 +7615,7 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -7657,7 +7660,7 @@
       <c r="V2" s="154" t="s">
         <v>434</v>
       </c>
-      <c r="W2" s="258" t="s">
+      <c r="W2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -7672,7 +7675,7 @@
       <c r="AA2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="258" t="s">
+      <c r="AB2" s="260" t="s">
         <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -7702,7 +7705,7 @@
       <c r="AK2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AL2" s="258" t="s">
+      <c r="AL2" s="260" t="s">
         <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -7744,7 +7747,7 @@
       <c r="AY2" s="152" t="s">
         <v>429</v>
       </c>
-      <c r="AZ2" s="258" t="s">
+      <c r="AZ2" s="260" t="s">
         <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -7774,7 +7777,7 @@
       <c r="BI2" s="151" t="s">
         <v>427</v>
       </c>
-      <c r="BJ2" s="258" t="s">
+      <c r="BJ2" s="260" t="s">
         <v>426</v>
       </c>
       <c r="BK2"/>
@@ -7789,7 +7792,7 @@
       <c r="G3" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
         <v>424</v>
       </c>
@@ -7830,7 +7833,7 @@
       <c r="V3" s="154" t="s">
         <v>412</v>
       </c>
-      <c r="W3" s="258"/>
+      <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>411</v>
@@ -7841,7 +7844,7 @@
       <c r="AA3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="AB3" s="258"/>
+      <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
         <v>408</v>
       </c>
@@ -7869,7 +7872,7 @@
       <c r="AK3" s="152" t="s">
         <v>402</v>
       </c>
-      <c r="AL3" s="258"/>
+      <c r="AL3" s="260"/>
       <c r="AM3" s="152" t="s">
         <v>401</v>
       </c>
@@ -7909,7 +7912,7 @@
       <c r="AY3" s="152" t="s">
         <v>389</v>
       </c>
-      <c r="AZ3" s="258"/>
+      <c r="AZ3" s="260"/>
       <c r="BA3" s="151" t="s">
         <v>388</v>
       </c>
@@ -7937,7 +7940,7 @@
       <c r="BI3" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="BJ3" s="258"/>
+      <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
@@ -7959,7 +7962,7 @@
       <c r="G4" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="154" t="s">
         <v>374</v>
       </c>
@@ -8002,7 +8005,7 @@
       <c r="V4" s="154" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="258"/>
+      <c r="W4" s="260"/>
       <c r="X4" s="153" t="s">
         <v>360</v>
       </c>
@@ -8015,7 +8018,7 @@
       <c r="AA4" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="AB4" s="258"/>
+      <c r="AB4" s="260"/>
       <c r="AC4" s="152" t="s">
         <v>356</v>
       </c>
@@ -8043,7 +8046,7 @@
       <c r="AK4" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="AL4" s="258"/>
+      <c r="AL4" s="260"/>
       <c r="AM4" s="152" t="s">
         <v>348</v>
       </c>
@@ -8083,7 +8086,7 @@
       <c r="AY4" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="AZ4" s="258"/>
+      <c r="AZ4" s="260"/>
       <c r="BA4" s="151" t="s">
         <v>335</v>
       </c>
@@ -8111,7 +8114,7 @@
       <c r="BI4" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="BJ4" s="258"/>
+      <c r="BJ4" s="260"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -10832,7 +10835,7 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
@@ -10865,13 +10868,13 @@
       <c r="R2" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="258" t="s">
+      <c r="S2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="258" t="s">
+      <c r="U2" s="260" t="s">
         <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
@@ -10901,7 +10904,7 @@
       <c r="AD2" s="155" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" s="258" t="s">
+      <c r="AE2" s="260" t="s">
         <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
@@ -10913,7 +10916,7 @@
       <c r="AH2" s="155" t="s">
         <v>479</v>
       </c>
-      <c r="AI2" s="258" t="s">
+      <c r="AI2" s="260" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10927,7 +10930,7 @@
       <c r="G3" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
         <v>477</v>
       </c>
@@ -10958,11 +10961,11 @@
       <c r="R3" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="S3" s="258"/>
+      <c r="S3" s="260"/>
       <c r="T3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="U3" s="258"/>
+      <c r="U3" s="260"/>
       <c r="V3" s="155" t="s">
         <v>468</v>
       </c>
@@ -10990,7 +10993,7 @@
       <c r="AD3" s="155" t="s">
         <v>460</v>
       </c>
-      <c r="AE3" s="258"/>
+      <c r="AE3" s="260"/>
       <c r="AF3" s="155" t="s">
         <v>459</v>
       </c>
@@ -11000,7 +11003,7 @@
       <c r="AH3" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="AI3" s="258"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
@@ -11022,7 +11025,7 @@
       <c r="G4" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
         <v>458</v>
       </c>
@@ -11053,11 +11056,11 @@
       <c r="R4" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="S4" s="258"/>
+      <c r="S4" s="260"/>
       <c r="T4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="U4" s="258"/>
+      <c r="U4" s="260"/>
       <c r="V4" s="155" t="s">
         <v>449</v>
       </c>
@@ -11085,7 +11088,7 @@
       <c r="AD4" s="155" t="s">
         <v>441</v>
       </c>
-      <c r="AE4" s="258"/>
+      <c r="AE4" s="260"/>
       <c r="AF4" s="155" t="s">
         <v>440</v>
       </c>
@@ -11095,7 +11098,7 @@
       <c r="AH4" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="AI4" s="258"/>
+      <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
@@ -12832,13 +12835,13 @@
       <c r="G2" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="258" t="s">
+      <c r="J2" s="260" t="s">
         <v>432</v>
       </c>
     </row>
@@ -12852,11 +12855,11 @@
       <c r="G3" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="258"/>
+      <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
@@ -12878,11 +12881,11 @@
       <c r="G4" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="J4" s="258"/>
+      <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
@@ -13597,14 +13600,14 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="EA1" s="252" t="s">
+      <c r="EA1" s="254" t="s">
         <v>490</v>
       </c>
-      <c r="EB1" s="252"/>
-      <c r="EC1" s="252"/>
-      <c r="ED1" s="252"/>
-      <c r="EE1" s="252"/>
-      <c r="EF1" s="252"/>
+      <c r="EB1" s="254"/>
+      <c r="EC1" s="254"/>
+      <c r="ED1" s="254"/>
+      <c r="EE1" s="254"/>
+      <c r="EF1" s="254"/>
       <c r="EG1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13734,20 +13737,20 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="253" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="255"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
       <c r="O4" s="30" t="s">
         <v>28</v>
       </c>
@@ -13992,10 +13995,10 @@
   <sheetPr codeName="Feuil14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="B53" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15237,19 +15240,19 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="261" t="s">
+      <c r="A62" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="262" t="s">
+      <c r="B62" s="234" t="s">
         <v>520</v>
       </c>
-      <c r="C62" s="262" t="s">
+      <c r="C62" s="234" t="s">
         <v>521</v>
       </c>
-      <c r="D62" s="262" t="s">
+      <c r="D62" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="262" t="s">
+      <c r="E62" s="234" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="48" t="s">
@@ -15298,49 +15301,69 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C66" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D66" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E66" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="43"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="42" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -15388,16 +15411,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="259" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
       <c r="AC1" s="106"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
@@ -15418,7 +15441,7 @@
       <c r="G2" s="102" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="256" t="s">
+      <c r="H2" s="258" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="101" t="s">
@@ -15463,7 +15486,7 @@
       <c r="V2" s="101" t="s">
         <v>434</v>
       </c>
-      <c r="W2" s="256" t="s">
+      <c r="W2" s="258" t="s">
         <v>433</v>
       </c>
       <c r="X2" s="102" t="s">
@@ -15478,7 +15501,7 @@
       <c r="AA2" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="256" t="s">
+      <c r="AB2" s="258" t="s">
         <v>432</v>
       </c>
       <c r="AC2" s="98" t="s">
@@ -15508,7 +15531,7 @@
       <c r="AK2" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="AL2" s="256" t="s">
+      <c r="AL2" s="258" t="s">
         <v>430</v>
       </c>
       <c r="AM2" s="98" t="s">
@@ -15550,7 +15573,7 @@
       <c r="AY2" s="98" t="s">
         <v>429</v>
       </c>
-      <c r="AZ2" s="256" t="s">
+      <c r="AZ2" s="258" t="s">
         <v>428</v>
       </c>
       <c r="BA2" s="97" t="s">
@@ -15580,7 +15603,7 @@
       <c r="BI2" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="BJ2" s="256" t="s">
+      <c r="BJ2" s="258" t="s">
         <v>426</v>
       </c>
     </row>
@@ -15594,7 +15617,7 @@
       <c r="G3" s="102" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="256"/>
+      <c r="H3" s="258"/>
       <c r="I3" s="101" t="s">
         <v>424</v>
       </c>
@@ -15635,7 +15658,7 @@
       <c r="V3" s="101" t="s">
         <v>412</v>
       </c>
-      <c r="W3" s="256"/>
+      <c r="W3" s="258"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
         <v>411</v>
@@ -15646,7 +15669,7 @@
       <c r="AA3" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="AB3" s="256"/>
+      <c r="AB3" s="258"/>
       <c r="AC3" s="98" t="s">
         <v>408</v>
       </c>
@@ -15674,7 +15697,7 @@
       <c r="AK3" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="AL3" s="256"/>
+      <c r="AL3" s="258"/>
       <c r="AM3" s="98" t="s">
         <v>401</v>
       </c>
@@ -15714,7 +15737,7 @@
       <c r="AY3" s="98" t="s">
         <v>389</v>
       </c>
-      <c r="AZ3" s="256"/>
+      <c r="AZ3" s="258"/>
       <c r="BA3" s="97" t="s">
         <v>388</v>
       </c>
@@ -15742,7 +15765,7 @@
       <c r="BI3" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="BJ3" s="256"/>
+      <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
@@ -15764,7 +15787,7 @@
       <c r="G4" s="102" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="256"/>
+      <c r="H4" s="258"/>
       <c r="I4" s="101" t="s">
         <v>374</v>
       </c>
@@ -15807,7 +15830,7 @@
       <c r="V4" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="256"/>
+      <c r="W4" s="258"/>
       <c r="X4" s="99" t="s">
         <v>360</v>
       </c>
@@ -15820,7 +15843,7 @@
       <c r="AA4" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="AB4" s="256"/>
+      <c r="AB4" s="258"/>
       <c r="AC4" s="98" t="s">
         <v>356</v>
       </c>
@@ -15848,7 +15871,7 @@
       <c r="AK4" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="AL4" s="256"/>
+      <c r="AL4" s="258"/>
       <c r="AM4" s="98" t="s">
         <v>348</v>
       </c>
@@ -15888,7 +15911,7 @@
       <c r="AY4" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="AZ4" s="256"/>
+      <c r="AZ4" s="258"/>
       <c r="BA4" s="97" t="s">
         <v>335</v>
       </c>
@@ -15916,7 +15939,7 @@
       <c r="BI4" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="BJ4" s="256"/>
+      <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
@@ -16894,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
         <v>231</v>
       </c>
@@ -17615,16 +17638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="261" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
     </row>
     <row r="2" spans="1:62" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="158"/>
@@ -17636,7 +17659,7 @@
       <c r="G2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="258" t="s">
+      <c r="H2" s="260" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
@@ -17681,7 +17704,7 @@
       <c r="V2" s="154" t="s">
         <v>434</v>
       </c>
-      <c r="W2" s="258" t="s">
+      <c r="W2" s="260" t="s">
         <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
@@ -17696,7 +17719,7 @@
       <c r="AA2" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="258" t="s">
+      <c r="AB2" s="260" t="s">
         <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
@@ -17726,7 +17749,7 @@
       <c r="AK2" s="152" t="s">
         <v>431</v>
       </c>
-      <c r="AL2" s="258" t="s">
+      <c r="AL2" s="260" t="s">
         <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
@@ -17768,7 +17791,7 @@
       <c r="AY2" s="152" t="s">
         <v>429</v>
       </c>
-      <c r="AZ2" s="258" t="s">
+      <c r="AZ2" s="260" t="s">
         <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
@@ -17798,7 +17821,7 @@
       <c r="BI2" s="151" t="s">
         <v>427</v>
       </c>
-      <c r="BJ2" s="258" t="s">
+      <c r="BJ2" s="260" t="s">
         <v>426</v>
       </c>
     </row>
@@ -17812,7 +17835,7 @@
       <c r="G3" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="258"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
         <v>424</v>
       </c>
@@ -17853,7 +17876,7 @@
       <c r="V3" s="154" t="s">
         <v>412</v>
       </c>
-      <c r="W3" s="258"/>
+      <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
         <v>411</v>
@@ -17864,7 +17887,7 @@
       <c r="AA3" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="AB3" s="258"/>
+      <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
         <v>408</v>
       </c>
@@ -17892,7 +17915,7 @@
       <c r="AK3" s="152" t="s">
         <v>402</v>
       </c>
-      <c r="AL3" s="258"/>
+      <c r="AL3" s="260"/>
       <c r="AM3" s="152" t="s">
         <v>401</v>
       </c>
@@ -17932,7 +17955,7 @@
       <c r="AY3" s="152" t="s">
         <v>389</v>
       </c>
-      <c r="AZ3" s="258"/>
+      <c r="AZ3" s="260"/>
       <c r="BA3" s="151" t="s">
         <v>388</v>
       </c>
@@ -17960,7 +17983,7 @@
       <c r="BI3" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="BJ3" s="258"/>
+      <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
@@ -17982,7 +18005,7 @@
       <c r="G4" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="258"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="154" t="s">
         <v>374</v>
       </c>
@@ -18025,7 +18048,7 @@
       <c r="V4" s="154" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="258"/>
+      <c r="W4" s="260"/>
       <c r="X4" s="153" t="s">
         <v>360</v>
       </c>
@@ -18038,7 +18061,7 @@
       <c r="AA4" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="AB4" s="258"/>
+      <c r="AB4" s="260"/>
       <c r="AC4" s="152" t="s">
         <v>356</v>
       </c>
@@ -18066,7 +18089,7 @@
       <c r="AK4" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="AL4" s="258"/>
+      <c r="AL4" s="260"/>
       <c r="AM4" s="152" t="s">
         <v>348</v>
       </c>
@@ -18106,7 +18129,7 @@
       <c r="AY4" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="AZ4" s="258"/>
+      <c r="AZ4" s="260"/>
       <c r="BA4" s="151" t="s">
         <v>335</v>
       </c>
@@ -18134,7 +18157,7 @@
       <c r="BI4" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="BJ4" s="258"/>
+      <c r="BJ4" s="260"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31930DC9-534D-2849-8A1A-BC0A9312649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCBBBAA-C534-9443-8076-9D370AC76906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="2940" yWindow="760" windowWidth="25300" windowHeight="13260" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCUEIL" sheetId="33" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="510">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -1262,147 +1262,6 @@
   </si>
   <si>
     <t>166-04-NC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE NS :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Temps ventilés sur la période (affaires pénales) - somme colonnes précédentes S et NS (sauf activités non spécialisées des juges spécialisées)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE S :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Temps ventilés sur la période (affaires pénales)  - somme colonnes ligne action pénale du SIEGE S 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TJ et TPR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.6 Tribunal de police + 7.7 OP contraventionnelles
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.122 Collégiales autres sections spécialisées
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.12 Collégiales JIRS crim-org
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.121 Collégiales JIRS eco-fi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.52 cour criminelle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.5 + 7.51 Cour d'assises JIRS et hors JIRS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1825,121 +1684,6 @@
   </si>
   <si>
     <t>166-02-NC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE NS :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Temps ventilés sur la période (contentieux civils et sociaux) - somme colonnes précédentes S et NS (sauf activités non spécialisées des juges spécialisées)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :
-Temps ventilés sur la période (contentieux civils et sociaux) - somme colonnes ligne action civile du SIEGE S </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. TOTAL CONTENTIEUX JAF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. TOTAL CONTENTIEUX SOCIAL - 1.1 Contentieux du travail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.43 Injonctions de payer + 3.44 Saisies des rémunérations
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.0 Contentieux général &lt; 10000 euros
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.1 Contentieux du travail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pour Magistrats SIEGE NS seulement)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2774,6 +2518,86 @@
   </si>
   <si>
     <t>CONT A JP Autour du magistrat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :
+4. TOTAL CIVIL NON SPÉCIALISÉ - 4.0 Contentieux général &lt; 10000 euros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE NS :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. TOTAL CIVIL NON SPÉCIALISÉ - 4.0 Contentieux général &lt; 10000 euros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE S :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7. TOTAL SIÈGE PÉNAL - 7.12. COLLÉGIALES JIRS CRIM-ORG - 7.121. COLLÉGIALES JIRS ECO-FI - 7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES - 7.5. COUR D'ASSISES HORS JIRS - 7.51. COUR D'ASSISES JIRS - 7.52. COUR CRIMINELLE - 7.6. TRIBUNAL DE POLICE - 7.7. OP CONTRAVENTIONNELLES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE NS :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7. TOTAL SIÈGE PÉNAL - 7.12. COLLÉGIALES JIRS CRIM-ORG - 7.121. COLLÉGIALES JIRS ECO-FI - 7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES - 7.5. COUR D'ASSISES HORS JIRS - 7.51. COUR D'ASSISES JIRS - 7.52. COUR CRIMINELLE - 7.6. TRIBUNAL DE POLICE - 7.7. OP CONTRAVENTIONNELLES</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3840,7 +3664,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4675,6 +4499,15 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5477,10 +5310,10 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C1" s="233" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D1" s="233"/>
       <c r="E1" s="233"/>
@@ -5493,7 +5326,7 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="234" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D2" s="234"/>
       <c r="E2" s="234"/>
@@ -5512,16 +5345,16 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C4" s="207" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D4" s="207" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E4" s="240" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F4" s="241"/>
       <c r="G4" s="216"/>
@@ -5532,16 +5365,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="213" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="213" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="242" t="s">
         <v>496</v>
-      </c>
-      <c r="C5" s="213" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="213" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="242" t="s">
-        <v>511</v>
       </c>
       <c r="F5" s="243"/>
       <c r="G5" s="215"/>
@@ -5552,16 +5385,16 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C6" s="214" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D6" s="214" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="F6" s="245"/>
       <c r="G6" s="215"/>
@@ -5572,16 +5405,16 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C7" s="214" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F7" s="245"/>
       <c r="G7" s="215"/>
@@ -5592,16 +5425,16 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D8" s="235" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E8" s="246" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F8" s="247"/>
       <c r="G8" s="215"/>
@@ -5612,7 +5445,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C9" s="235"/>
       <c r="D9" s="235"/>
@@ -5626,7 +5459,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C10" s="236"/>
       <c r="D10" s="236"/>
@@ -5652,7 +5485,7 @@
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
       <c r="C12" s="239" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D12" s="239"/>
       <c r="E12" s="239"/>
@@ -5730,7 +5563,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="260" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B1" s="260"/>
       <c r="C1" s="260"/>
@@ -5775,91 +5608,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>147</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5870,181 +5703,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6053,10 +5886,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6160,7 +5993,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6169,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6221,7 +6054,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6282,7 +6115,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6355,7 +6188,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6437,7 +6270,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6510,7 +6343,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6583,7 +6416,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6659,7 +6492,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6729,7 +6562,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6842,7 +6675,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -7090,7 +6923,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +6963,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7147,16 +6980,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>147</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7167,43 +7000,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7212,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7236,7 +7069,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7263,7 +7096,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7290,7 +7123,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7317,7 +7150,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7344,7 +7177,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7371,7 +7204,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7398,7 +7231,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7428,7 +7261,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7527,12 +7360,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7601,55 +7434,55 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="X2" s="155" t="s">
         <v>147</v>
@@ -7664,109 +7497,109 @@
         <v>147</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7778,78 +7611,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7858,249 +7691,249 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BJ4" s="258"/>
       <c r="BK4"/>
@@ -8113,10 +7946,10 @@
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8328,10 +8161,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -10697,7 +10530,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10747,12 +10580,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10821,91 +10654,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>147</v>
       </c>
       <c r="U2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AE2" s="258" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AI2" s="258" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10916,190 +10749,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="S3" s="258"/>
       <c r="T3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="U3" s="258"/>
       <c r="V3" s="155" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AE3" s="258"/>
       <c r="AF3" s="155" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="S4" s="258"/>
       <c r="T4" s="155" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="U4" s="258"/>
       <c r="V4" s="155" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="AE4" s="258"/>
       <c r="AF4" s="155" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AI4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11220,7 +11053,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11229,10 +11062,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11353,7 +11186,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11486,7 +11319,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11619,7 +11452,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11752,7 +11585,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11885,7 +11718,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -12018,7 +11851,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12151,7 +11984,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12284,7 +12117,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12417,7 +12250,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12679,7 +12512,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12701,7 +12534,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12747,12 +12580,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12821,16 +12654,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I2" s="155" t="s">
         <v>147</v>
       </c>
       <c r="J2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12841,52 +12674,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="155" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12907,7 +12740,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12940,7 +12773,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12973,7 +12806,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -13006,7 +12839,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13039,7 +12872,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13072,7 +12905,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13105,7 +12938,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13138,7 +12971,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13197,7 +13030,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13250,7 +13083,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13578,7 +13411,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13589,7 +13422,7 @@
         <v>6</v>
       </c>
       <c r="EA1" s="252" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="EB1" s="252"/>
       <c r="EC1" s="252"/>
@@ -13681,7 +13514,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13938,7 +13771,7 @@
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -15069,7 +14902,7 @@
         <v>139</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D54" s="48" t="s">
         <v>134</v>
@@ -15089,7 +14922,7 @@
         <v>136</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D55" s="54" t="s">
         <v>134</v>
@@ -15255,7 +15088,7 @@
         <v>140</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>134</v>
@@ -15276,7 +15109,7 @@
         <v>140</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>134</v>
@@ -15296,7 +15129,7 @@
         <v>140</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>134</v>
@@ -15364,11 +15197,11 @@
   </sheetPr>
   <dimension ref="A1:BJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15400,7 +15233,7 @@
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
       <c r="B1" s="257" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C1" s="257"/>
       <c r="D1" s="257"/>
@@ -15427,55 +15260,55 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H2" s="256" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="W2" s="256" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="X2" s="102" t="s">
         <v>147</v>
@@ -15490,109 +15323,109 @@
         <v>147</v>
       </c>
       <c r="AB2" s="256" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AL2" s="256" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AZ2" s="256" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BJ2" s="256" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15603,78 +15436,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H3" s="256"/>
       <c r="I3" s="101" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="W3" s="256"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AB3" s="256"/>
       <c r="AC3" s="98" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15683,253 +15516,253 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AL3" s="256"/>
       <c r="AM3" s="98" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AZ3" s="256"/>
       <c r="BA3" s="97" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="BJ3" s="256"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H4" s="256"/>
       <c r="I4" s="101" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="W4" s="256"/>
       <c r="X4" s="99" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AB4" s="256"/>
       <c r="AC4" s="98" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AL4" s="256"/>
       <c r="AM4" s="98" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AZ4" s="256"/>
       <c r="BA4" s="97" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BJ4" s="256"/>
     </row>
-    <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="64" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
         <v>228</v>
       </c>
@@ -15943,10 +15776,10 @@
         <v>131</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="74" t="s">
         <v>198</v>
@@ -15971,7 +15804,7 @@
         <v>222</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="S5" s="74" t="s">
         <v>203</v>
@@ -15983,7 +15816,7 @@
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -16006,10 +15839,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -16017,41 +15850,41 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="AT5" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU5" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV5" s="74" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW5" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="AX5" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="AY5" s="74" t="s">
-        <v>309</v>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="261"/>
+      <c r="AO5" s="261"/>
+      <c r="AP5" s="261"/>
+      <c r="AQ5" s="261"/>
+      <c r="AR5" s="261"/>
+      <c r="AS5" s="262" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT5" s="262" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU5" s="262" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV5" s="262" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW5" s="262" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX5" s="262" t="s">
+        <v>506</v>
+      </c>
+      <c r="AY5" s="262" t="s">
+        <v>507</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16071,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" s="64" customFormat="1" ht="339" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
         <v>228</v>
       </c>
@@ -16085,13 +15918,13 @@
         <v>131</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16099,49 +15932,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16150,58 +15983,58 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN6" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO6" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP6" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ6" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR6" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="AY6" s="74" t="s">
-        <v>282</v>
+      <c r="AM6" s="262" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN6" s="262" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO6" s="262" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP6" s="262" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ6" s="262" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR6" s="262" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS6" s="261"/>
+      <c r="AT6" s="261"/>
+      <c r="AU6" s="261"/>
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="262" t="s">
+        <v>508</v>
+      </c>
+      <c r="AY6" s="262" t="s">
+        <v>509</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16294,19 +16127,19 @@
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="74" t="s">
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="263"/>
+      <c r="AO7" s="263"/>
+      <c r="AP7" s="263"/>
+      <c r="AQ7" s="263"/>
+      <c r="AR7" s="263"/>
+      <c r="AS7" s="263"/>
+      <c r="AT7" s="263"/>
+      <c r="AU7" s="263"/>
+      <c r="AV7" s="263"/>
+      <c r="AW7" s="263"/>
+      <c r="AX7" s="263"/>
+      <c r="AY7" s="262" t="s">
         <v>274</v>
       </c>
       <c r="AZ7" s="65">
@@ -17598,12 +17431,12 @@
   </sheetPr>
   <dimension ref="A1:BJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17627,7 +17460,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="259" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="259"/>
@@ -17645,55 +17478,55 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="X2" s="155" t="s">
         <v>147</v>
@@ -17708,109 +17541,109 @@
         <v>147</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17821,78 +17654,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="154" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="152" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17901,249 +17734,249 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="152" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="151" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="154" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="153" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="152" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="152" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="151" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BJ4" s="258"/>
     </row>
@@ -18158,10 +17991,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18280,46 +18113,35 @@
       <c r="AQ5" s="143"/>
       <c r="AR5" s="143"/>
       <c r="AS5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AT5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AU5" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AV5" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AW5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AX5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3. TOTAL CONTENTIEUX DE LA PROTECTION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4. TOTAL CIVIL NON SPÉCIALISÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AY5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-(SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3. TOTAL CONTENTIEUX DE LA PROTECTION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS"))-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUM(AS5:AW5)</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4. TOTAL CIVIL NON SPÉCIALISÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AZ5" s="117" t="e">
@@ -18351,10 +18173,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18482,28 +18304,30 @@
       </c>
       <c r="AM6" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AN6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AO6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AP6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AQ6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AR6" s="126" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AS6" s="143"/>
@@ -18519,7 +18343,7 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AY6" s="142" t="e">
@@ -18530,8 +18354,7 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUM(AM6:AW6)</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AZ6" s="117" t="e">
@@ -20235,7 +20058,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCBBBAA-C534-9443-8076-9D370AC76906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF230F-D554-BF4B-801A-5BCCA5A7E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="760" windowWidth="25300" windowHeight="13260" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCUEIL" sheetId="33" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="523">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -410,7 +410,16 @@
     <t>VACATAIRES</t>
   </si>
   <si>
+    <t>CONT A JP</t>
+  </si>
+  <si>
     <t>CONT A JP Greffe</t>
+  </si>
+  <si>
+    <t>CONT B JP</t>
+  </si>
+  <si>
+    <t>CONT C JP</t>
   </si>
   <si>
     <t>AS</t>
@@ -1262,6 +1271,147 @@
   </si>
   <si>
     <t>166-04-NC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE NS :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Temps ventilés sur la période (affaires pénales) - somme colonnes précédentes S et NS (sauf activités non spécialisées des juges spécialisées)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE S :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Temps ventilés sur la période (affaires pénales)  - somme colonnes ligne action pénale du SIEGE S 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TJ et TPR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.6 Tribunal de police + 7.7 OP contraventionnelles
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.122 Collégiales autres sections spécialisées
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.12 Collégiales JIRS crim-org
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.121 Collégiales JIRS eco-fi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.52 cour criminelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.5 + 7.51 Cour d'assises JIRS et hors JIRS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1684,6 +1834,121 @@
   </si>
   <si>
     <t>166-02-NC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE NS :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Temps ventilés sur la période (contentieux civils et sociaux) - somme colonnes précédentes S et NS (sauf activités non spécialisées des juges spécialisées)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pour Magistrats SIEGE S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :
+Temps ventilés sur la période (contentieux civils et sociaux) - somme colonnes ligne action civile du SIEGE S </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. TOTAL CONTENTIEUX JAF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. TOTAL CONTENTIEUX SOCIAL - 1.1 Contentieux du travail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.43 Injonctions de payer + 3.44 Saisies des rémunérations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.0 Contentieux général &lt; 10000 euros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.1 Contentieux du travail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pour Magistrats SIEGE NS seulement)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2508,96 +2773,13 @@
     <t>JA JP</t>
   </si>
   <si>
+    <t>JURISTE ASSISTANT Vif</t>
+  </si>
+  <si>
     <t>JA VIF</t>
   </si>
   <si>
-    <t>CONT B JP Greffe</t>
-  </si>
-  <si>
-    <t>CONT C JP Greffe</t>
-  </si>
-  <si>
     <t>CONT A JP Autour du magistrat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :
-4. TOTAL CIVIL NON SPÉCIALISÉ - 4.0 Contentieux général &lt; 10000 euros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE NS :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4. TOTAL CIVIL NON SPÉCIALISÉ - 4.0 Contentieux général &lt; 10000 euros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE S :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-7. TOTAL SIÈGE PÉNAL - 7.12. COLLÉGIALES JIRS CRIM-ORG - 7.121. COLLÉGIALES JIRS ECO-FI - 7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES - 7.5. COUR D'ASSISES HORS JIRS - 7.51. COUR D'ASSISES JIRS - 7.52. COUR CRIMINELLE - 7.6. TRIBUNAL DE POLICE - 7.7. OP CONTRAVENTIONNELLES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pour Magistrats SIEGE NS :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-7. TOTAL SIÈGE PÉNAL - 7.12. COLLÉGIALES JIRS CRIM-ORG - 7.121. COLLÉGIALES JIRS ECO-FI - 7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES - 7.5. COUR D'ASSISES HORS JIRS - 7.51. COUR D'ASSISES JIRS - 7.52. COUR CRIMINELLE - 7.6. TRIBUNAL DE POLICE - 7.7. OP CONTRAVENTIONNELLES</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -3664,7 +3846,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4413,6 +4595,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4499,15 +4687,6 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5310,13 +5489,13 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
-        <v>474</v>
-      </c>
-      <c r="C1" s="233" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
+        <v>492</v>
+      </c>
+      <c r="C1" s="235" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
       <c r="F1" s="198"/>
       <c r="H1" s="28" t="s">
         <v>0</v>
@@ -5325,11 +5504,11 @@
     <row r="2" spans="1:8" s="202" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
-      <c r="C2" s="234" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
+      <c r="C2" s="236" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="201"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
@@ -5345,18 +5524,18 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C4" s="207" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D4" s="207" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" s="241"/>
+        <v>497</v>
+      </c>
+      <c r="E4" s="242" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="243"/>
       <c r="G4" s="216"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
@@ -5365,18 +5544,18 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C5" s="213" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D5" s="213" t="s">
-        <v>483</v>
-      </c>
-      <c r="E5" s="242" t="s">
-        <v>496</v>
-      </c>
-      <c r="F5" s="243"/>
+        <v>501</v>
+      </c>
+      <c r="E5" s="244" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="245"/>
       <c r="G5" s="215"/>
       <c r="H5" s="28" t="s">
         <v>0</v>
@@ -5385,18 +5564,18 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C6" s="214" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="D6" s="214" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="244" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6" s="245"/>
+        <v>504</v>
+      </c>
+      <c r="E6" s="246" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="247"/>
       <c r="G6" s="215"/>
       <c r="H6" s="28" t="s">
         <v>0</v>
@@ -5405,18 +5584,18 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="C7" s="214" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" s="244" t="s">
-        <v>496</v>
-      </c>
-      <c r="F7" s="245"/>
+        <v>507</v>
+      </c>
+      <c r="E7" s="246" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="247"/>
       <c r="G7" s="215"/>
       <c r="H7" s="28" t="s">
         <v>0</v>
@@ -5425,18 +5604,18 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="235" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" s="235" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" s="246" t="s">
-        <v>498</v>
-      </c>
-      <c r="F8" s="247"/>
+        <v>508</v>
+      </c>
+      <c r="C8" s="237" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="237" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="248" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="249"/>
       <c r="G8" s="215"/>
       <c r="H8" s="28" t="s">
         <v>0</v>
@@ -5445,12 +5624,12 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>493</v>
-      </c>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="249"/>
+        <v>511</v>
+      </c>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
       <c r="G9" s="215"/>
       <c r="H9" s="28" t="s">
         <v>0</v>
@@ -5459,12 +5638,12 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>494</v>
-      </c>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="251"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
       <c r="G10" s="215"/>
       <c r="H10" s="28" t="s">
         <v>0</v>
@@ -5484,11 +5663,11 @@
     <row r="12" spans="1:8" s="28" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
-      <c r="C12" s="239" t="s">
-        <v>495</v>
-      </c>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="C12" s="241" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
       <c r="F12" s="218"/>
       <c r="H12" s="28" t="s">
         <v>0</v>
@@ -5502,14 +5681,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="237" t="s">
+      <c r="A14" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="240"/>
       <c r="H14" s="28" t="s">
         <v>0</v>
       </c>
@@ -5562,16 +5741,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="260" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
+      <c r="A1" s="262" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -5608,91 +5787,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="S2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="S2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="U2" s="260" t="s">
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE2" s="258" t="s">
-        <v>462</v>
+        <v>431</v>
+      </c>
+      <c r="AE2" s="260" t="s">
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI2" s="258" t="s">
-        <v>460</v>
+        <v>479</v>
+      </c>
+      <c r="AI2" s="260" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5703,181 +5882,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>425</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="155" t="s">
+        <v>476</v>
+      </c>
+      <c r="K3" s="155" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="155" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" s="155" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="155" t="s">
+        <v>472</v>
+      </c>
+      <c r="O3" s="191" t="s">
+        <v>471</v>
+      </c>
+      <c r="P3" s="191" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q3" s="155" t="s">
+        <v>469</v>
+      </c>
+      <c r="R3" s="155" t="s">
+        <v>412</v>
+      </c>
+      <c r="S3" s="260"/>
+      <c r="T3" s="155" t="s">
+        <v>409</v>
+      </c>
+      <c r="U3" s="260"/>
+      <c r="V3" s="155" t="s">
+        <v>468</v>
+      </c>
+      <c r="W3" s="155" t="s">
+        <v>467</v>
+      </c>
+      <c r="X3" s="155" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y3" s="155" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z3" s="155" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA3" s="155" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB3" s="191" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC3" s="191" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD3" s="155" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="J3" s="155" t="s">
-        <v>458</v>
-      </c>
-      <c r="K3" s="155" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3" s="155" t="s">
-        <v>456</v>
-      </c>
-      <c r="M3" s="155" t="s">
-        <v>455</v>
-      </c>
-      <c r="N3" s="155" t="s">
-        <v>454</v>
-      </c>
-      <c r="O3" s="191" t="s">
-        <v>453</v>
-      </c>
-      <c r="P3" s="191" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q3" s="155" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="155" t="s">
-        <v>394</v>
-      </c>
-      <c r="S3" s="258"/>
-      <c r="T3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="U3" s="258"/>
-      <c r="V3" s="155" t="s">
-        <v>450</v>
-      </c>
-      <c r="W3" s="155" t="s">
-        <v>449</v>
-      </c>
-      <c r="X3" s="155" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y3" s="155" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z3" s="155" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA3" s="155" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB3" s="191" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC3" s="191" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD3" s="155" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE3" s="258"/>
-      <c r="AF3" s="155" t="s">
-        <v>441</v>
-      </c>
       <c r="AG3" s="155" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI3" s="258"/>
+        <v>389</v>
+      </c>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="260"/>
+      <c r="I4" s="155" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="155" t="s">
+        <v>457</v>
+      </c>
+      <c r="K4" s="155" t="s">
+        <v>456</v>
+      </c>
+      <c r="L4" s="155" t="s">
+        <v>455</v>
+      </c>
+      <c r="M4" s="155" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="155" t="s">
+        <v>453</v>
+      </c>
+      <c r="O4" s="191" t="s">
+        <v>452</v>
+      </c>
+      <c r="P4" s="191" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q4" s="155" t="s">
+        <v>450</v>
+      </c>
+      <c r="R4" s="155" t="s">
+        <v>361</v>
+      </c>
+      <c r="S4" s="260"/>
+      <c r="T4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="155" t="s">
+      <c r="U4" s="260"/>
+      <c r="V4" s="155" t="s">
+        <v>449</v>
+      </c>
+      <c r="W4" s="155" t="s">
+        <v>448</v>
+      </c>
+      <c r="X4" s="155" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y4" s="155" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z4" s="155" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA4" s="155" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB4" s="191" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC4" s="191" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD4" s="155" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="155" t="s">
         <v>440</v>
       </c>
-      <c r="J4" s="155" t="s">
-        <v>439</v>
-      </c>
-      <c r="K4" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="L4" s="155" t="s">
-        <v>437</v>
-      </c>
-      <c r="M4" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="N4" s="155" t="s">
-        <v>435</v>
-      </c>
-      <c r="O4" s="191" t="s">
-        <v>434</v>
-      </c>
-      <c r="P4" s="191" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q4" s="155" t="s">
-        <v>432</v>
-      </c>
-      <c r="R4" s="155" t="s">
-        <v>343</v>
-      </c>
-      <c r="S4" s="258"/>
-      <c r="T4" s="155" t="s">
-        <v>339</v>
-      </c>
-      <c r="U4" s="258"/>
-      <c r="V4" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="W4" s="155" t="s">
-        <v>430</v>
-      </c>
-      <c r="X4" s="155" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y4" s="155" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z4" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA4" s="155" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB4" s="191" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC4" s="191" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD4" s="155" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" s="258"/>
-      <c r="AF4" s="155" t="s">
-        <v>422</v>
-      </c>
       <c r="AG4" s="155" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI4" s="258"/>
+        <v>336</v>
+      </c>
+      <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -5886,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -5993,7 +6172,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6002,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6054,7 +6233,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6063,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6115,7 +6294,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6124,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6188,7 +6367,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6197,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6270,7 +6449,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6279,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6343,7 +6522,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6352,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6416,7 +6595,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6425,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6492,7 +6671,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6501,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6562,7 +6741,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6571,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6675,7 +6854,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6684,10 +6863,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6793,7 +6972,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -6923,7 +7102,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -6963,7 +7142,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -6980,16 +7159,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="J2" s="260" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7000,43 +7179,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>412</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="258"/>
+        <v>409</v>
+      </c>
+      <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" s="258"/>
+        <v>361</v>
+      </c>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" s="258"/>
+        <v>357</v>
+      </c>
+      <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7045,10 +7224,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7069,7 +7248,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7078,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7096,7 +7275,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7105,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7123,7 +7302,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7132,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7150,7 +7329,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7159,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7177,7 +7356,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7186,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7204,7 +7383,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7213,10 +7392,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7231,7 +7410,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7240,10 +7419,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7261,7 +7440,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7270,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7296,7 +7475,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7360,12 +7539,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7434,172 +7613,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>416</v>
-      </c>
-      <c r="W2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="W2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="AB2" s="260" t="s">
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>413</v>
-      </c>
-      <c r="AL2" s="258" t="s">
-        <v>412</v>
+        <v>431</v>
+      </c>
+      <c r="AL2" s="260" t="s">
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="AZ2" s="258" t="s">
-        <v>410</v>
+        <v>429</v>
+      </c>
+      <c r="AZ2" s="260" t="s">
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="BJ2" s="258" t="s">
-        <v>408</v>
+        <v>427</v>
+      </c>
+      <c r="BJ2" s="260" t="s">
+        <v>426</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7611,78 +7790,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>425</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="W3" s="258"/>
+        <v>412</v>
+      </c>
+      <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB3" s="258"/>
+        <v>409</v>
+      </c>
+      <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7691,265 +7870,265 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL3" s="260"/>
+      <c r="AM3" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN3" s="152" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO3" s="152" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP3" s="152" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ3" s="152" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR3" s="152" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS3" s="152" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT3" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU3" s="152" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV3" s="152" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW3" s="152" t="s">
+        <v>391</v>
+      </c>
+      <c r="AX3" s="152" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY3" s="152" t="s">
+        <v>389</v>
+      </c>
+      <c r="AZ3" s="260"/>
+      <c r="BA3" s="151" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB3" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC3" s="151" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD3" s="151" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE3" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AL3" s="258"/>
-      <c r="AM3" s="152" t="s">
+      <c r="BF3" s="151" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="152" t="s">
+      <c r="BG3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="AO3" s="152" t="s">
+      <c r="BH3" s="151" t="s">
         <v>381</v>
       </c>
-      <c r="AP3" s="152" t="s">
+      <c r="BI3" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="AQ3" s="152" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR3" s="152" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS3" s="152" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT3" s="152" t="s">
-        <v>376</v>
-      </c>
-      <c r="AU3" s="152" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV3" s="152" t="s">
-        <v>374</v>
-      </c>
-      <c r="AW3" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX3" s="152" t="s">
-        <v>372</v>
-      </c>
-      <c r="AY3" s="152" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ3" s="258"/>
-      <c r="BA3" s="151" t="s">
-        <v>370</v>
-      </c>
-      <c r="BB3" s="151" t="s">
-        <v>369</v>
-      </c>
-      <c r="BC3" s="151" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD3" s="151" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE3" s="151" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF3" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="BG3" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH3" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="BI3" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="BJ3" s="258"/>
+      <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="260"/>
+      <c r="I4" s="154" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="154" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="154" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="154" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="154" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="154" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="154" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="154" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="154" t="s">
+        <v>365</v>
+      </c>
+      <c r="S4" s="154" t="s">
+        <v>364</v>
+      </c>
+      <c r="T4" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="U4" s="154" t="s">
+        <v>362</v>
+      </c>
+      <c r="V4" s="154" t="s">
+        <v>361</v>
+      </c>
+      <c r="W4" s="260"/>
+      <c r="X4" s="153" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="156" t="s">
+      <c r="Z4" s="153" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="AA4" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="154" t="s">
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="152" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="AD4" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="AE4" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="L4" s="154" t="s">
+      <c r="AF4" s="152" t="s">
         <v>353</v>
       </c>
-      <c r="M4" s="154" t="s">
+      <c r="AG4" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="N4" s="154" t="s">
+      <c r="AH4" s="152" t="s">
         <v>351</v>
-      </c>
-      <c r="O4" s="154" t="s">
-        <v>350</v>
-      </c>
-      <c r="P4" s="154" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" s="154" t="s">
-        <v>348</v>
-      </c>
-      <c r="R4" s="154" t="s">
-        <v>347</v>
-      </c>
-      <c r="S4" s="154" t="s">
-        <v>346</v>
-      </c>
-      <c r="T4" s="154" t="s">
-        <v>345</v>
-      </c>
-      <c r="U4" s="154" t="s">
-        <v>344</v>
-      </c>
-      <c r="V4" s="154" t="s">
-        <v>343</v>
-      </c>
-      <c r="W4" s="258"/>
-      <c r="X4" s="153" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y4" s="153" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA4" s="153" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB4" s="258"/>
-      <c r="AC4" s="152" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD4" s="152" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE4" s="152" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF4" s="152" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG4" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH4" s="152" t="s">
-        <v>333</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK4" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN4" s="152" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO4" s="152" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP4" s="152" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ4" s="152" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR4" s="152" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS4" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT4" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU4" s="152" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV4" s="152" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW4" s="152" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX4" s="152" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY4" s="152" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ4" s="260"/>
+      <c r="BA4" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB4" s="151" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC4" s="151" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD4" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="AK4" s="152" t="s">
+      <c r="BE4" s="151" t="s">
         <v>331</v>
       </c>
-      <c r="AL4" s="258"/>
-      <c r="AM4" s="152" t="s">
+      <c r="BF4" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="AN4" s="152" t="s">
+      <c r="BG4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="AO4" s="152" t="s">
+      <c r="BH4" s="151" t="s">
         <v>328</v>
       </c>
-      <c r="AP4" s="152" t="s">
+      <c r="BI4" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="AQ4" s="152" t="s">
-        <v>326</v>
-      </c>
-      <c r="AR4" s="152" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS4" s="152" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT4" s="152" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU4" s="152" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV4" s="152" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW4" s="152" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX4" s="152" t="s">
-        <v>319</v>
-      </c>
-      <c r="AY4" s="152" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ4" s="258"/>
-      <c r="BA4" s="151" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB4" s="151" t="s">
-        <v>316</v>
-      </c>
-      <c r="BC4" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD4" s="151" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE4" s="151" t="s">
-        <v>313</v>
-      </c>
-      <c r="BF4" s="151" t="s">
-        <v>312</v>
-      </c>
-      <c r="BG4" s="151" t="s">
-        <v>311</v>
-      </c>
-      <c r="BH4" s="151" t="s">
-        <v>310</v>
-      </c>
-      <c r="BI4" s="151" t="s">
-        <v>309</v>
-      </c>
-      <c r="BJ4" s="258"/>
+      <c r="BJ4" s="260"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8152,7 +8331,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8161,10 +8340,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8366,7 +8545,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8375,10 +8554,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8580,7 +8759,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8589,10 +8768,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8794,7 +8973,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8803,10 +8982,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9008,7 +9187,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9017,10 +9196,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9222,7 +9401,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9231,10 +9410,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9436,7 +9615,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9445,10 +9624,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9650,7 +9829,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9659,10 +9838,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -9864,7 +10043,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -9873,10 +10052,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10078,7 +10257,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10087,10 +10266,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10297,7 +10476,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10530,7 +10709,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10580,12 +10759,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10654,91 +10833,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="S2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="S2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="U2" s="260" t="s">
+        <v>432</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE2" s="258" t="s">
-        <v>462</v>
+        <v>431</v>
+      </c>
+      <c r="AE2" s="260" t="s">
+        <v>480</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI2" s="258" t="s">
-        <v>460</v>
+        <v>479</v>
+      </c>
+      <c r="AI2" s="260" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10749,190 +10928,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>425</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="155" t="s">
+        <v>476</v>
+      </c>
+      <c r="K3" s="155" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="155" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" s="155" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="155" t="s">
+        <v>472</v>
+      </c>
+      <c r="O3" s="155" t="s">
+        <v>471</v>
+      </c>
+      <c r="P3" s="155" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q3" s="155" t="s">
+        <v>469</v>
+      </c>
+      <c r="R3" s="155" t="s">
+        <v>412</v>
+      </c>
+      <c r="S3" s="260"/>
+      <c r="T3" s="155" t="s">
+        <v>409</v>
+      </c>
+      <c r="U3" s="260"/>
+      <c r="V3" s="155" t="s">
+        <v>468</v>
+      </c>
+      <c r="W3" s="155" t="s">
+        <v>467</v>
+      </c>
+      <c r="X3" s="155" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y3" s="155" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z3" s="155" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA3" s="155" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB3" s="155" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC3" s="155" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD3" s="155" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE3" s="260"/>
+      <c r="AF3" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="J3" s="155" t="s">
-        <v>458</v>
-      </c>
-      <c r="K3" s="155" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3" s="155" t="s">
-        <v>456</v>
-      </c>
-      <c r="M3" s="155" t="s">
-        <v>455</v>
-      </c>
-      <c r="N3" s="155" t="s">
-        <v>454</v>
-      </c>
-      <c r="O3" s="155" t="s">
-        <v>453</v>
-      </c>
-      <c r="P3" s="155" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q3" s="155" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="155" t="s">
-        <v>394</v>
-      </c>
-      <c r="S3" s="258"/>
-      <c r="T3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="U3" s="258"/>
-      <c r="V3" s="155" t="s">
-        <v>450</v>
-      </c>
-      <c r="W3" s="155" t="s">
-        <v>449</v>
-      </c>
-      <c r="X3" s="155" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y3" s="155" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z3" s="155" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA3" s="155" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB3" s="155" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC3" s="155" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD3" s="155" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE3" s="258"/>
-      <c r="AF3" s="155" t="s">
-        <v>441</v>
-      </c>
       <c r="AG3" s="155" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI3" s="258"/>
+        <v>389</v>
+      </c>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="260"/>
+      <c r="I4" s="155" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="155" t="s">
+        <v>457</v>
+      </c>
+      <c r="K4" s="155" t="s">
+        <v>456</v>
+      </c>
+      <c r="L4" s="155" t="s">
+        <v>455</v>
+      </c>
+      <c r="M4" s="155" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="155" t="s">
+        <v>453</v>
+      </c>
+      <c r="O4" s="155" t="s">
+        <v>452</v>
+      </c>
+      <c r="P4" s="155" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q4" s="155" t="s">
+        <v>450</v>
+      </c>
+      <c r="R4" s="155" t="s">
+        <v>361</v>
+      </c>
+      <c r="S4" s="260"/>
+      <c r="T4" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="155" t="s">
+      <c r="U4" s="260"/>
+      <c r="V4" s="155" t="s">
+        <v>449</v>
+      </c>
+      <c r="W4" s="155" t="s">
+        <v>448</v>
+      </c>
+      <c r="X4" s="155" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y4" s="155" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z4" s="155" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA4" s="155" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB4" s="155" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC4" s="155" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD4" s="155" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="155" t="s">
         <v>440</v>
       </c>
-      <c r="J4" s="155" t="s">
-        <v>439</v>
-      </c>
-      <c r="K4" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="L4" s="155" t="s">
-        <v>437</v>
-      </c>
-      <c r="M4" s="155" t="s">
-        <v>436</v>
-      </c>
-      <c r="N4" s="155" t="s">
-        <v>435</v>
-      </c>
-      <c r="O4" s="155" t="s">
-        <v>434</v>
-      </c>
-      <c r="P4" s="155" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q4" s="155" t="s">
-        <v>432</v>
-      </c>
-      <c r="R4" s="155" t="s">
-        <v>343</v>
-      </c>
-      <c r="S4" s="258"/>
-      <c r="T4" s="155" t="s">
-        <v>339</v>
-      </c>
-      <c r="U4" s="258"/>
-      <c r="V4" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="W4" s="155" t="s">
-        <v>430</v>
-      </c>
-      <c r="X4" s="155" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y4" s="155" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z4" s="155" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA4" s="155" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB4" s="155" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC4" s="155" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD4" s="155" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" s="258"/>
-      <c r="AF4" s="155" t="s">
-        <v>422</v>
-      </c>
       <c r="AG4" s="155" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI4" s="258"/>
+        <v>336</v>
+      </c>
+      <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11053,7 +11232,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11062,10 +11241,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11186,7 +11365,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11195,10 +11374,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11319,7 +11498,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11328,10 +11507,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11452,7 +11631,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11461,10 +11640,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11585,7 +11764,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11594,10 +11773,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11718,7 +11897,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11727,10 +11906,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -11851,7 +12030,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -11860,10 +12039,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -11984,7 +12163,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -11993,10 +12172,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12117,7 +12296,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12126,10 +12305,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12250,7 +12429,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12259,10 +12438,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12388,7 +12567,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12512,7 +12691,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12534,7 +12713,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12580,12 +12759,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12654,16 +12833,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="J2" s="260" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12674,52 +12853,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>412</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="258"/>
+        <v>409</v>
+      </c>
+      <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" s="258"/>
+        <v>361</v>
+      </c>
+      <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" s="258"/>
+        <v>357</v>
+      </c>
+      <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12740,7 +12919,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12749,10 +12928,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12773,7 +12952,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12782,10 +12961,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12806,7 +12985,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12815,10 +12994,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -12839,7 +13018,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -12848,10 +13027,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -12872,7 +13051,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -12881,10 +13060,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -12905,7 +13084,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -12914,10 +13093,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -12938,7 +13117,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -12947,10 +13126,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -12971,7 +13150,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -12980,10 +13159,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13009,7 +13188,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13030,7 +13209,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13083,7 +13262,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13411,7 +13590,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13421,14 +13600,14 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="EA1" s="252" t="s">
-        <v>472</v>
-      </c>
-      <c r="EB1" s="252"/>
-      <c r="EC1" s="252"/>
-      <c r="ED1" s="252"/>
-      <c r="EE1" s="252"/>
-      <c r="EF1" s="252"/>
+      <c r="EA1" s="254" t="s">
+        <v>490</v>
+      </c>
+      <c r="EB1" s="254"/>
+      <c r="EC1" s="254"/>
+      <c r="ED1" s="254"/>
+      <c r="EE1" s="254"/>
+      <c r="EF1" s="254"/>
       <c r="EG1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13514,7 +13693,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13558,20 +13737,20 @@
     </row>
     <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="253" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="255"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
       <c r="O4" s="30" t="s">
         <v>28</v>
       </c>
@@ -13763,15 +13942,15 @@
       </c>
       <c r="B1"/>
       <c r="D1" s="40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E1"/>
       <c r="G1" s="40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -13818,8 +13997,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="B53" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13836,19 +14015,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F1" s="59" t="s">
         <v>34</v>
@@ -13856,16 +14035,16 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>46</v>
@@ -13876,16 +14055,16 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>46</v>
@@ -13896,16 +14075,16 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>46</v>
@@ -13916,16 +14095,16 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>46</v>
@@ -13936,16 +14115,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>46</v>
@@ -13956,16 +14135,16 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>46</v>
@@ -13976,16 +14155,16 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>46</v>
@@ -13996,16 +14175,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>46</v>
@@ -14016,16 +14195,16 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>46</v>
@@ -14036,16 +14215,16 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>46</v>
@@ -14056,16 +14235,16 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>46</v>
@@ -14076,16 +14255,16 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>46</v>
@@ -14096,16 +14275,16 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>46</v>
@@ -14116,16 +14295,16 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>46</v>
@@ -14136,16 +14315,16 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>46</v>
@@ -14156,16 +14335,16 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>46</v>
@@ -14176,16 +14355,16 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>46</v>
@@ -14196,16 +14375,16 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>46</v>
@@ -14216,16 +14395,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>46</v>
@@ -14236,16 +14415,16 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>46</v>
@@ -14256,16 +14435,16 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>69</v>
@@ -14276,16 +14455,16 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>69</v>
@@ -14296,16 +14475,16 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>73</v>
@@ -14316,16 +14495,16 @@
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>73</v>
@@ -14336,16 +14515,16 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>77</v>
@@ -14356,16 +14535,16 @@
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>77</v>
@@ -14376,16 +14555,16 @@
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>77</v>
@@ -14396,16 +14575,16 @@
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>77</v>
@@ -14416,7 +14595,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>83</v>
@@ -14425,7 +14604,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>84</v>
@@ -14436,16 +14615,16 @@
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>84</v>
@@ -14456,16 +14635,16 @@
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>84</v>
@@ -14476,7 +14655,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
@@ -14485,7 +14664,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>84</v>
@@ -14496,7 +14675,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>89</v>
@@ -14505,7 +14684,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>84</v>
@@ -14516,7 +14695,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>90</v>
@@ -14525,7 +14704,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>84</v>
@@ -14536,7 +14715,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>92</v>
@@ -14545,7 +14724,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>93</v>
@@ -14556,16 +14735,16 @@
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>93</v>
@@ -14576,7 +14755,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>96</v>
@@ -14585,7 +14764,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>93</v>
@@ -14596,7 +14775,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>97</v>
@@ -14605,7 +14784,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>93</v>
@@ -14616,7 +14795,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>98</v>
@@ -14625,7 +14804,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>93</v>
@@ -14636,7 +14815,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>100</v>
@@ -14645,7 +14824,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>101</v>
@@ -14656,16 +14835,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>101</v>
@@ -14676,7 +14855,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>104</v>
@@ -14685,7 +14864,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>101</v>
@@ -14696,7 +14875,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>105</v>
@@ -14705,7 +14884,7 @@
         <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>101</v>
@@ -14716,7 +14895,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>106</v>
@@ -14725,7 +14904,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>101</v>
@@ -14736,16 +14915,16 @@
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>109</v>
@@ -14756,16 +14935,16 @@
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>109</v>
@@ -14776,16 +14955,16 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>109</v>
@@ -14796,16 +14975,16 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>109</v>
@@ -14816,16 +14995,16 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>109</v>
@@ -14836,16 +15015,16 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>109</v>
@@ -14856,16 +15035,16 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>109</v>
@@ -14876,36 +15055,36 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>503</v>
+        <v>120</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>109</v>
@@ -14916,16 +15095,16 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>504</v>
+        <v>121</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>109</v>
@@ -14936,251 +15115,251 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>137</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>134</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>137</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="E57" s="41" t="s">
         <v>109</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>134</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="233" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="234" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" s="234" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>141</v>
-      </c>
+      <c r="F62" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="42"/>
+      <c r="G63" s="42" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D65" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="E65" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>134</v>
       </c>
       <c r="E66" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F66" s="46"/>
       <c r="G66" s="42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="E67" s="44" t="s">
         <v>109</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -15197,11 +15376,11 @@
   </sheetPr>
   <dimension ref="A1:BJ18"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AI4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX5" sqref="AX5"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15232,16 +15411,16 @@
   <sheetData>
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
-      <c r="B1" s="257" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
+      <c r="B1" s="259" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
       <c r="AC1" s="106"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
@@ -15260,172 +15439,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="256" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="258" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>416</v>
-      </c>
-      <c r="W2" s="256" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="W2" s="258" t="s">
+        <v>433</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" s="256" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="AB2" s="258" t="s">
+        <v>432</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>413</v>
-      </c>
-      <c r="AL2" s="256" t="s">
-        <v>412</v>
+        <v>431</v>
+      </c>
+      <c r="AL2" s="258" t="s">
+        <v>430</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>411</v>
-      </c>
-      <c r="AZ2" s="256" t="s">
-        <v>410</v>
+        <v>429</v>
+      </c>
+      <c r="AZ2" s="258" t="s">
+        <v>428</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>409</v>
-      </c>
-      <c r="BJ2" s="256" t="s">
-        <v>408</v>
+        <v>427</v>
+      </c>
+      <c r="BJ2" s="258" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15436,78 +15615,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="256"/>
+        <v>425</v>
+      </c>
+      <c r="H3" s="258"/>
       <c r="I3" s="101" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>394</v>
-      </c>
-      <c r="W3" s="256"/>
+        <v>412</v>
+      </c>
+      <c r="W3" s="258"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB3" s="256"/>
+        <v>409</v>
+      </c>
+      <c r="AB3" s="258"/>
       <c r="AC3" s="98" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15516,273 +15695,273 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL3" s="258"/>
+      <c r="AM3" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN3" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO3" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP3" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ3" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR3" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS3" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT3" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU3" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV3" s="98" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW3" s="98" t="s">
+        <v>391</v>
+      </c>
+      <c r="AX3" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY3" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="AZ3" s="258"/>
+      <c r="BA3" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB3" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC3" s="97" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD3" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE3" s="97" t="s">
         <v>384</v>
       </c>
-      <c r="AL3" s="256"/>
-      <c r="AM3" s="98" t="s">
+      <c r="BF3" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="98" t="s">
+      <c r="BG3" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="AO3" s="98" t="s">
+      <c r="BH3" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="AP3" s="98" t="s">
+      <c r="BI3" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="AQ3" s="98" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR3" s="98" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS3" s="98" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT3" s="98" t="s">
-        <v>376</v>
-      </c>
-      <c r="AU3" s="98" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV3" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="AW3" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX3" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="AY3" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ3" s="256"/>
-      <c r="BA3" s="97" t="s">
-        <v>370</v>
-      </c>
-      <c r="BB3" s="97" t="s">
-        <v>369</v>
-      </c>
-      <c r="BC3" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD3" s="97" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE3" s="97" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF3" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="BG3" s="97" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH3" s="97" t="s">
-        <v>363</v>
-      </c>
-      <c r="BI3" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="BJ3" s="256"/>
+      <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="258"/>
+      <c r="I4" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="101" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="S4" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="T4" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="U4" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="W4" s="258"/>
+      <c r="X4" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y4" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="Z4" s="99" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="AA4" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="256"/>
-      <c r="I4" s="101" t="s">
+      <c r="AB4" s="258"/>
+      <c r="AC4" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="AD4" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="AE4" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="AF4" s="98" t="s">
         <v>353</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="AG4" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="AH4" s="98" t="s">
         <v>351</v>
-      </c>
-      <c r="O4" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="P4" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" s="101" t="s">
-        <v>348</v>
-      </c>
-      <c r="R4" s="100" t="s">
-        <v>347</v>
-      </c>
-      <c r="S4" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="T4" s="101" t="s">
-        <v>345</v>
-      </c>
-      <c r="U4" s="101" t="s">
-        <v>344</v>
-      </c>
-      <c r="V4" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="W4" s="256"/>
-      <c r="X4" s="99" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y4" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA4" s="99" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB4" s="256"/>
-      <c r="AC4" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD4" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE4" s="98" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF4" s="98" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG4" s="98" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH4" s="98" t="s">
-        <v>333</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK4" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL4" s="258"/>
+      <c r="AM4" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN4" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO4" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP4" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ4" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR4" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS4" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT4" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU4" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV4" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW4" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX4" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY4" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ4" s="258"/>
+      <c r="BA4" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB4" s="97" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC4" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD4" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="AK4" s="98" t="s">
+      <c r="BE4" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="AL4" s="256"/>
-      <c r="AM4" s="98" t="s">
+      <c r="BF4" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="AN4" s="98" t="s">
+      <c r="BG4" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="BH4" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="BI4" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="AQ4" s="98" t="s">
+      <c r="BJ4" s="258"/>
+    </row>
+    <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A5" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="F5" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="AS4" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT4" s="98" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU4" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV4" s="98" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW4" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX4" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="AY4" s="98" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ4" s="256"/>
-      <c r="BA4" s="97" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB4" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="BC4" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD4" s="97" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE4" s="97" t="s">
-        <v>313</v>
-      </c>
-      <c r="BF4" s="97" t="s">
-        <v>312</v>
-      </c>
-      <c r="BG4" s="97" t="s">
-        <v>311</v>
-      </c>
-      <c r="BH4" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="BI4" s="97" t="s">
-        <v>309</v>
-      </c>
-      <c r="BJ4" s="256"/>
-    </row>
-    <row r="5" spans="1:62" s="64" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A5" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>307</v>
-      </c>
       <c r="G5" s="74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
@@ -15798,25 +15977,25 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="S5" s="74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T5" s="74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -15839,10 +16018,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -15850,41 +16029,41 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="261"/>
-      <c r="AN5" s="261"/>
-      <c r="AO5" s="261"/>
-      <c r="AP5" s="261"/>
-      <c r="AQ5" s="261"/>
-      <c r="AR5" s="261"/>
-      <c r="AS5" s="262" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT5" s="262" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU5" s="262" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV5" s="262" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW5" s="262" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX5" s="262" t="s">
-        <v>506</v>
-      </c>
-      <c r="AY5" s="262" t="s">
-        <v>507</v>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="AT5" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU5" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV5" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW5" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX5" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY5" s="74" t="s">
+        <v>312</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -15904,27 +16083,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="64" customFormat="1" ht="339" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -15932,49 +16111,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -15983,58 +16162,58 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="262" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN6" s="262" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO6" s="262" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP6" s="262" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ6" s="262" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR6" s="262" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS6" s="261"/>
-      <c r="AT6" s="261"/>
-      <c r="AU6" s="261"/>
-      <c r="AV6" s="261"/>
-      <c r="AW6" s="261"/>
-      <c r="AX6" s="262" t="s">
-        <v>508</v>
-      </c>
-      <c r="AY6" s="262" t="s">
-        <v>509</v>
+      <c r="AM6" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN6" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO6" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP6" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ6" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR6" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY6" s="74" t="s">
+        <v>285</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16056,22 +16235,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16106,41 +16285,41 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="263"/>
-      <c r="AN7" s="263"/>
-      <c r="AO7" s="263"/>
-      <c r="AP7" s="263"/>
-      <c r="AQ7" s="263"/>
-      <c r="AR7" s="263"/>
-      <c r="AS7" s="263"/>
-      <c r="AT7" s="263"/>
-      <c r="AU7" s="263"/>
-      <c r="AV7" s="263"/>
-      <c r="AW7" s="263"/>
-      <c r="AX7" s="263"/>
-      <c r="AY7" s="262" t="s">
-        <v>274</v>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="74" t="s">
+        <v>277</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16162,25 +16341,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16200,23 +16379,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16268,25 +16447,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="74" t="s">
         <v>270</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>267</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16306,23 +16485,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16330,22 +16509,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16364,7 +16543,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16386,25 +16565,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16424,23 +16603,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16448,22 +16627,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16482,7 +16661,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16504,25 +16683,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16542,23 +16721,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16566,22 +16745,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16600,7 +16779,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16622,25 +16801,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16660,23 +16839,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16684,22 +16863,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16718,7 +16897,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16738,27 +16917,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16778,23 +16957,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -16846,25 +17025,25 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
@@ -16874,43 +17053,43 @@
         <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N14" s="74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O14" s="74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T14" s="74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U14" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V14" s="74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -16925,72 +17104,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD14" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE14" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF14" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="AD14" s="74" t="s">
+      <c r="AG14" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="AE14" s="74" t="s">
+      <c r="AH14" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="AF14" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG14" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH14" s="74" t="s">
-        <v>214</v>
       </c>
       <c r="AI14" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN14" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO14" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP14" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="AN14" s="74" t="s">
+      <c r="AQ14" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="AO14" s="74" t="s">
+      <c r="AR14" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="AP14" s="74" t="s">
+      <c r="AS14" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="AQ14" s="74" t="s">
+      <c r="AT14" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="AR14" s="74" t="s">
+      <c r="AU14" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="AS14" s="74" t="s">
+      <c r="AV14" s="74" t="s">
         <v>205</v>
-      </c>
-      <c r="AT14" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU14" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV14" s="74" t="s">
-        <v>202</v>
       </c>
       <c r="AW14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17012,25 +17191,25 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="F15" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>224</v>
-      </c>
       <c r="G15" s="74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
@@ -17040,43 +17219,43 @@
         <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P15" s="74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S15" s="74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T15" s="74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17091,72 +17270,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD15" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE15" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF15" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="AD15" s="74" t="s">
+      <c r="AG15" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="AE15" s="74" t="s">
+      <c r="AH15" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="AF15" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG15" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH15" s="74" t="s">
-        <v>214</v>
       </c>
       <c r="AI15" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN15" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO15" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP15" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="AN15" s="74" t="s">
+      <c r="AQ15" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="AO15" s="74" t="s">
+      <c r="AR15" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="AP15" s="74" t="s">
+      <c r="AS15" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="AQ15" s="74" t="s">
+      <c r="AT15" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="AR15" s="74" t="s">
+      <c r="AU15" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="AS15" s="74" t="s">
+      <c r="AV15" s="74" t="s">
         <v>205</v>
-      </c>
-      <c r="AT15" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU15" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV15" s="74" t="s">
-        <v>202</v>
       </c>
       <c r="AW15" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17183,7 +17362,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17431,12 +17610,12 @@
   </sheetPr>
   <dimension ref="A1:BJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AU14" sqref="AU14"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17459,16 +17638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="259" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
+      <c r="B1" s="261" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
     </row>
     <row r="2" spans="1:62" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="158"/>
@@ -17478,172 +17657,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="258" t="s">
-        <v>417</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="260" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>416</v>
-      </c>
-      <c r="W2" s="258" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="W2" s="260" t="s">
+        <v>433</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" s="258" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+      <c r="AB2" s="260" t="s">
+        <v>432</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>413</v>
-      </c>
-      <c r="AL2" s="258" t="s">
-        <v>412</v>
+        <v>431</v>
+      </c>
+      <c r="AL2" s="260" t="s">
+        <v>430</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="AZ2" s="258" t="s">
-        <v>410</v>
+        <v>429</v>
+      </c>
+      <c r="AZ2" s="260" t="s">
+        <v>428</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="BJ2" s="258" t="s">
-        <v>408</v>
+        <v>427</v>
+      </c>
+      <c r="BJ2" s="260" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17654,78 +17833,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="258"/>
+        <v>425</v>
+      </c>
+      <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="W3" s="258"/>
+        <v>412</v>
+      </c>
+      <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB3" s="258"/>
+        <v>409</v>
+      </c>
+      <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17734,255 +17913,255 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL3" s="260"/>
+      <c r="AM3" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN3" s="152" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO3" s="152" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP3" s="152" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ3" s="152" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR3" s="152" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS3" s="152" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT3" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU3" s="152" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV3" s="152" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW3" s="152" t="s">
+        <v>391</v>
+      </c>
+      <c r="AX3" s="152" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY3" s="152" t="s">
+        <v>389</v>
+      </c>
+      <c r="AZ3" s="260"/>
+      <c r="BA3" s="151" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB3" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC3" s="151" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD3" s="151" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE3" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AL3" s="258"/>
-      <c r="AM3" s="152" t="s">
+      <c r="BF3" s="151" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="152" t="s">
+      <c r="BG3" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="AO3" s="152" t="s">
+      <c r="BH3" s="151" t="s">
         <v>381</v>
       </c>
-      <c r="AP3" s="152" t="s">
+      <c r="BI3" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="AQ3" s="152" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR3" s="152" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS3" s="152" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT3" s="152" t="s">
-        <v>376</v>
-      </c>
-      <c r="AU3" s="152" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV3" s="152" t="s">
-        <v>374</v>
-      </c>
-      <c r="AW3" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX3" s="152" t="s">
-        <v>372</v>
-      </c>
-      <c r="AY3" s="152" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ3" s="258"/>
-      <c r="BA3" s="151" t="s">
-        <v>370</v>
-      </c>
-      <c r="BB3" s="151" t="s">
-        <v>369</v>
-      </c>
-      <c r="BC3" s="151" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD3" s="151" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE3" s="151" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF3" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="BG3" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH3" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="BI3" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="BJ3" s="258"/>
+      <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="260"/>
+      <c r="I4" s="154" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="154" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="154" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="154" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="154" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="154" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="154" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="154" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="154" t="s">
+        <v>365</v>
+      </c>
+      <c r="S4" s="154" t="s">
+        <v>364</v>
+      </c>
+      <c r="T4" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="U4" s="154" t="s">
+        <v>362</v>
+      </c>
+      <c r="V4" s="154" t="s">
+        <v>361</v>
+      </c>
+      <c r="W4" s="260"/>
+      <c r="X4" s="153" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y4" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="156" t="s">
+      <c r="Z4" s="153" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="AA4" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="154" t="s">
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="152" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="AD4" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="AE4" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="L4" s="154" t="s">
+      <c r="AF4" s="152" t="s">
         <v>353</v>
       </c>
-      <c r="M4" s="154" t="s">
+      <c r="AG4" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="N4" s="154" t="s">
+      <c r="AH4" s="152" t="s">
         <v>351</v>
-      </c>
-      <c r="O4" s="154" t="s">
-        <v>350</v>
-      </c>
-      <c r="P4" s="154" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" s="154" t="s">
-        <v>348</v>
-      </c>
-      <c r="R4" s="154" t="s">
-        <v>347</v>
-      </c>
-      <c r="S4" s="154" t="s">
-        <v>346</v>
-      </c>
-      <c r="T4" s="154" t="s">
-        <v>345</v>
-      </c>
-      <c r="U4" s="154" t="s">
-        <v>344</v>
-      </c>
-      <c r="V4" s="154" t="s">
-        <v>343</v>
-      </c>
-      <c r="W4" s="258"/>
-      <c r="X4" s="153" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y4" s="153" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA4" s="153" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB4" s="258"/>
-      <c r="AC4" s="152" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD4" s="152" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE4" s="152" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF4" s="152" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG4" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH4" s="152" t="s">
-        <v>333</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK4" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN4" s="152" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO4" s="152" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP4" s="152" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ4" s="152" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR4" s="152" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS4" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT4" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU4" s="152" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV4" s="152" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW4" s="152" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX4" s="152" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY4" s="152" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ4" s="260"/>
+      <c r="BA4" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB4" s="151" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC4" s="151" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD4" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="AK4" s="152" t="s">
+      <c r="BE4" s="151" t="s">
         <v>331</v>
       </c>
-      <c r="AL4" s="258"/>
-      <c r="AM4" s="152" t="s">
+      <c r="BF4" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="AN4" s="152" t="s">
+      <c r="BG4" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="AO4" s="152" t="s">
+      <c r="BH4" s="151" t="s">
         <v>328</v>
       </c>
-      <c r="AP4" s="152" t="s">
+      <c r="BI4" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="AQ4" s="152" t="s">
-        <v>326</v>
-      </c>
-      <c r="AR4" s="152" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS4" s="152" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT4" s="152" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU4" s="152" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV4" s="152" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW4" s="152" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX4" s="152" t="s">
-        <v>319</v>
-      </c>
-      <c r="AY4" s="152" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ4" s="258"/>
-      <c r="BA4" s="151" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB4" s="151" t="s">
-        <v>316</v>
-      </c>
-      <c r="BC4" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD4" s="151" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE4" s="151" t="s">
-        <v>313</v>
-      </c>
-      <c r="BF4" s="151" t="s">
-        <v>312</v>
-      </c>
-      <c r="BG4" s="151" t="s">
-        <v>311</v>
-      </c>
-      <c r="BH4" s="151" t="s">
-        <v>310</v>
-      </c>
-      <c r="BI4" s="151" t="s">
-        <v>309</v>
-      </c>
-      <c r="BJ4" s="258"/>
+      <c r="BJ4" s="260"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -17991,10 +18170,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18113,35 +18292,46 @@
       <c r="AQ5" s="143"/>
       <c r="AR5" s="143"/>
       <c r="AS5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AT5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AU5" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AV5" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AW5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AX5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4. TOTAL CIVIL NON SPÉCIALISÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3. TOTAL CONTENTIEUX DE LA PROTECTION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AY5" s="126" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4. TOTAL CIVIL NON SPÉCIALISÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("4.0. CONTENTIEUX GÉNÉRAL &lt;10.000€",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+(SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3. TOTAL CONTENTIEUX DE LA PROTECTION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.43. INJONCTIONS DE PAYER",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS"))-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUM(AS5:AW5)</f>
         <v>#N/A</v>
       </c>
       <c r="AZ5" s="117" t="e">
@@ -18164,7 +18354,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18173,10 +18363,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18304,30 +18494,28 @@
       </c>
       <c r="AM6" s="124" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AN6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AO6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AP6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AQ6" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AR6" s="126" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AS6" s="143"/>
@@ -18343,7 +18531,7 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AY6" s="142" t="e">
@@ -18354,7 +18542,8 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")-
+SUM(AM6:AW6)</f>
         <v>#N/A</v>
       </c>
       <c r="AZ6" s="117" t="e">
@@ -18377,7 +18566,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18386,10 +18575,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18495,7 +18684,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18504,10 +18693,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18604,7 +18793,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18613,10 +18802,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18783,7 +18972,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18792,10 +18981,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18919,7 +19108,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -18928,10 +19117,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19055,7 +19244,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19064,10 +19253,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19197,7 +19386,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19206,10 +19395,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19306,7 +19495,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19315,10 +19504,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19528,7 +19717,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19537,10 +19726,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19755,7 +19944,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20058,7 +20247,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF230F-D554-BF4B-801A-5BCCA5A7E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BC58B-24CA-154E-AFA4-B474FE535B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13240" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="13240" activeTab="6" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCUEIL" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Agrégats DDG" sheetId="10" r:id="rId4"/>
     <sheet name="codage tribunal" sheetId="12" state="hidden" r:id="rId5"/>
     <sheet name="Juridictions" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="Table_Fonctions" sheetId="19" state="hidden" r:id="rId7"/>
+    <sheet name="Table_Fonctions" sheetId="19" r:id="rId7"/>
     <sheet name="ETPT_TJ_corresp-AJUST2" sheetId="24" state="hidden" r:id="rId8"/>
     <sheet name="ETPT_TJ" sheetId="25" state="hidden" r:id="rId9"/>
     <sheet name="ETPT_TPRX" sheetId="26" state="hidden" r:id="rId10"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="522">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>ELEVE AVOCAT</t>
-  </si>
-  <si>
-    <t>Manque affectation (siège Autres/parquet/pôle social) ?</t>
   </si>
   <si>
     <t>JURISTE ASSISTANT Parquet</t>
@@ -5470,7 +5467,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
@@ -5489,10 +5486,10 @@
     <row r="1" spans="1:8" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="196"/>
       <c r="B1" s="197" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="235" t="s">
         <v>492</v>
-      </c>
-      <c r="C1" s="235" t="s">
-        <v>493</v>
       </c>
       <c r="D1" s="235"/>
       <c r="E1" s="235"/>
@@ -5505,7 +5502,7 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="236" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D2" s="236"/>
       <c r="E2" s="236"/>
@@ -5524,16 +5521,16 @@
     <row r="4" spans="1:8" s="208" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205"/>
       <c r="B4" s="206" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="207" t="s">
         <v>495</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="D4" s="207" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="E4" s="242" t="s">
         <v>497</v>
-      </c>
-      <c r="E4" s="242" t="s">
-        <v>498</v>
       </c>
       <c r="F4" s="243"/>
       <c r="G4" s="216"/>
@@ -5544,16 +5541,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="203"/>
       <c r="B5" s="220" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="213" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="D5" s="213" t="s">
         <v>500</v>
       </c>
-      <c r="D5" s="213" t="s">
-        <v>501</v>
-      </c>
       <c r="E5" s="244" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F5" s="245"/>
       <c r="G5" s="215"/>
@@ -5564,16 +5561,16 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="203"/>
       <c r="B6" s="221" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="214" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="D6" s="214" t="s">
         <v>503</v>
       </c>
-      <c r="D6" s="214" t="s">
-        <v>504</v>
-      </c>
       <c r="E6" s="246" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F6" s="247"/>
       <c r="G6" s="215"/>
@@ -5584,16 +5581,16 @@
     <row r="7" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="203"/>
       <c r="B7" s="222" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="214" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="D7" s="214" t="s">
         <v>506</v>
       </c>
-      <c r="D7" s="214" t="s">
-        <v>507</v>
-      </c>
       <c r="E7" s="246" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F7" s="247"/>
       <c r="G7" s="215"/>
@@ -5604,16 +5601,16 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="203"/>
       <c r="B8" s="223" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="237" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="D8" s="237" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="237" t="s">
-        <v>510</v>
-      </c>
       <c r="E8" s="248" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F8" s="249"/>
       <c r="G8" s="215"/>
@@ -5624,7 +5621,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="203"/>
       <c r="B9" s="224" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C9" s="237"/>
       <c r="D9" s="237"/>
@@ -5638,7 +5635,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203"/>
       <c r="B10" s="225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" s="238"/>
       <c r="D10" s="238"/>
@@ -5664,7 +5661,7 @@
       <c r="A12" s="203"/>
       <c r="B12" s="217"/>
       <c r="C12" s="241" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D12" s="241"/>
       <c r="E12" s="241"/>
@@ -5742,7 +5739,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="262" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B1" s="262"/>
       <c r="C1" s="262"/>
@@ -5787,91 +5784,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P2" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB2" s="191" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AC2" s="191" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE2" s="260" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI2" s="260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" x14ac:dyDescent="0.2">
@@ -5882,181 +5879,181 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O3" s="191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P3" s="191" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S3" s="260"/>
       <c r="T3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U3" s="260"/>
       <c r="V3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AB3" s="191" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AC3" s="191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AE3" s="260"/>
       <c r="AF3" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O4" s="191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P4" s="191" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S4" s="260"/>
       <c r="T4" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U4" s="260"/>
       <c r="V4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB4" s="191" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AC4" s="191" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE4" s="260"/>
       <c r="AF4" s="155" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6065,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6172,7 +6169,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="183"/>
@@ -6181,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="184">
@@ -6233,7 +6230,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -6242,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="162">
@@ -6294,7 +6291,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -6303,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -6376,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -6449,7 +6446,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -6458,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6522,7 +6519,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6531,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -6604,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -6671,7 +6668,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -6680,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -6741,7 +6738,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -6750,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -6854,7 +6851,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -6863,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -6972,7 +6969,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="117" t="e">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -7102,7 +7099,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -7142,7 +7139,7 @@
       <c r="A1" s="112"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7159,16 +7156,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -7179,43 +7176,43 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
@@ -7224,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
@@ -7248,7 +7245,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -7257,10 +7254,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="164">
@@ -7275,7 +7272,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -7284,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="164">
@@ -7302,7 +7299,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -7311,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="164">
@@ -7329,7 +7326,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -7338,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="164">
@@ -7356,7 +7353,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -7365,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="164">
@@ -7383,7 +7380,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -7392,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="164">
@@ -7410,7 +7407,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -7419,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -7449,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" s="169" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -7475,7 +7472,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="164" t="e">
         <f>SUM(G5:G13)</f>
@@ -7539,12 +7536,12 @@
   <sheetData>
     <row r="1" spans="1:63" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -7613,172 +7610,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL2" s="260" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ2" s="260" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BJ2" s="260" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BK2"/>
     </row>
@@ -7790,78 +7787,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -7870,265 +7867,265 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL3" s="260"/>
       <c r="AM3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ3" s="260"/>
       <c r="BA3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:63" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W4" s="260"/>
       <c r="X4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB4" s="260"/>
       <c r="AC4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL4" s="260"/>
       <c r="AM4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AZ4" s="260"/>
       <c r="BA4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BJ4" s="260"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
       <c r="D5" s="211"/>
       <c r="E5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G5),"",IF(ETPT_TJ!G5=0,"",ETPT_TJ!G5)))</f>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="6" spans="1:63" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -8340,10 +8337,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G6),"",IF(ETPT_TJ!G6=0,"",ETPT_TJ!G6)))</f>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="7" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -8554,10 +8551,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G7),"",IF(ETPT_TJ!G7=0,"",ETPT_TJ!G7)))</f>
@@ -8759,7 +8756,7 @@
     </row>
     <row r="8" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -8768,10 +8765,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G8),"",IF(ETPT_TJ!G8=0,"",ETPT_TJ!G8)))</f>
@@ -8973,7 +8970,7 @@
     </row>
     <row r="9" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -8982,10 +8979,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G9),"",IF(ETPT_TJ!G9=0,"",ETPT_TJ!G9)))</f>
@@ -9187,7 +9184,7 @@
     </row>
     <row r="10" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -9196,10 +9193,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G10),"",IF(ETPT_TJ!G10=0,"",ETPT_TJ!G10)))</f>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="11" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9410,10 +9407,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G11),"",IF(ETPT_TJ!G11=0,"",ETPT_TJ!G11)))</f>
@@ -9615,7 +9612,7 @@
     </row>
     <row r="12" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -9624,10 +9621,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G12),"",IF(ETPT_TJ!G12=0,"",ETPT_TJ!G12)))</f>
@@ -9829,7 +9826,7 @@
     </row>
     <row r="13" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -9838,10 +9835,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G13),"",IF(ETPT_TJ!G13=0,"",ETPT_TJ!G13)))</f>
@@ -10043,7 +10040,7 @@
     </row>
     <row r="14" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -10052,10 +10049,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G14),"",IF(ETPT_TJ!G14=0,"",ETPT_TJ!G14)))</f>
@@ -10257,7 +10254,7 @@
     </row>
     <row r="15" spans="1:63" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -10266,10 +10263,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="127" t="str">
         <f>IF(ISBLANK(ETPT_TJ_DDG!$D$5),"",IF(ISERROR(ETPT_TJ!G15),"",IF(ETPT_TJ!G15=0,"",ETPT_TJ!G15)))</f>
@@ -10476,7 +10473,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="118">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -10709,7 +10706,7 @@
     </row>
     <row r="18" spans="4:52" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="229" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E18" s="231"/>
       <c r="F18" s="231"/>
@@ -10759,12 +10756,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -10833,91 +10830,91 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AC2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AD2" s="155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE2" s="260" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI2" s="260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -10928,190 +10925,190 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K3" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q3" s="155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S3" s="260"/>
       <c r="T3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U3" s="260"/>
       <c r="V3" s="155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W3" s="155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X3" s="155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y3" s="155" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AB3" s="155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AC3" s="155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD3" s="155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AE3" s="260"/>
       <c r="AF3" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AH3" s="155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="158"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P4" s="155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S4" s="260"/>
       <c r="T4" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U4" s="260"/>
       <c r="V4" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W4" s="155" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X4" s="155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y4" s="155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z4" s="155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AA4" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AC4" s="155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD4" s="155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE4" s="260"/>
       <c r="AF4" s="155" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG4" s="155" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH4" s="155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
       <c r="D5" s="192"/>
       <c r="E5" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G5),"",IF(ETPT_TPRX!G5=0,"",ETPT_TPRX!G5)))</f>
@@ -11232,7 +11229,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -11241,10 +11238,10 @@
         <v/>
       </c>
       <c r="E6" s="133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G6),"",IF(ETPT_TPRX!G6=0,"",ETPT_TPRX!G6)))</f>
@@ -11365,7 +11362,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11374,10 +11371,10 @@
         <v/>
       </c>
       <c r="E7" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G7),"",IF(ETPT_TPRX!G7=0,"",ETPT_TPRX!G7)))</f>
@@ -11498,7 +11495,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
@@ -11507,10 +11504,10 @@
         <v/>
       </c>
       <c r="E8" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G8),"",IF(ETPT_TPRX!G8=0,"",ETPT_TPRX!G8)))</f>
@@ -11631,7 +11628,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133"/>
@@ -11640,10 +11637,10 @@
         <v/>
       </c>
       <c r="E9" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G9),"",IF(ETPT_TPRX!G9=0,"",ETPT_TPRX!G9)))</f>
@@ -11764,7 +11761,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
@@ -11773,10 +11770,10 @@
         <v/>
       </c>
       <c r="E10" s="133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G10),"",IF(ETPT_TPRX!G10=0,"",ETPT_TPRX!G10)))</f>
@@ -11897,7 +11894,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -11906,10 +11903,10 @@
         <v/>
       </c>
       <c r="E11" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G11),"",IF(ETPT_TPRX!G11=0,"",ETPT_TPRX!G11)))</f>
@@ -12030,7 +12027,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -12039,10 +12036,10 @@
         <v/>
       </c>
       <c r="E12" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G12),"",IF(ETPT_TPRX!G12=0,"",ETPT_TPRX!G12)))</f>
@@ -12163,7 +12160,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133"/>
@@ -12172,10 +12169,10 @@
         <v/>
       </c>
       <c r="E13" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G13),"",IF(ETPT_TPRX!G13=0,"",ETPT_TPRX!G13)))</f>
@@ -12296,7 +12293,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -12305,10 +12302,10 @@
         <v/>
       </c>
       <c r="E14" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G14),"",IF(ETPT_TPRX!G14=0,"",ETPT_TPRX!G14)))</f>
@@ -12429,7 +12426,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -12438,10 +12435,10 @@
         <v/>
       </c>
       <c r="E15" s="133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="140" t="str">
         <f>IF(ISBLANK(ETPT_TPRX_DDG!$D$5),"",IF(ISERROR(ETPT_TPRX!G15),"",IF(ETPT_TPRX!G15=0,"",ETPT_TPRX!G15)))</f>
@@ -12567,7 +12564,7 @@
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" ref="G16:AI16" si="6">SUM(G5:G15)</f>
@@ -12691,7 +12688,7 @@
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="226" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18"/>
@@ -12713,7 +12710,7 @@
     </row>
     <row r="20" spans="4:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="229" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231"/>
@@ -12759,12 +12756,12 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -12833,16 +12830,16 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="36" x14ac:dyDescent="0.2">
@@ -12853,52 +12850,52 @@
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
       <c r="G3" s="155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J3" s="260"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="177"/>
       <c r="B4" s="176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="170"/>
       <c r="D5" s="193"/>
       <c r="E5" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G5),"",IF(ETPT_CPH!G5=0,"",ETPT_CPH!G5)))</f>
@@ -12919,7 +12916,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -12928,10 +12925,10 @@
         <v/>
       </c>
       <c r="E6" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G6),"",IF(ETPT_CPH!G6=0,"",ETPT_CPH!G6)))</f>
@@ -12952,7 +12949,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
@@ -12961,10 +12958,10 @@
         <v/>
       </c>
       <c r="E7" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F7" s="170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G7),"",IF(ETPT_CPH!G7=0,"",ETPT_CPH!G7)))</f>
@@ -12985,7 +12982,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="170"/>
@@ -12994,10 +12991,10 @@
         <v/>
       </c>
       <c r="E8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G8),"",IF(ETPT_CPH!G8=0,"",ETPT_CPH!G8)))</f>
@@ -13018,7 +13015,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="170"/>
@@ -13027,10 +13024,10 @@
         <v/>
       </c>
       <c r="E9" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G9),"",IF(ETPT_CPH!G9=0,"",ETPT_CPH!G9)))</f>
@@ -13051,7 +13048,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="170"/>
@@ -13060,10 +13057,10 @@
         <v/>
       </c>
       <c r="E10" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G10),"",IF(ETPT_CPH!G10=0,"",ETPT_CPH!G10)))</f>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="170"/>
@@ -13093,10 +13090,10 @@
         <v/>
       </c>
       <c r="E11" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G11),"",IF(ETPT_CPH!G11=0,"",ETPT_CPH!G11)))</f>
@@ -13117,7 +13114,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="170"/>
@@ -13126,10 +13123,10 @@
         <v/>
       </c>
       <c r="E12" s="170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G12),"",IF(ETPT_CPH!G12=0,"",ETPT_CPH!G12)))</f>
@@ -13150,7 +13147,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
@@ -13159,10 +13156,10 @@
         <v/>
       </c>
       <c r="E13" s="170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" s="127" t="str">
         <f>IF(ISBLANK(ETPT_CPH_DDG!$D$5),"",IF(ISERROR(ETPT_CPH!G13),"",IF(ETPT_CPH!G13=0,"",ETPT_CPH!G13)))</f>
@@ -13188,7 +13185,7 @@
       <c r="D14" s="167"/>
       <c r="E14" s="166"/>
       <c r="F14" s="165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="164">
         <f>SUM(G5:G13)</f>
@@ -13209,7 +13206,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D16" s="226" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E16" s="227"/>
       <c r="F16" s="23"/>
@@ -13262,7 +13259,7 @@
   <sheetData>
     <row r="1" spans="1:118" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13590,7 +13587,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13601,7 +13598,7 @@
         <v>6</v>
       </c>
       <c r="EA1" s="254" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="EB1" s="254"/>
       <c r="EC1" s="254"/>
@@ -13693,7 +13690,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="210" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13950,7 +13947,7 @@
       </c>
       <c r="H1"/>
       <c r="I1" s="195" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -13997,8 +13994,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14015,19 +14012,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="59" t="s">
         <v>34</v>
@@ -14035,16 +14032,16 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>46</v>
@@ -14055,16 +14052,16 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>46</v>
@@ -14075,16 +14072,16 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>46</v>
@@ -14095,16 +14092,16 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>46</v>
@@ -14115,16 +14112,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>46</v>
@@ -14135,16 +14132,16 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>46</v>
@@ -14155,16 +14152,16 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>46</v>
@@ -14175,16 +14172,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>46</v>
@@ -14195,16 +14192,16 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>46</v>
@@ -14215,16 +14212,16 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>46</v>
@@ -14235,16 +14232,16 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>46</v>
@@ -14255,16 +14252,16 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>46</v>
@@ -14275,16 +14272,16 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>46</v>
@@ -14295,16 +14292,16 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>46</v>
@@ -14315,16 +14312,16 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>46</v>
@@ -14335,16 +14332,16 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>46</v>
@@ -14355,16 +14352,16 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>46</v>
@@ -14375,16 +14372,16 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>46</v>
@@ -14395,16 +14392,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>46</v>
@@ -14415,16 +14412,16 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>46</v>
@@ -14435,16 +14432,16 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>69</v>
@@ -14455,16 +14452,16 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>69</v>
@@ -14475,16 +14472,16 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>73</v>
@@ -14495,16 +14492,16 @@
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>73</v>
@@ -14515,10 +14512,10 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>76</v>
@@ -14535,10 +14532,10 @@
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>79</v>
@@ -14555,10 +14552,10 @@
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>170</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>80</v>
@@ -14575,10 +14572,10 @@
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>81</v>
@@ -14595,7 +14592,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>83</v>
@@ -14604,7 +14601,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>84</v>
@@ -14615,16 +14612,16 @@
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>84</v>
@@ -14635,16 +14632,16 @@
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>84</v>
@@ -14655,7 +14652,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
@@ -14664,7 +14661,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>84</v>
@@ -14675,7 +14672,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>89</v>
@@ -14684,7 +14681,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>84</v>
@@ -14695,7 +14692,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>90</v>
@@ -14704,7 +14701,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>84</v>
@@ -14715,7 +14712,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>92</v>
@@ -14724,7 +14721,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>93</v>
@@ -14735,16 +14732,16 @@
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>93</v>
@@ -14755,7 +14752,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>96</v>
@@ -14764,7 +14761,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>93</v>
@@ -14775,7 +14772,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>97</v>
@@ -14784,7 +14781,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>93</v>
@@ -14795,7 +14792,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>98</v>
@@ -14804,7 +14801,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>93</v>
@@ -14815,7 +14812,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>100</v>
@@ -14824,7 +14821,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>101</v>
@@ -14835,16 +14832,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>101</v>
@@ -14855,7 +14852,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>104</v>
@@ -14864,7 +14861,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>101</v>
@@ -14875,7 +14872,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>105</v>
@@ -14884,7 +14881,7 @@
         <v>105</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>101</v>
@@ -14895,7 +14892,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>106</v>
@@ -14904,7 +14901,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>101</v>
@@ -14915,10 +14912,10 @@
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>108</v>
@@ -14935,10 +14932,10 @@
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>111</v>
@@ -14955,10 +14952,10 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>112</v>
@@ -14975,10 +14972,10 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>113</v>
@@ -14995,10 +14992,10 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>114</v>
@@ -15015,10 +15012,10 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>115</v>
@@ -15030,15 +15027,15 @@
         <v>109</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>155</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>116</v>
@@ -15055,7 +15052,7 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>143</v>
@@ -15075,7 +15072,7 @@
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>142</v>
@@ -15095,7 +15092,7 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="54" t="s">
         <v>139</v>
@@ -15118,7 +15115,7 @@
         <v>140</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>122</v>
@@ -15138,7 +15135,7 @@
         <v>140</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>123</v>
@@ -15158,7 +15155,7 @@
         <v>140</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="42" t="s">
         <v>137</v>
@@ -15167,7 +15164,7 @@
         <v>109</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15175,7 +15172,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>125</v>
@@ -15189,16 +15186,14 @@
       <c r="F59" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="42" t="s">
-        <v>146</v>
-      </c>
+      <c r="G59" s="42"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>127</v>
@@ -15212,16 +15207,14 @@
       <c r="F60" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="42" t="s">
-        <v>146</v>
-      </c>
+      <c r="G60" s="42"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>129</v>
@@ -15235,19 +15228,17 @@
       <c r="F61" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="42" t="s">
-        <v>146</v>
-      </c>
+      <c r="G61" s="42"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="233" t="s">
         <v>140</v>
       </c>
       <c r="B62" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="C62" s="234" t="s">
         <v>520</v>
-      </c>
-      <c r="C62" s="234" t="s">
-        <v>521</v>
       </c>
       <c r="D62" s="234" t="s">
         <v>137</v>
@@ -15288,7 +15279,7 @@
         <v>143</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>137</v>
@@ -15308,7 +15299,7 @@
         <v>143</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>137</v>
@@ -15412,7 +15403,7 @@
     <row r="1" spans="1:62" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="107"/>
       <c r="B1" s="259" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="259"/>
@@ -15439,172 +15430,172 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="258" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W2" s="258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="258" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AD2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK2" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL2" s="258" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AT2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AV2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AW2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ2" s="258" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BJ2" s="258" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
@@ -15615,78 +15606,78 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="102" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H3" s="258"/>
       <c r="I3" s="101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J3" s="101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P3" s="101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T3" s="101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W3" s="258"/>
       <c r="X3" s="96"/>
       <c r="Y3" s="102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA3" s="102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB3" s="258"/>
       <c r="AC3" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AD3" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE3" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF3" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG3" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI3" s="98" t="s">
         <v>67</v>
@@ -15695,273 +15686,273 @@
         <v>65</v>
       </c>
       <c r="AK3" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL3" s="258"/>
       <c r="AM3" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN3" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO3" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AP3" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ3" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AR3" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AS3" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AT3" s="98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU3" s="98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV3" s="98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AW3" s="98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AX3" s="98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AY3" s="98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ3" s="258"/>
       <c r="BA3" s="97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BD3" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BE3" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BF3" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG3" s="97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BJ3" s="258"/>
     </row>
     <row r="4" spans="1:62" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O4" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R4" s="100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V4" s="100" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W4" s="258"/>
       <c r="X4" s="99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z4" s="99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA4" s="99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB4" s="258"/>
       <c r="AC4" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD4" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE4" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF4" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG4" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AI4" s="98" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK4" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL4" s="258"/>
       <c r="AM4" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN4" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO4" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AP4" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AQ4" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR4" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AS4" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AT4" s="98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU4" s="98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV4" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW4" s="98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AX4" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AY4" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AZ4" s="258"/>
       <c r="BA4" s="97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BB4" s="97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BC4" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BD4" s="97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE4" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BF4" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BG4" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BH4" s="97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BI4" s="97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BJ4" s="258"/>
     </row>
     <row r="5" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G5:G5)</f>
@@ -15977,25 +15968,25 @@
       <c r="N5" s="93"/>
       <c r="O5" s="93"/>
       <c r="P5" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>206</v>
-      </c>
-      <c r="T5" s="74" t="s">
-        <v>207</v>
       </c>
       <c r="U5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V5" s="74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W5" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G5:V5)</f>
@@ -16018,10 +16009,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD5" s="74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE5" s="92"/>
       <c r="AF5" s="92"/>
@@ -16029,10 +16020,10 @@
       <c r="AH5" s="92"/>
       <c r="AI5" s="95"/>
       <c r="AJ5" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL5" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G5:AK5)</f>
@@ -16045,25 +16036,25 @@
       <c r="AQ5" s="92"/>
       <c r="AR5" s="92"/>
       <c r="AS5" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AU5" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AW5" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AX5" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AY5" s="74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AZ5" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G5:AY5)</f>
@@ -16085,25 +16076,25 @@
     </row>
     <row r="6" spans="1:62" s="64" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H6" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G6:G6)</f>
@@ -16111,49 +16102,49 @@
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P6" s="93"/>
       <c r="Q6" s="93"/>
       <c r="R6" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
       <c r="U6" s="93"/>
       <c r="V6" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W6" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G6:V6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB6" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G6:AA6)</f>
@@ -16162,47 +16153,47 @@
       <c r="AC6" s="92"/>
       <c r="AD6" s="92"/>
       <c r="AE6" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF6" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG6" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH6" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AI6" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ6" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK6" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL6" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G6:AK6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN6" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AO6" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AP6" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AQ6" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AR6" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -16210,10 +16201,10 @@
       <c r="AV6" s="92"/>
       <c r="AW6" s="92"/>
       <c r="AX6" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AY6" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AZ6" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G6:AY6)</f>
@@ -16235,22 +16226,22 @@
     </row>
     <row r="7" spans="1:62" s="64" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="67">
@@ -16285,22 +16276,22 @@
       </c>
       <c r="AC7" s="75"/>
       <c r="AD7" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE7" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF7" s="75"/>
       <c r="AG7" s="75"/>
       <c r="AH7" s="75"/>
       <c r="AI7" s="74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ7" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK7" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL7" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G7:AK7)</f>
@@ -16319,7 +16310,7 @@
       <c r="AW7" s="75"/>
       <c r="AX7" s="75"/>
       <c r="AY7" s="74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ7" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G7:AY7)</f>
@@ -16341,25 +16332,25 @@
     </row>
     <row r="8" spans="1:62" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G8:G8)</f>
@@ -16379,23 +16370,23 @@
       <c r="T8" s="81"/>
       <c r="U8" s="81"/>
       <c r="V8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W8" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G8:V8)</f>
         <v>0</v>
       </c>
       <c r="X8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA8" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB8" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G8:AA8)</f>
@@ -16447,25 +16438,25 @@
     </row>
     <row r="9" spans="1:62" s="64" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G9:G9)</f>
@@ -16485,23 +16476,23 @@
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
       <c r="V9" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W9" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G9:V9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB9" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G9:AA9)</f>
@@ -16509,22 +16500,22 @@
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE9" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK9" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL9" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G9:AK9)</f>
@@ -16543,7 +16534,7 @@
       <c r="AW9" s="75"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AZ9" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G9:AY9)</f>
@@ -16565,25 +16556,25 @@
     </row>
     <row r="10" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G10:G10)</f>
@@ -16603,23 +16594,23 @@
       <c r="T10" s="81"/>
       <c r="U10" s="81"/>
       <c r="V10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W10" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G10:V10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB10" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G10:AA10)</f>
@@ -16627,22 +16618,22 @@
       </c>
       <c r="AC10" s="84"/>
       <c r="AD10" s="74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83"/>
       <c r="AH10" s="83"/>
       <c r="AI10" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ10" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK10" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL10" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G10:AK10)</f>
@@ -16661,7 +16652,7 @@
       <c r="AW10" s="75"/>
       <c r="AX10" s="75"/>
       <c r="AY10" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ10" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G10:AY10)</f>
@@ -16683,25 +16674,25 @@
     </row>
     <row r="11" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G11:G11)</f>
@@ -16721,23 +16712,23 @@
       <c r="T11" s="81"/>
       <c r="U11" s="81"/>
       <c r="V11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W11" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA11" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB11" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G11:AA11)</f>
@@ -16745,22 +16736,22 @@
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE11" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AJ11" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK11" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL11" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G11:AK11)</f>
@@ -16779,7 +16770,7 @@
       <c r="AW11" s="75"/>
       <c r="AX11" s="75"/>
       <c r="AY11" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AZ11" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G11:AY11)</f>
@@ -16801,25 +16792,25 @@
     </row>
     <row r="12" spans="1:62" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H12" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G12:G12)</f>
@@ -16839,23 +16830,23 @@
       <c r="T12" s="81"/>
       <c r="U12" s="81"/>
       <c r="V12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W12" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Z12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA12" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB12" s="85">
         <f>SUMIF($G$2:AA$2,AA$2,$G12:AA12)</f>
@@ -16863,22 +16854,22 @@
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF12" s="83"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="83"/>
       <c r="AI12" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ12" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK12" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL12" s="82">
         <f>SUMIF($G$2:AK$2,AK$2,$G12:AK12)</f>
@@ -16897,7 +16888,7 @@
       <c r="AW12" s="75"/>
       <c r="AX12" s="75"/>
       <c r="AY12" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AZ12" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G12:AY12)</f>
@@ -16919,25 +16910,25 @@
     </row>
     <row r="13" spans="1:62" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H13" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G13:G13)</f>
@@ -16957,23 +16948,23 @@
       <c r="T13" s="81"/>
       <c r="U13" s="81"/>
       <c r="V13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W13" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA13" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AB13" s="65">
         <f>SUMIF($G$2:AA$2,AA$2,$G13:AA13)</f>
@@ -17025,25 +17016,25 @@
     </row>
     <row r="14" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G14:G14)</f>
@@ -17053,43 +17044,43 @@
         <v>41</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O14" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S14" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="74" t="s">
         <v>206</v>
-      </c>
-      <c r="T14" s="74" t="s">
-        <v>207</v>
       </c>
       <c r="U14" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V14" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W14" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G14:V14)</f>
@@ -17104,72 +17095,72 @@
         <v>0</v>
       </c>
       <c r="AC14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD14" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE14" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF14" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG14" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH14" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI14" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK14" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL14" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G14:AK14)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN14" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO14" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP14" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ14" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR14" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AS14" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT14" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU14" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV14" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AW14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX14" s="79"/>
       <c r="AY14" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AZ14" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G14:AY14)</f>
@@ -17191,25 +17182,25 @@
     </row>
     <row r="15" spans="1:62" s="64" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A15" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H15" s="67">
         <f>SUMIF($G$2:G$2,G$2,$G15:G15)</f>
@@ -17219,43 +17210,43 @@
         <v>41</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P15" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S15" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="T15" s="74" t="s">
         <v>206</v>
-      </c>
-      <c r="T15" s="74" t="s">
-        <v>207</v>
       </c>
       <c r="U15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W15" s="67">
         <f>SUMIF($G$2:V$2,V$2,$G15:V15)</f>
@@ -17270,72 +17261,72 @@
         <v>0</v>
       </c>
       <c r="AC15" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD15" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE15" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF15" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG15" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH15" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI15" s="74" t="s">
         <v>40</v>
       </c>
       <c r="AJ15" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK15" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL15" s="65">
         <f>SUMIF($G$2:AK$2,AK$2,$G15:AK15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN15" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO15" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP15" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ15" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR15" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AS15" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT15" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU15" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV15" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AW15" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AX15" s="75"/>
       <c r="AY15" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AZ15" s="65">
         <f>SUMIF($G$2:AY$2,AU$2,$G15:AY15)</f>
@@ -17362,7 +17353,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="68">
         <f>SUMIF($C$5:$C15,$C15,G$5:G15)</f>
@@ -17639,7 +17630,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="112" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="261" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1" s="261"/>
       <c r="D1" s="261"/>
@@ -17657,172 +17648,172 @@
       <c r="E2" s="158"/>
       <c r="F2" s="158"/>
       <c r="G2" s="155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="260" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V2" s="154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W2" s="260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AD2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK2" s="152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL2" s="260" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AP2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AR2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AT2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AV2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AW2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AX2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AY2" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ2" s="260" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BA2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BB2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BC2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BD2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BE2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BF2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BG2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BH2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BI2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BJ2" s="260" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="112" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17833,78 +17824,78 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H3" s="260"/>
       <c r="I3" s="154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L3" s="154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M3" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N3" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P3" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R3" s="154"/>
       <c r="S3" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T3" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U3" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V3" s="154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W3" s="260"/>
       <c r="X3" s="150"/>
       <c r="Y3" s="155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z3" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB3" s="260"/>
       <c r="AC3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AD3" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE3" s="152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF3" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG3" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI3" s="152" t="s">
         <v>67</v>
@@ -17913,255 +17904,255 @@
         <v>65</v>
       </c>
       <c r="AK3" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL3" s="260"/>
       <c r="AM3" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN3" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO3" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AP3" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ3" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AR3" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AS3" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AT3" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU3" s="152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV3" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AW3" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AX3" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AY3" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ3" s="260"/>
       <c r="BA3" s="151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BB3" s="151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BC3" s="151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BD3" s="151" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BE3" s="151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BF3" s="151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG3" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH3" s="151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BI3" s="151" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BJ3" s="260"/>
     </row>
     <row r="4" spans="1:62" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="157"/>
       <c r="B4" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="156" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M4" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N4" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O4" s="154" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P4" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S4" s="154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T4" s="154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U4" s="154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V4" s="154" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W4" s="260"/>
       <c r="X4" s="153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z4" s="153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA4" s="153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB4" s="260"/>
       <c r="AC4" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD4" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE4" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF4" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG4" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH4" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AI4" s="152" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK4" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL4" s="260"/>
       <c r="AM4" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AP4" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AQ4" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR4" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AS4" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AT4" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU4" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV4" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW4" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AX4" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AY4" s="152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AZ4" s="260"/>
       <c r="BA4" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BB4" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BC4" s="151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BD4" s="151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE4" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BF4" s="151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BG4" s="151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BH4" s="151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BI4" s="151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BJ4" s="260"/>
     </row>
     <row r="5" spans="1:62" s="112" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -18170,10 +18161,10 @@
         <v/>
       </c>
       <c r="E5" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="181">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18354,7 +18345,7 @@
     </row>
     <row r="6" spans="1:62" s="112" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -18363,10 +18354,10 @@
         <v/>
       </c>
       <c r="E6" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="137">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (affaires pénales)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18566,7 +18557,7 @@
     </row>
     <row r="7" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
@@ -18575,10 +18566,10 @@
         <v/>
       </c>
       <c r="E7" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="130">
@@ -18684,7 +18675,7 @@
     </row>
     <row r="8" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -18693,10 +18684,10 @@
         <v/>
       </c>
       <c r="E8" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.51. ACCUEIL DU JUSTICIABLE (DONT SAUJ)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -18793,7 +18784,7 @@
     </row>
     <row r="9" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
@@ -18802,10 +18793,10 @@
         <v/>
       </c>
       <c r="E9" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.1. SOUTIEN (HORS FORMATIONS SUIVIES)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")+
@@ -18972,7 +18963,7 @@
     </row>
     <row r="10" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
@@ -18981,10 +18972,10 @@
         <v/>
       </c>
       <c r="E10" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.3. FORMATIONS DISPENSÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19108,7 +19099,7 @@
     </row>
     <row r="11" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -19117,10 +19108,10 @@
         <v/>
       </c>
       <c r="E11" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.4. ACCÈS AU DROIT ET À LA JUSTICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19244,7 +19235,7 @@
     </row>
     <row r="12" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -19253,10 +19244,10 @@
         <v/>
       </c>
       <c r="E12" s="132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="137" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12. TOTAL INDISPONIBILITÉ",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")-
@@ -19386,7 +19377,7 @@
     </row>
     <row r="13" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="132"/>
       <c r="C13" s="132"/>
@@ -19395,10 +19386,10 @@
         <v/>
       </c>
       <c r="E13" s="132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="131" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("12.5. MISE À DISPOSITION",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH")</f>
@@ -19495,7 +19486,7 @@
     </row>
     <row r="14" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -19504,10 +19495,10 @@
         <v/>
       </c>
       <c r="E14" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
@@ -19717,7 +19708,7 @@
     </row>
     <row r="15" spans="1:62" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="132"/>
       <c r="C15" s="132"/>
@@ -19726,10 +19717,10 @@
         <v/>
       </c>
       <c r="E15" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="131">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
@@ -19944,7 +19935,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="118" t="e">
         <f t="shared" ref="G16:AL16" si="7">SUM(G5:G15)</f>
@@ -20247,7 +20238,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="D19" s="110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AZ19" s="109"/>
     </row>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BC58B-24CA-154E-AFA4-B474FE535B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87EB9B5-2D8D-1444-8BBA-5B6670528EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="13240" activeTab="6" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="9" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCUEIL" sheetId="33" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Juridictions" sheetId="17" state="hidden" r:id="rId6"/>
     <sheet name="Table_Fonctions" sheetId="19" r:id="rId7"/>
     <sheet name="ETPT_TJ_corresp-AJUST2" sheetId="24" state="hidden" r:id="rId8"/>
-    <sheet name="ETPT_TJ" sheetId="25" state="hidden" r:id="rId9"/>
-    <sheet name="ETPT_TPRX" sheetId="26" state="hidden" r:id="rId10"/>
+    <sheet name="ETPT_TJ" sheetId="25" r:id="rId9"/>
+    <sheet name="ETPT_TPRX" sheetId="26" r:id="rId10"/>
     <sheet name="ETPT_CPH" sheetId="27" state="hidden" r:id="rId11"/>
     <sheet name="ETPT_TJ_DDG" sheetId="28" r:id="rId12"/>
     <sheet name="ETPT_TPRX_DDG" sheetId="29" r:id="rId13"/>
@@ -3160,7 +3160,7 @@
       <name val="Calibri (Corps)"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3326,6 +3326,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B252"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3843,7 +3861,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4683,6 +4701,18 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="29" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="30" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="31" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -5722,11 +5752,11 @@
   </sheetPr>
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6092,15 +6122,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
       <c r="O5" s="125"/>
       <c r="P5" s="125"/>
       <c r="Q5" s="134"/>
@@ -6137,15 +6160,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
-      <c r="Z5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
       <c r="AB5" s="125"/>
       <c r="AC5" s="125"/>
       <c r="AD5" s="125"/>
@@ -6159,7 +6175,7 @@
         <v>#N/A</v>
       </c>
       <c r="AH5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUM(V5:AD5)-AF5-AG5</f>
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilés sur la période (contentieux civils et sociaux)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUM(V5:AD5)-AF5-AG5-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE S")</f>
         <v>#N/A</v>
       </c>
       <c r="AI5" s="162" t="e">
@@ -6777,20 +6793,13 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
       <c r="O14" s="125"/>
       <c r="P14" s="125"/>
       <c r="Q14" s="134"/>
-      <c r="R14" s="129" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")-SUM(I14:Q14)</f>
+      <c r="R14" s="265" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")-SUM(I14:Q14)-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
         <v>#N/A</v>
       </c>
       <c r="S14" s="117" t="e">
@@ -6819,15 +6828,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="Z14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
       <c r="AB14" s="125"/>
       <c r="AC14" s="125"/>
       <c r="AD14" s="125"/>
@@ -6840,8 +6842,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="AH14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")-SUM(Z14:AG14)</f>
+      <c r="AH14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")-SUM(AE14:AG14)</f>
         <v>#N/A</v>
       </c>
       <c r="AI14" s="162" t="e">
@@ -6890,20 +6892,13 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
       <c r="O15" s="125"/>
       <c r="P15" s="125"/>
       <c r="Q15" s="134"/>
-      <c r="R15" s="129" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")-SUM(I15:Q15)</f>
+      <c r="R15" s="265" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")-SUM(I15:Q15)-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
         <v>#N/A</v>
       </c>
       <c r="S15" s="117" t="e">
@@ -6932,15 +6927,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.2. PROTECTION DES MAJEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="Z15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")-
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2.7. TUTELLES MINEURS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Z15" s="263"/>
+      <c r="AA15" s="263"/>
       <c r="AB15" s="125"/>
       <c r="AC15" s="125"/>
       <c r="AD15" s="125"/>
@@ -6953,8 +6941,8 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="AH15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")-SUM(Z15:AG15)</f>
+      <c r="AH15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")-SUM(AE15:AG15)</f>
         <v>#N/A</v>
       </c>
       <c r="AI15" s="162" t="e">
@@ -6995,13 +6983,13 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="117" t="e">
+      <c r="M16" s="117">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="117" t="e">
+        <v>0</v>
+      </c>
+      <c r="N16" s="117">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O16" s="187">
         <f t="shared" si="6"/>
@@ -7047,13 +7035,13 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="Z16" s="117" t="e">
+      <c r="Z16" s="117">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" s="117" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="117">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="187">
         <f t="shared" si="6"/>
@@ -13994,7 +13982,7 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B40" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -17606,7 +17594,7 @@
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18300,8 +18288,8 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
-      <c r="AW5" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
+      <c r="AW5" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat SIEGE NS")</f>
         <v>#N/A</v>
       </c>
       <c r="AX5" s="126" t="e">
@@ -19573,9 +19561,9 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="V14" s="129" t="e">
+      <c r="V14" s="265" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé ADD")-
-SUM(I14:U14)</f>
+SUM(I14:U14)-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé ADD")</f>
         <v>#N/A</v>
       </c>
       <c r="W14" s="117" t="e">
@@ -19601,64 +19589,64 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="AE14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.1. SERVICE GÉNÉRAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.2. JIRS ÉCO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.3. JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+      <c r="AE14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.1. SERVICE GÉNÉRAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.2. JIRS ÉCO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.3. JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
       <c r="AL14" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AM14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR14" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+      <c r="AM14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR14" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
       <c r="AS14" s="124" t="e">
@@ -19679,7 +19667,7 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
-      <c r="AW14" s="124" t="e">
+      <c r="AW14" s="264" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé ADD")</f>
         <v>#N/A</v>
       </c>
@@ -19795,9 +19783,9 @@
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1. TOTAL CONTENTIEUX SOCIAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="V15" s="129" t="e">
+      <c r="V15" s="265" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("Temps ventilé sur la période (y.c. indisponibilité)",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire A-B-CBUR placé SUB")-
-SUM(I15:U15)</f>
+SUM(I15:U15)-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("11.7. FONCTIONNAIRES AFFECTÉS AU CPH",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Fonctionnaire CTECH placé SUB")</f>
         <v>#N/A</v>
       </c>
       <c r="W15" s="117" t="e">
@@ -19823,64 +19811,64 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("3.44. SAISIE DES RÉMUNÉRATIONS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="AE15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.1. SERVICE GÉNÉRAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.2. JIRS ÉCO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.3. JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+      <c r="AE15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.1. SERVICE GÉNÉRAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.2. JIRS ÉCO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.3. JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("8.4. AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("9. TOTAL JAP",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.1. ACTIVITÉ CIVILE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("6.2. ACTIVITÉ PÉNALE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("5. TOTAL JLD CIVIL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("10. TOTAL JLD PÉNAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
       <c r="AL15" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AM15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR15" s="124" t="e">
-        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
-SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+      <c r="AM15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.5. COUR D'ASSISES HORS JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.51. COUR D'ASSISES JIRS",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.52. COUR CRIMINELLE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.121. COLLÉGIALES JIRS ECO-FI",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.12. COLLÉGIALES JIRS CRIM-ORG",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.122. COLLÉGIALES AUTRES SECTIONS SPÉCIALISÉES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR15" s="264" t="e">
+        <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.6. TRIBUNAL DE POLICE",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")+
+SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("7.7. OP CONTRAVENTIONNELLES",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
       <c r="AS15" s="124" t="e">
@@ -19901,7 +19889,7 @@
 SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("1.1. DÉPARTAGE PRUD'HOMAL",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>
-      <c r="AW15" s="124" t="e">
+      <c r="AW15" s="264" t="e">
         <f>SUMIFS( INDEX( 'ETPT Format DDG'!$A:$EF,,MATCH("2. TOTAL CONTENTIEUX JAF",'ETPT Format DDG'!2:2,0)),'ETPT Format DDG'!$C:$C,$D$5,'ETPT Format DDG'!$EA:$EA,"Magistrat placé SUB")</f>
         <v>#N/A</v>
       </c>

--- a/front/src/assets/template4.xlsx
+++ b/front/src/assets/template4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2236A0B-2A89-994D-BFA7-9C2642E3F64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9A653-5F3B-1848-BAAE-D5C33538B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" activeTab="3" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -2795,13 +2795,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="General;General;\-"/>
     <numFmt numFmtId="168" formatCode="0.###;0.###;\-"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="53" x14ac:knownFonts="1">
     <font>
@@ -4579,6 +4580,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4643,6 +4660,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4663,36 +4689,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="52" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="52" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4703,67 +4704,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6FC886D6-2077-B34D-B1DF-739B068A66D1}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{6BD57324-3FD5-D341-A299-730D14794802}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -5572,11 +5513,11 @@
       <c r="B1" s="192" t="s">
         <v>492</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="236" t="s">
         <v>493</v>
       </c>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
       <c r="F1" s="193"/>
       <c r="H1" s="27" t="s">
         <v>0</v>
@@ -5585,11 +5526,11 @@
     <row r="2" spans="1:8" s="197" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="194"/>
       <c r="B2" s="195"/>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="237" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
       <c r="F2" s="196"/>
       <c r="H2" s="27" t="s">
         <v>0</v>
@@ -5613,10 +5554,10 @@
       <c r="D4" s="202" t="s">
         <v>497</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="243" t="s">
         <v>498</v>
       </c>
-      <c r="F4" s="238"/>
+      <c r="F4" s="244"/>
       <c r="G4" s="211"/>
       <c r="H4" s="27" t="s">
         <v>0</v>
@@ -5633,10 +5574,10 @@
       <c r="D5" s="208" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="239" t="s">
+      <c r="E5" s="245" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="240"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="210"/>
       <c r="H5" s="27" t="s">
         <v>0</v>
@@ -5653,10 +5594,10 @@
       <c r="D6" s="209" t="s">
         <v>504</v>
       </c>
-      <c r="E6" s="241" t="s">
+      <c r="E6" s="247" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="242"/>
+      <c r="F6" s="248"/>
       <c r="G6" s="210"/>
       <c r="H6" s="27" t="s">
         <v>0</v>
@@ -5673,10 +5614,10 @@
       <c r="D7" s="209" t="s">
         <v>507</v>
       </c>
-      <c r="E7" s="241" t="s">
+      <c r="E7" s="247" t="s">
         <v>514</v>
       </c>
-      <c r="F7" s="242"/>
+      <c r="F7" s="248"/>
       <c r="G7" s="210"/>
       <c r="H7" s="27" t="s">
         <v>0</v>
@@ -5687,16 +5628,16 @@
       <c r="B8" s="218" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="232" t="s">
+      <c r="C8" s="238" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="232" t="s">
+      <c r="D8" s="238" t="s">
         <v>510</v>
       </c>
-      <c r="E8" s="243" t="s">
+      <c r="E8" s="249" t="s">
         <v>516</v>
       </c>
-      <c r="F8" s="244"/>
+      <c r="F8" s="250"/>
       <c r="G8" s="210"/>
       <c r="H8" s="27" t="s">
         <v>0</v>
@@ -5707,10 +5648,10 @@
       <c r="B9" s="219" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="246"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="252"/>
       <c r="G9" s="210"/>
       <c r="H9" s="27" t="s">
         <v>0</v>
@@ -5721,10 +5662,10 @@
       <c r="B10" s="220" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="248"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
       <c r="G10" s="210"/>
       <c r="H10" s="27" t="s">
         <v>0</v>
@@ -5744,11 +5685,11 @@
     <row r="12" spans="1:8" s="27" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="198"/>
       <c r="B12" s="212"/>
-      <c r="C12" s="236" t="s">
+      <c r="C12" s="242" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
       <c r="F12" s="213"/>
       <c r="H12" s="27" t="s">
         <v>0</v>
@@ -5762,14 +5703,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="241"/>
       <c r="H14" s="27" t="s">
         <v>0</v>
       </c>
@@ -5822,16 +5763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="265" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
       <c r="I1" s="107"/>
       <c r="J1" s="107"/>
       <c r="K1" s="107"/>
@@ -5870,7 +5811,7 @@
       <c r="G2" s="150" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="263" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="150" t="s">
@@ -5903,13 +5844,13 @@
       <c r="R2" s="150" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="254" t="s">
+      <c r="S2" s="263" t="s">
         <v>433</v>
       </c>
       <c r="T2" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="254" t="s">
+      <c r="U2" s="263" t="s">
         <v>432</v>
       </c>
       <c r="V2" s="150" t="s">
@@ -5939,7 +5880,7 @@
       <c r="AD2" s="150" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" s="254" t="s">
+      <c r="AE2" s="263" t="s">
         <v>480</v>
       </c>
       <c r="AF2" s="150" t="s">
@@ -5951,7 +5892,7 @@
       <c r="AH2" s="150" t="s">
         <v>479</v>
       </c>
-      <c r="AI2" s="254" t="s">
+      <c r="AI2" s="263" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5965,7 +5906,7 @@
       <c r="G3" s="150" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="254"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="150" t="s">
         <v>477</v>
       </c>
@@ -5996,11 +5937,11 @@
       <c r="R3" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="S3" s="254"/>
+      <c r="S3" s="263"/>
       <c r="T3" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="U3" s="254"/>
+      <c r="U3" s="263"/>
       <c r="V3" s="150" t="s">
         <v>468</v>
       </c>
@@ -6028,7 +5969,7 @@
       <c r="AD3" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="AE3" s="254"/>
+      <c r="AE3" s="263"/>
       <c r="AF3" s="150" t="s">
         <v>459</v>
       </c>
@@ -6038,7 +5979,7 @@
       <c r="AH3" s="150" t="s">
         <v>389</v>
       </c>
-      <c r="AI3" s="254"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="153"/>
@@ -6060,7 +6001,7 @@
       <c r="G4" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="263"/>
       <c r="I4" s="150" t="s">
         <v>458</v>
       </c>
@@ -6091,11 +6032,11 @@
       <c r="R4" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="S4" s="254"/>
+      <c r="S4" s="263"/>
       <c r="T4" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="U4" s="254"/>
+      <c r="U4" s="263"/>
       <c r="V4" s="150" t="s">
         <v>449</v>
       </c>
@@ -6123,7 +6064,7 @@
       <c r="AD4" s="150" t="s">
         <v>441</v>
       </c>
-      <c r="AE4" s="254"/>
+      <c r="AE4" s="263"/>
       <c r="AF4" s="150" t="s">
         <v>440</v>
       </c>
@@ -6133,7 +6074,7 @@
       <c r="AH4" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="AI4" s="254"/>
+      <c r="AI4" s="263"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
@@ -7242,13 +7183,13 @@
       <c r="G2" s="150" t="s">
         <v>434</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="263" t="s">
         <v>433</v>
       </c>
       <c r="I2" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="263" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7262,11 +7203,11 @@
       <c r="G3" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="254"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="254"/>
+      <c r="J3" s="263"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="172"/>
@@ -7288,11 +7229,11 @@
       <c r="G4" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="263"/>
       <c r="I4" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="J4" s="254"/>
+      <c r="J4" s="263"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="166" t="s">
@@ -7696,7 +7637,7 @@
       <c r="G2" s="150" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="263" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="149" t="s">
@@ -7741,7 +7682,7 @@
       <c r="V2" s="149" t="s">
         <v>434</v>
       </c>
-      <c r="W2" s="254" t="s">
+      <c r="W2" s="263" t="s">
         <v>433</v>
       </c>
       <c r="X2" s="150" t="s">
@@ -7756,7 +7697,7 @@
       <c r="AA2" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="254" t="s">
+      <c r="AB2" s="263" t="s">
         <v>432</v>
       </c>
       <c r="AC2" s="147" t="s">
@@ -7786,7 +7727,7 @@
       <c r="AK2" s="147" t="s">
         <v>431</v>
       </c>
-      <c r="AL2" s="254" t="s">
+      <c r="AL2" s="263" t="s">
         <v>430</v>
       </c>
       <c r="AM2" s="147" t="s">
@@ -7828,7 +7769,7 @@
       <c r="AY2" s="147" t="s">
         <v>429</v>
       </c>
-      <c r="AZ2" s="254" t="s">
+      <c r="AZ2" s="263" t="s">
         <v>428</v>
       </c>
       <c r="BA2" s="146" t="s">
@@ -7858,7 +7799,7 @@
       <c r="BI2" s="146" t="s">
         <v>427</v>
       </c>
-      <c r="BJ2" s="254" t="s">
+      <c r="BJ2" s="263" t="s">
         <v>426</v>
       </c>
       <c r="BK2"/>
@@ -7873,7 +7814,7 @@
       <c r="G3" s="150" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="254"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="149" t="s">
         <v>424</v>
       </c>
@@ -7914,7 +7855,7 @@
       <c r="V3" s="149" t="s">
         <v>412</v>
       </c>
-      <c r="W3" s="254"/>
+      <c r="W3" s="263"/>
       <c r="X3" s="145"/>
       <c r="Y3" s="150" t="s">
         <v>411</v>
@@ -7925,7 +7866,7 @@
       <c r="AA3" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="AB3" s="254"/>
+      <c r="AB3" s="263"/>
       <c r="AC3" s="147" t="s">
         <v>408</v>
       </c>
@@ -7953,7 +7894,7 @@
       <c r="AK3" s="147" t="s">
         <v>402</v>
       </c>
-      <c r="AL3" s="254"/>
+      <c r="AL3" s="263"/>
       <c r="AM3" s="147" t="s">
         <v>401</v>
       </c>
@@ -7993,7 +7934,7 @@
       <c r="AY3" s="147" t="s">
         <v>389</v>
       </c>
-      <c r="AZ3" s="254"/>
+      <c r="AZ3" s="263"/>
       <c r="BA3" s="146" t="s">
         <v>388</v>
       </c>
@@ -8021,7 +7962,7 @@
       <c r="BI3" s="146" t="s">
         <v>380</v>
       </c>
-      <c r="BJ3" s="254"/>
+      <c r="BJ3" s="263"/>
     </row>
     <row r="4" spans="1:63" s="107" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="152"/>
@@ -8043,7 +7984,7 @@
       <c r="G4" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="263"/>
       <c r="I4" s="149" t="s">
         <v>374</v>
       </c>
@@ -8086,7 +8027,7 @@
       <c r="V4" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="254"/>
+      <c r="W4" s="263"/>
       <c r="X4" s="148" t="s">
         <v>360</v>
       </c>
@@ -8099,7 +8040,7 @@
       <c r="AA4" s="148" t="s">
         <v>357</v>
       </c>
-      <c r="AB4" s="254"/>
+      <c r="AB4" s="263"/>
       <c r="AC4" s="147" t="s">
         <v>356</v>
       </c>
@@ -8127,7 +8068,7 @@
       <c r="AK4" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="AL4" s="254"/>
+      <c r="AL4" s="263"/>
       <c r="AM4" s="147" t="s">
         <v>348</v>
       </c>
@@ -8167,7 +8108,7 @@
       <c r="AY4" s="147" t="s">
         <v>336</v>
       </c>
-      <c r="AZ4" s="254"/>
+      <c r="AZ4" s="263"/>
       <c r="BA4" s="146" t="s">
         <v>335</v>
       </c>
@@ -8195,7 +8136,7 @@
       <c r="BI4" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="BJ4" s="254"/>
+      <c r="BJ4" s="263"/>
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="107" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -10916,7 +10857,7 @@
       <c r="G2" s="150" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="263" t="s">
         <v>435</v>
       </c>
       <c r="I2" s="150" t="s">
@@ -10949,13 +10890,13 @@
       <c r="R2" s="150" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="254" t="s">
+      <c r="S2" s="263" t="s">
         <v>433</v>
       </c>
       <c r="T2" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="254" t="s">
+      <c r="U2" s="263" t="s">
         <v>432</v>
       </c>
       <c r="V2" s="150" t="s">
@@ -10985,7 +10926,7 @@
       <c r="AD2" s="150" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" s="254" t="s">
+      <c r="AE2" s="263" t="s">
         <v>480</v>
       </c>
       <c r="AF2" s="150" t="s">
@@ -10997,7 +10938,7 @@
       <c r="AH2" s="150" t="s">
         <v>479</v>
       </c>
-      <c r="AI2" s="254" t="s">
+      <c r="AI2" s="263" t="s">
         <v>478</v>
       </c>
     </row>
@@ -11011,7 +10952,7 @@
       <c r="G3" s="150" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="254"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="150" t="s">
         <v>477</v>
       </c>
@@ -11042,11 +10983,11 @@
       <c r="R3" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="S3" s="254"/>
+      <c r="S3" s="263"/>
       <c r="T3" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="U3" s="254"/>
+      <c r="U3" s="263"/>
       <c r="V3" s="150" t="s">
         <v>468</v>
       </c>
@@ -11074,7 +11015,7 @@
       <c r="AD3" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="AE3" s="254"/>
+      <c r="AE3" s="263"/>
       <c r="AF3" s="150" t="s">
         <v>459</v>
       </c>
@@ -11084,7 +11025,7 @@
       <c r="AH3" s="150" t="s">
         <v>389</v>
       </c>
-      <c r="AI3" s="254"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:62" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="153"/>
@@ -11106,7 +11047,7 @@
       <c r="G4" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="263"/>
       <c r="I4" s="150" t="s">
         <v>458</v>
       </c>
@@ -11137,11 +11078,11 @@
       <c r="R4" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="S4" s="254"/>
+      <c r="S4" s="263"/>
       <c r="T4" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="U4" s="254"/>
+      <c r="U4" s="263"/>
       <c r="V4" s="150" t="s">
         <v>449</v>
       </c>
@@ -11169,7 +11110,7 @@
       <c r="AD4" s="150" t="s">
         <v>441</v>
       </c>
-      <c r="AE4" s="254"/>
+      <c r="AE4" s="263"/>
       <c r="AF4" s="150" t="s">
         <v>440</v>
       </c>
@@ -11179,7 +11120,7 @@
       <c r="AH4" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="AI4" s="254"/>
+      <c r="AI4" s="263"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
@@ -12916,13 +12857,13 @@
       <c r="G2" s="150" t="s">
         <v>434</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="263" t="s">
         <v>433</v>
       </c>
       <c r="I2" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="263" t="s">
         <v>432</v>
       </c>
     </row>
@@ -12936,11 +12877,11 @@
       <c r="G3" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="254"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="254"/>
+      <c r="J3" s="263"/>
     </row>
     <row r="4" spans="1:62" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="172"/>
@@ -12962,11 +12903,11 @@
       <c r="G4" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="263"/>
       <c r="I4" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="J4" s="254"/>
+      <c r="J4" s="263"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="166" t="s">
@@ -13681,14 +13622,14 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="EA1" s="249" t="s">
+      <c r="EA1" s="255" t="s">
         <v>490</v>
       </c>
-      <c r="EB1" s="249"/>
-      <c r="EC1" s="249"/>
-      <c r="ED1" s="249"/>
-      <c r="EE1" s="249"/>
-      <c r="EF1" s="249"/>
+      <c r="EB1" s="255"/>
+      <c r="EC1" s="255"/>
+      <c r="ED1" s="255"/>
+      <c r="EE1" s="255"/>
+      <c r="EF1" s="255"/>
       <c r="EG1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13751,8 +13692,8 @@
   </sheetPr>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13830,30 +13771,30 @@
     </row>
     <row r="4" spans="1:24"